--- a/data/Producao_Bibliografica_Doutorandos.xlsx
+++ b/data/Producao_Bibliografica_Doutorandos.xlsx
@@ -2366,7 +2366,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C448"/>
+  <dimension ref="A1:C415"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2574,145 +2574,142 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Alexia de Santana Rosa</t>
+          <t>Amanda Guimarães da Silva</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CONGRESSO ARTE E HISTÓRIA: TRAJETÓRIAS DA ARTE, RUPTURAS E PERMANÊNCIAS. 2022. (Congresso).</t>
+          <t>SILVA, A. G.. Território, Agroecologia e Redes Comunitárias: um estudo de caso a partir da APA Serra da Ibiapaba, Ceará, Brasil, entre os anos de 1990 e 2020.. 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Alexia de Santana Rosa</t>
+          <t>Amanda Guimarães da Silva</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>XVI Encontro Nacional de História Oral - Pandemia e Futuros Possíveis.
-						2022. (Encontro).</t>
+          <t>SILVA, A. G.. Trabalho, carroceiros e animais: sociabilidades e sensibilidades a partir da cidade de Fortaleza durante as últimas décadas do século XIX e primeiras décadas do século XX.. 2023. (Apresentação de Trabalho/Seminário).</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Alexia de Santana Rosa</t>
+          <t>Amanda Guimarães da Silva</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>III Semana Acadêmica de História UEMG.Os crimes do Archivo Vermelho e a alma encantadora das ruas: a contribuição da mídia carioca na construção do preconceito socio-geográfico dos moradores do centro do Rio de Janeiro no início do século XX..
-						2021. (Simpósio).</t>
+          <t>SILVA, A. G.. Soberania Alimentar e Conservação Ambiental: um estudo de caso a partir das comunidades de São Benedito, APA Serra da Ibiapaba, Ceará, Brasil, entre os anos de 2002 e 2022.. 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Alexia de Santana Rosa</t>
+          <t>Amanda Guimarães da Silva</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>III Semana Acadêmica de História UEMG.
-						2021. (Simpósio).</t>
+          <t>SILVA, A. G.. Soberania Alimentar e Conservação Ambiental: um estudo de caso a partir das comunidades de São Benedito, APA Serra da Ibiapaba, Ceará, Brasil, entre os anos de 2002 e 2022.. 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Alexia de Santana Rosa</t>
+          <t>Amanda Guimarães da Silva</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>ROSARIO, L. ; MEDINA, I. ; MASULLO, I. ; BARBOSA, T. ;ROSA, A. S.. Jornada Manoel Salgado - PPGHIS (UFRJ). 2023. (Outro).</t>
+          <t>SILVA, A. G.. Sistemas Agroflorestais e semiárido: experiências de alimentação, comercialização, técnicas e sensibilidades de tempo em territórios da Serra da Ibiapaba, entre 2003 e 2020. 2021. (Apresentação de Trabalho/Seminário).</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Alexia de Santana Rosa</t>
+          <t>Ana Lectícia Felix Angelotti</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>MAIA, A. C. N. ;ROSA, A. S.. XVI Encontro Nacional de História Oral - Pandemia e Futuros Possíveis (monitoria). 2022. (Outro).</t>
+          <t>ANGELOTTI, A. L. F.. Borrando as fronteiras: o romance histórico contemporâneo na obra de Elena Ferrante. 2024. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Amanda Guimarães da Silva</t>
+          <t>Ana Lectícia Felix Angelotti</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>SILVA, A. G.. Território, Agroecologia e Redes Comunitárias: um estudo de caso a partir da APA Serra da Ibiapaba, Ceará, Brasil, entre os anos de 1990 e 2020.. 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>LECTÍCIA ANGELOTTI, ANA. ?As outras necessárias?: o realismo feminista na obra da escritora italiana Elena Ferrante. 2024. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Amanda Guimarães da Silva</t>
+          <t>Ana Lectícia Felix Angelotti</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>SILVA, A. G.. Trabalho, carroceiros e animais: sociabilidades e sensibilidades a partir da cidade de Fortaleza durante as últimas décadas do século XIX e primeiras décadas do século XX.. 2023. (Apresentação de Trabalho/Seminário).</t>
+          <t>LECTÍCIA ANGELOTTI, ANA. O cronotopo ferranteano: Nápoles no pós-segunda Guerra Mundial e as relações de Lenu e Lila com a cidade na tetralogia napolitana, de Elena Ferrante. 2024. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Amanda Guimarães da Silva</t>
+          <t>Ana Lectícia Felix Angelotti</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>SILVA, A. G.. Soberania Alimentar e Conservação Ambiental: um estudo de caso a partir das comunidades de São Benedito, APA Serra da Ibiapaba, Ceará, Brasil, entre os anos de 2002 e 2022.. 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>ANGELOTTI, A. L. F.; MOLDES, M. . Sem margens, nem moldura: imaginando a escrita impetuosa de Lila. 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Amanda Guimarães da Silva</t>
+          <t>Ana Lectícia Felix Angelotti</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -2720,22 +2717,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>SILVA, A. G.. Soberania Alimentar e Conservação Ambiental: um estudo de caso a partir das comunidades de São Benedito, APA Serra da Ibiapaba, Ceará, Brasil, entre os anos de 2002 e 2022.. 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>ANGELOTTI, A. L. F.. Questões contemporâneas de gênero na tetralogia napolitana, de Elena Ferrante. 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Amanda Guimarães da Silva</t>
+          <t>Ana Lectícia Felix Angelotti</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>SILVA, A. G.. Sistemas Agroflorestais e semiárido: experiências de alimentação, comercialização, técnicas e sensibilidades de tempo em territórios da Serra da Ibiapaba, entre 2003 e 2020. 2021. (Apresentação de Trabalho/Seminário).</t>
+          <t>ANGELOTTI, A. L. F.. História e ficção na Tetralogia Napolitana, de Elena Ferrante. 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
@@ -2746,11 +2743,11 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ANGELOTTI, A. L. F.. Borrando as fronteiras: o romance histórico contemporâneo na obra de Elena Ferrante. 2024. (Apresentação de Trabalho/Comunicação).</t>
+          <t>ANGELOTTI, A. L. F.. O romance de formação em perspectiva histórica: a tetralogia napolitana de Elena Ferrante. 2022. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
@@ -2761,11 +2758,11 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>LECTÍCIA ANGELOTTI, ANA. ?As outras necessárias?: o realismo feminista na obra da escritora italiana Elena Ferrante. 2024. (Apresentação de Trabalho/Comunicação).</t>
+          <t>ANGELOTTI, A. L. F.. Dispositivos metaficcionais na tetralogia napolitana, de Elena Ferrante: atualizações do romance de formação na contemporaneidade. 2022. (Apresentação de Trabalho/Simpósio).</t>
         </is>
       </c>
     </row>
@@ -2776,11 +2773,11 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>LECTÍCIA ANGELOTTI, ANA. O cronotopo ferranteano: Nápoles no pós-segunda Guerra Mundial e as relações de Lenu e Lila com a cidade na tetralogia napolitana, de Elena Ferrante. 2024. (Apresentação de Trabalho/Comunicação).</t>
+          <t>ANGELOTTI, A. L. F.. A tetralogia napolitana de Elena Ferrante como um Bildungsroman: ressignificações históricas do romance de formação. 2021. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
@@ -2791,33 +2788,33 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>ANGELOTTI, A. L. F.; MOLDES, M. . Sem margens, nem moldura: imaginando a escrita impetuosa de Lila. 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>ANGELOTTI, A. L. F.. A amizade de Lenu e Lila no centro da tetralogia napolitana, o romance de formação de Elena Ferrante.. 2021. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Ana Lectícia Felix Angelotti</t>
+          <t>André Arioza Vargas</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>ANGELOTTI, A. L. F.. Questões contemporâneas de gênero na tetralogia napolitana, de Elena Ferrante. 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>VARGAS, A. A.. O saber pela defesa da comunidade imigrante: dinâmicas do conhecimento colonial nas instituições portuguesas do Rio de Janeiro (1961-1975). 2021. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Ana Lectícia Felix Angelotti</t>
+          <t>Angélica Paulillo Ferroni</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -2825,14 +2822,14 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>ANGELOTTI, A. L. F.. História e ficção na Tetralogia Napolitana, de Elena Ferrante. 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>FERRONI, Angélica. A relação entre astrologia e medicina nos séculos XVI e XVII em Portugal. 2023. (Apresentação de Trabalho/Conferência ou palestra).</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Ana Lectícia Felix Angelotti</t>
+          <t>Angélica Paulillo Ferroni</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -2840,89 +2837,89 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>ANGELOTTI, A. L. F.. O romance de formação em perspectiva histórica: a tetralogia napolitana de Elena Ferrante. 2022. (Apresentação de Trabalho/Comunicação).</t>
+          <t>FERRONI, Angélica. Quão necessária é a astrologia para a medicina? A astrologia nos textos médicos portugueses do século XVI. 2022. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Ana Lectícia Felix Angelotti</t>
+          <t>Angélica Paulillo Ferroni</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>ANGELOTTI, A. L. F.. Dispositivos metaficcionais na tetralogia napolitana, de Elena Ferrante: atualizações do romance de formação na contemporaneidade. 2022. (Apresentação de Trabalho/Simpósio).</t>
+          <t>FERRONI, Angélica. As marcas da censura: astrologia e inquisição no caso de André do Avelar (1546-c.1623). 2021. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Ana Lectícia Felix Angelotti</t>
+          <t>Anne Caroline Santos Nunes</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>ANGELOTTI, A. L. F.. A tetralogia napolitana de Elena Ferrante como um Bildungsroman: ressignificações históricas do romance de formação. 2021. (Apresentação de Trabalho/Comunicação).</t>
+          <t>NUNES, A. C. S.. A pólis em conflito: mulheres, guerra e reorganização da política ateniense na comédia aristofânica.. 2022. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Ana Lectícia Felix Angelotti</t>
+          <t>Anne Caroline Santos Nunes</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>ANGELOTTI, A. L. F.. A amizade de Lenu e Lila no centro da tetralogia napolitana, o romance de formação de Elena Ferrante.. 2021. (Apresentação de Trabalho/Comunicação).</t>
+          <t>NUNES, A. C. S.. O encontro entre Medeia e Joana: a tragédia euripidiana revisitada por Chico Buarque e Paulo Pontes.. 2022. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>André Arioza Vargas</t>
+          <t>Anne Caroline Santos Nunes</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>VARGAS, A. A.. O saber pela defesa da comunidade imigrante: dinâmicas do conhecimento colonial nas instituições portuguesas do Rio de Janeiro (1961-1975). 2021. (Apresentação de Trabalho/Comunicação).</t>
+          <t>NUNES, A. C. S.. Representações das redes de amizade e solidariedade femininas na comédia de Aristófanes.. 2022. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Angélica Paulillo Ferroni</t>
+          <t>Anne Caroline Santos Nunes</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>FERRONI, Angélica. A relação entre astrologia e medicina nos séculos XVI e XVII em Portugal. 2023. (Apresentação de Trabalho/Conferência ou palestra).</t>
+          <t>NUNES, A. C. S.. O operador feminino e a ultrapassagem de fronteiras de gênero em Aristófanes.. 2022. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Angélica Paulillo Ferroni</t>
+          <t>Anne Caroline Santos Nunes</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -2930,22 +2927,22 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>FERRONI, Angélica. Quão necessária é a astrologia para a medicina? A astrologia nos textos médicos portugueses do século XVI. 2022. (Apresentação de Trabalho/Comunicação).</t>
+          <t>NUNES, A. C. S.. Aproximações entre a comédia aristofânica e a sala de aula: Assembleia de Mulheres e As Tesmoforiantes como recurso didático para a discussão sobre papéis de gênero.. 2022. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Angélica Paulillo Ferroni</t>
+          <t>Anne Caroline Santos Nunes</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>FERRONI, Angélica. As marcas da censura: astrologia e inquisição no caso de André do Avelar (1546-c.1623). 2021. (Apresentação de Trabalho/Comunicação).</t>
+          <t>NUNES, A. C. S.. A herança do modelo de heroína cômica clássica na construção do novo arquétipo de princesas da Disney.. 2022. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
@@ -2956,11 +2953,11 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>NUNES, A. C. S.. A pólis em conflito: mulheres, guerra e reorganização da política ateniense na comédia aristofânica.. 2022. (Apresentação de Trabalho/Comunicação).</t>
+          <t>NUNES, A. C. S.. O paradoxo cômico em Lisístrata de Aristófanes.. 2021. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
@@ -2971,93 +2968,93 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>NUNES, A. C. S.. O encontro entre Medeia e Joana: a tragédia euripidiana revisitada por Chico Buarque e Paulo Pontes.. 2022. (Apresentação de Trabalho/Comunicação).</t>
+          <t>NUNES, A. C. S.. O travestimento sob a perspectiva do 'outro' na comédia aristofânica. 2021. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Anne Caroline Santos Nunes</t>
+          <t>Beatriz Monteiro Lemos</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>NUNES, A. C. S.. Representações das redes de amizade e solidariedade femininas na comédia de Aristófanes.. 2022. (Apresentação de Trabalho/Comunicação).</t>
+          <t>LEMOS, B. M.. Conspiração, negacionismo e os usos das mídias digitais bolsonaristas para a produção de identidade da extrema direita brasileira.. 2024. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Anne Caroline Santos Nunes</t>
+          <t>Beatriz Monteiro Lemos</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>NUNES, A. C. S.. O operador feminino e a ultrapassagem de fronteiras de gênero em Aristófanes.. 2022. (Apresentação de Trabalho/Comunicação).</t>
+          <t>LEMOS, B. M.. Conspiracy, Negationism, and Anti-Communism as References for Organization and Practice of the Far Right in Brazil: From the military coup to Bolsonarism. 2024. (Apresentação de Trabalho/Congresso).</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Anne Caroline Santos Nunes</t>
+          <t>Beatriz Monteiro Lemos</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>NUNES, A. C. S.. Aproximações entre a comédia aristofânica e a sala de aula: Assembleia de Mulheres e As Tesmoforiantes como recurso didático para a discussão sobre papéis de gênero.. 2022. (Apresentação de Trabalho/Comunicação).</t>
+          <t>LEMOS, B. M.. Negacionismo e conspiracionismo: a gramática de produção de inimigos para a produção de identidade da extrema direita brasileira. 2024. (Apresentação de Trabalho/Congresso).</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Anne Caroline Santos Nunes</t>
+          <t>Beatriz Monteiro Lemos</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>NUNES, A. C. S.. A herança do modelo de heroína cômica clássica na construção do novo arquétipo de princesas da Disney.. 2022. (Apresentação de Trabalho/Comunicação).</t>
+          <t>LEMOS, B. M.. História, Memória e Culturas Políticas: a revista ?Presença da Mulher? no Movimento  Feminista no Brasil (1986-2016). 2023. (Apresentação de Trabalho/Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Anne Caroline Santos Nunes</t>
+          <t>Beatriz Monteiro Lemos</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>NUNES, A. C. S.. O paradoxo cômico em Lisístrata de Aristófanes.. 2021. (Apresentação de Trabalho/Comunicação).</t>
+          <t>LEMOS, B. M.. A Revista Presença Da Mulher E o Movimento Feminista No Brasil (1986-2016). 2022. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Anne Caroline Santos Nunes</t>
+          <t>Beatriz Monteiro Lemos</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -3065,7 +3062,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>NUNES, A. C. S.. O travestimento sob a perspectiva do 'outro' na comédia aristofânica. 2021. (Apresentação de Trabalho/Comunicação).</t>
+          <t>LEMOS, B. M.. História, memória e política: o feminismo emancipacionista e as estratégias de luta das mulheres comunistas no brasil (1986-1988). 2021. (Apresentação de Trabalho/Simpósio).</t>
         </is>
       </c>
     </row>
@@ -3076,11 +3073,11 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>LEMOS, B. M.. Conspiração, negacionismo e os usos das mídias digitais bolsonaristas para a produção de identidade da extrema direita brasileira.. 2024. (Apresentação de Trabalho/Comunicação).</t>
+          <t>LEMOS, B. M.. Raça, Gênero e Classe nas capas da revista Presença da Mulher. 2021. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
@@ -3091,146 +3088,146 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>LEMOS, B. M.. Conspiracy, Negationism, and Anti-Communism as References for Organization and Practice of the Far Right in Brazil: From the military coup to Bolsonarism. 2024. (Apresentação de Trabalho/Congresso).</t>
+          <t>LEMOS, B. M.. História e Memória das Mulheres no Brasil: rompendo silenciamentos. 2021. (Apresentação de Trabalho/Conferência ou palestra).</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Beatriz Monteiro Lemos</t>
+          <t>Bruno Azambuja Araujo</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>LEMOS, B. M.. Negacionismo e conspiracionismo: a gramática de produção de inimigos para a produção de identidade da extrema direita brasileira. 2024. (Apresentação de Trabalho/Congresso).</t>
+          <t>ARAUJO, BRUNO. O papel da educação na mobilização indígena por uma cidadania boliviana no início do século XX. 2022. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Beatriz Monteiro Lemos</t>
+          <t>Bruno Azambuja Araujo</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>LEMOS, B. M.. História, Memória e Culturas Políticas: a revista ?Presença da Mulher? no Movimento  Feminista no Brasil (1986-2016). 2023. (Apresentação de Trabalho/Simpósio).</t>
+          <t>ARAUJO, B. A.. Campos de experimentação agrícola na Escuela-Ayllu de Warisata: a relação entre a produtividade, o trabalho e  o saber indígena no altiplano boliviano (1931-1940). 2021. (Apresentação de Trabalho/Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Beatriz Monteiro Lemos</t>
+          <t>Bruno Azambuja Araujo</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>LEMOS, B. M.. A Revista Presença Da Mulher E o Movimento Feminista No Brasil (1986-2016). 2022. (Apresentação de Trabalho/Comunicação).</t>
+          <t>ARAUJO, B. A.. A ?re-vitalização? do indígena boliviano e suas conexões com um indigenismo latino-americano no início do século XX. 2021. (Apresentação de Trabalho/Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Beatriz Monteiro Lemos</t>
+          <t>Bruno Martins de Castro</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>LEMOS, B. M.. História, memória e política: o feminismo emancipacionista e as estratégias de luta das mulheres comunistas no brasil (1986-1988). 2021. (Apresentação de Trabalho/Simpósio).</t>
+          <t>CASTRO, B. M.. História social, micro-história e as contribuições das variações de escala de análise para o estudo das alforrias cartoriais em São João del-Rei - Minas Gerais, primeira metade do século XIX. 2024. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Beatriz Monteiro Lemos</t>
+          <t>Bruno Martins de Castro</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>LEMOS, B. M.. Raça, Gênero e Classe nas capas da revista Presença da Mulher. 2021. (Apresentação de Trabalho/Comunicação).</t>
+          <t>CASTRO, B. M.. Sobre quem é senhor e quem deixa de ser escravo: perfil senhorial, dinâmicas de liberdade e as possibilidades da alforria nas senzalas da antiga Comarca do Rio das Mortes  (São João del-Rei, século XIX). 2024. (Apresentação de Trabalho/Outra).</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Beatriz Monteiro Lemos</t>
+          <t>Bruno Martins de Castro</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>LEMOS, B. M.. História e Memória das Mulheres no Brasil: rompendo silenciamentos. 2021. (Apresentação de Trabalho/Conferência ou palestra).</t>
+          <t>CASTRO, B. M.. As contribuições das variações de escala de análise para o estudo das alforrias cartoriais em São João del-Rei - Minas Gerais, primeira metade do século XIX. 2024. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Bruno Azambuja Araujo</t>
+          <t>Bruno Martins de Castro</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>ARAUJO, BRUNO. O papel da educação na mobilização indígena por uma cidadania boliviana no início do século XX. 2022. (Apresentação de Trabalho/Comunicação).</t>
+          <t>CASTRO, B. M.. Sociedades escravistas e relações de poder no Brasil dos séculos XVIII e XIX. 2024. (Apresentação de Trabalho/Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Bruno Azambuja Araujo</t>
+          <t>Bruno Martins de Castro</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>ARAUJO, B. A.. Campos de experimentação agrícola na Escuela-Ayllu de Warisata: a relação entre a produtividade, o trabalho e  o saber indígena no altiplano boliviano (1931-1940). 2021. (Apresentação de Trabalho/Simpósio).</t>
+          <t>CASTRO, B. M.. Entre dados seriais e incursões microanalíticas: as contribuições das variações de escala para o estudo das alforrias cartoriais em São João del-Rei - Minas Gerais, primeira metade do século XIX. 2024. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Bruno Azambuja Araujo</t>
+          <t>Bruno Martins de Castro</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>ARAUJO, B. A.. A ?re-vitalização? do indígena boliviano e suas conexões com um indigenismo latino-americano no início do século XX. 2021. (Apresentação de Trabalho/Simpósio).</t>
+          <t>CASTRO, B. M.. Senhores escravistas da Comarca do Rio das Mortes: entre o tamanho de suas posses e as possibilidades da alforria - século XIX. 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
@@ -3241,11 +3238,11 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>CASTRO, B. M.. História social, micro-história e as contribuições das variações de escala de análise para o estudo das alforrias cartoriais em São João del-Rei - Minas Gerais, primeira metade do século XIX. 2024. (Apresentação de Trabalho/Comunicação).</t>
+          <t>CASTRO, B. M.. Tirando o racismo da invisibilidade: o dia internacional contra a discriminação racial e a construção de uma escola antirracista. 2023. (Apresentação de Trabalho/Conferência ou palestra).</t>
         </is>
       </c>
     </row>
@@ -3256,11 +3253,11 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>CASTRO, B. M.. Sobre quem é senhor e quem deixa de ser escravo: perfil senhorial, dinâmicas de liberdade e as possibilidades da alforria nas senzalas da antiga Comarca do Rio das Mortes  (São João del-Rei, século XIX). 2024. (Apresentação de Trabalho/Outra).</t>
+          <t>CASTRO, B. M.. Lendo liberdades, interpretando escravidões: o caso das alforrias cartoriais da Comarca do Rio das Mortes - São João del-Rei, primeira metade do século XIX. 2023. (Apresentação de Trabalho/Conferência ou palestra).</t>
         </is>
       </c>
     </row>
@@ -3271,11 +3268,11 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>CASTRO, B. M.. As contribuições das variações de escala de análise para o estudo das alforrias cartoriais em São João del-Rei - Minas Gerais, primeira metade do século XIX. 2024. (Apresentação de Trabalho/Comunicação).</t>
+          <t>CASTRO, B. M.. 'Por ser eu senhor e possuidor': padrão de posse de escravos e possibilidades da alforria na Comarca do Rio das Mortes - Minas Gerais, século XIX. 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
@@ -3286,11 +3283,11 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>CASTRO, B. M.. Sociedades escravistas e relações de poder no Brasil dos séculos XVIII e XIX. 2024. (Apresentação de Trabalho/Simpósio).</t>
+          <t>CASTRO, B. M.. Sobre tráfico, escravidões e liberdades: o caso das alforrias cartoriais do termo de São João del-Rei - Comarca do Rio das Motes, Minas Gerais (1830-1860). 2023. (Apresentação de Trabalho/Conferência ou palestra).</t>
         </is>
       </c>
     </row>
@@ -3301,11 +3298,11 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>CASTRO, B. M.. Entre dados seriais e incursões microanalíticas: as contribuições das variações de escala para o estudo das alforrias cartoriais em São João del-Rei - Minas Gerais, primeira metade do século XIX. 2024. (Apresentação de Trabalho/Comunicação).</t>
+          <t>CASTRO, B. M.. Pagando o preço da liberdade: grupos étnicos e a compra da alforria no termo de São João del-Rei - Comarca do Rio das Mortes,  Minas Gerais (1830-1860). 2023. (Apresentação de Trabalho/Conferência ou palestra).</t>
         </is>
       </c>
     </row>
@@ -3320,7 +3317,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>CASTRO, B. M.. Senhores escravistas da Comarca do Rio das Mortes: entre o tamanho de suas posses e as possibilidades da alforria - século XIX. 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>CASTRO, B. M.. Lendo liberdades, interpretando escravidões: racismo e desigualdade em perspectiva histórica. 2023. (Apresentação de Trabalho/Conferência ou palestra).</t>
         </is>
       </c>
     </row>
@@ -3335,7 +3332,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>CASTRO, B. M.. Tirando o racismo da invisibilidade: o dia internacional contra a discriminação racial e a construção de uma escola antirracista. 2023. (Apresentação de Trabalho/Conferência ou palestra).</t>
+          <t>CASTRO, B. M.. Sobre quem é senhor e quem deixa de ser escravo: tamanho de posses cativas e possibilidades da alforria na antiga Comarca do Rio das Mortes - Minas Gerais, primeira metade do século XIX. 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
@@ -3350,7 +3347,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>CASTRO, B. M.. Lendo liberdades, interpretando escravidões: o caso das alforrias cartoriais da Comarca do Rio das Mortes - São João del-Rei, primeira metade do século XIX. 2023. (Apresentação de Trabalho/Conferência ou palestra).</t>
+          <t>CASTRO, B. M.. Senhores, escravos e dinâmicas de alforrias: propriedades escravistas, padrão de manumissões e chances da liberdade nas senzalas do termo de São João del-Rei - Comarca do Rio das Mortes, Minas Gerais, primeira metade do Oitocentos. 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
@@ -3365,7 +3362,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>CASTRO, B. M.. 'Por ser eu senhor e possuidor': padrão de posse de escravos e possibilidades da alforria na Comarca do Rio das Mortes - Minas Gerais, século XIX. 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>CASTRO, B. M.. A Rainha Nzinga e a luta contra a colonização portuguesa na África Central: subsídio para reflexões sobre a construção das identidades afro-atlânticas. 2023. (Apresentação de Trabalho/Conferência ou palestra).</t>
         </is>
       </c>
     </row>
@@ -3380,7 +3377,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>CASTRO, B. M.. Sobre tráfico, escravidões e liberdades: o caso das alforrias cartoriais do termo de São João del-Rei - Comarca do Rio das Motes, Minas Gerais (1830-1860). 2023. (Apresentação de Trabalho/Conferência ou palestra).</t>
+          <t>CASTRO, B. M.. A África que vive em nós: história, ancestralidade e educação antirracista. 2023. (Apresentação de Trabalho/Conferência ou palestra).</t>
         </is>
       </c>
     </row>
@@ -3395,7 +3392,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>CASTRO, B. M.. Pagando o preço da liberdade: grupos étnicos e a compra da alforria no termo de São João del-Rei - Comarca do Rio das Mortes,  Minas Gerais (1830-1860). 2023. (Apresentação de Trabalho/Conferência ou palestra).</t>
+          <t>CASTRO, B. M.. Quantas Áfricas a África tem?: história, memória e as celebrações pela Consciência Negra. 2023. (Apresentação de Trabalho/Conferência ou palestra).</t>
         </is>
       </c>
     </row>
@@ -3410,7 +3407,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>CASTRO, B. M.. Lendo liberdades, interpretando escravidões: racismo e desigualdade em perspectiva histórica. 2023. (Apresentação de Trabalho/Conferência ou palestra).</t>
+          <t>CASTRO, B. M.. 'Para que fique isento de todo cativeiro': senhores, escravos e as possibilidades da alforria nas senzalas de São João del-Rei (Comarca do Rio das Mortes, Minas Gerais - século XIX). 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
@@ -3421,11 +3418,11 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>CASTRO, B. M.. Sobre quem é senhor e quem deixa de ser escravo: tamanho de posses cativas e possibilidades da alforria na antiga Comarca do Rio das Mortes - Minas Gerais, primeira metade do século XIX. 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>CASTRO, B. M.. Papéis da liberdade: os registros cartoriais das alforrias e as formas de concessão - termo de São João del-Rei, c.1830-c.1860. 2022. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
@@ -3436,11 +3433,11 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>CASTRO, B. M.. Senhores, escravos e dinâmicas de alforrias: propriedades escravistas, padrão de manumissões e chances da liberdade nas senzalas do termo de São João del-Rei - Comarca do Rio das Mortes, Minas Gerais, primeira metade do Oitocentos. 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>CASTRO, B. M.. Tráfico, escravidão e manumissões: uma análise econômica e demográfica sobre a reprodução das relações escravistas na Comarca do Rio das Mortes (São João del-Rei, primeira metade do Oitocentos). 2022. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
@@ -3451,11 +3448,11 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>CASTRO, B. M.. A Rainha Nzinga e a luta contra a colonização portuguesa na África Central: subsídio para reflexões sobre a construção das identidades afro-atlânticas. 2023. (Apresentação de Trabalho/Conferência ou palestra).</t>
+          <t>CASTRO, B. M.. A História Social da Escravidão e da Liberdade e o Racismo em Debate. 2022. (Apresentação de Trabalho/Conferência ou palestra).</t>
         </is>
       </c>
     </row>
@@ -3466,11 +3463,11 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>CASTRO, B. M.. A África que vive em nós: história, ancestralidade e educação antirracista. 2023. (Apresentação de Trabalho/Conferência ou palestra).</t>
+          <t>CASTRO, B. M.. Plurívocas liberdades: proprietários, cativos e as manumissões na permanente reprodução da escravidão na Comarca do Rio das Mortes  (São João del-Rei, primeira metade do século XIX). 2022. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
@@ -3481,11 +3478,11 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>CASTRO, B. M.. Quantas Áfricas a África tem?: história, memória e as celebrações pela Consciência Negra. 2023. (Apresentação de Trabalho/Conferência ou palestra).</t>
+          <t>CASTRO, B. M.. Repensando a Escravidão, debatendo o Racismo. 2022. (Apresentação de Trabalho/Conferência ou palestra).</t>
         </is>
       </c>
     </row>
@@ -3496,11 +3493,11 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>CASTRO, B. M.. 'Para que fique isento de todo cativeiro': senhores, escravos e as possibilidades da alforria nas senzalas de São João del-Rei (Comarca do Rio das Mortes, Minas Gerais - século XIX). 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>CASTRO, B. M.. Formas de liberdade: os registros notarias das manumissões e as tipologias de concessão - São João del-Rei, Minas Gerais, primeira metade do século XIX. 2022. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
@@ -3515,7 +3512,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>CASTRO, B. M.. Papéis da liberdade: os registros cartoriais das alforrias e as formas de concessão - termo de São João del-Rei, c.1830-c.1860. 2022. (Apresentação de Trabalho/Comunicação).</t>
+          <t>CASTRO, B. M.. 'Pelo justo preço de sua liberdade': tráfico negreiro, escravidão e a compra da alforria - São João del-Rei, 1830-1860. 2022. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
@@ -3530,7 +3527,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>CASTRO, B. M.. Tráfico, escravidão e manumissões: uma análise econômica e demográfica sobre a reprodução das relações escravistas na Comarca do Rio das Mortes (São João del-Rei, primeira metade do Oitocentos). 2022. (Apresentação de Trabalho/Comunicação).</t>
+          <t>CASTRO, B. M.. 'Para a conservação do meu direito': os registros notariais das manumissões e as tipologias de outorga - São João del-Rei, primeira metade do século XIX. 2022. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
@@ -3545,7 +3542,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>CASTRO, B. M.. A História Social da Escravidão e da Liberdade e o Racismo em Debate. 2022. (Apresentação de Trabalho/Conferência ou palestra).</t>
+          <t>CASTRO, B. M.. Escravidão e alforrias: senhores, escravos e as representações da liberdade na permanente reprodução do cativeiro - São João del-Rei (primeira metade do século XIX). 2022. (Apresentação de Trabalho/Conferência ou palestra).</t>
         </is>
       </c>
     </row>
@@ -3560,7 +3557,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>CASTRO, B. M.. Plurívocas liberdades: proprietários, cativos e as manumissões na permanente reprodução da escravidão na Comarca do Rio das Mortes  (São João del-Rei, primeira metade do século XIX). 2022. (Apresentação de Trabalho/Comunicação).</t>
+          <t>CASTRO, B. M.. O dia da Consciência Negra e a construção de uma educação antirracista. 2022. (Apresentação de Trabalho/Conferência ou palestra).</t>
         </is>
       </c>
     </row>
@@ -3575,7 +3572,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>CASTRO, B. M.. Repensando a Escravidão, debatendo o Racismo. 2022. (Apresentação de Trabalho/Conferência ou palestra).</t>
+          <t>CASTRO, B. M.. Alforrias, tratados notariais e escravidão nas Minas Gerais do século XIX. 2022. (Apresentação de Trabalho/Conferência ou palestra).</t>
         </is>
       </c>
     </row>
@@ -3586,11 +3583,11 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>CASTRO, B. M.. Formas de liberdade: os registros notarias das manumissões e as tipologias de concessão - São João del-Rei, Minas Gerais, primeira metade do século XIX. 2022. (Apresentação de Trabalho/Comunicação).</t>
+          <t>CASTRO, B. M.. Senhores e alforriados: as representações da liberdade e o contínuo reinventar da escravidão - São João del-Rei (1830-1860). 2021. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
@@ -3601,11 +3598,11 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>CASTRO, B. M.. 'Pelo justo preço de sua liberdade': tráfico negreiro, escravidão e a compra da alforria - São João del-Rei, 1830-1860. 2022. (Apresentação de Trabalho/Comunicação).</t>
+          <t>CASTRO, B. M.. Na espreita da liberdade: senhores, forros e as representações da alforria na permanente reprodução da escravidão - São João del-Rei (1830-1860). 2021. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
@@ -3616,11 +3613,11 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>CASTRO, B. M.. 'Para a conservação do meu direito': os registros notariais das manumissões e as tipologias de outorga - São João del-Rei, primeira metade do século XIX. 2022. (Apresentação de Trabalho/Comunicação).</t>
+          <t>CASTRO, B. M.. Prismas da liberdade: os sentidos da alforria para senhores e escravizados na permanente reprodução da escravidão - São João del-Rei (1830-1860). 2021. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
@@ -3631,11 +3628,11 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>CASTRO, B. M.. Escravidão e alforrias: senhores, escravos e as representações da liberdade na permanente reprodução do cativeiro - São João del-Rei (primeira metade do século XIX). 2022. (Apresentação de Trabalho/Conferência ou palestra).</t>
+          <t>CASTRO, B. M.. Dinâmicas da escravidão e da liberdade em São João del-Rei, Minas Gerais: aspectos econômicos e demográficos (c.1830 - c.1860). 2021. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
@@ -3646,11 +3643,11 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>CASTRO, B. M.. O dia da Consciência Negra e a construção de uma educação antirracista. 2022. (Apresentação de Trabalho/Conferência ou palestra).</t>
+          <t>CASTRO, B. M.. Olhares sobre a liberdade: escravidão e alforrias cartoriais em São João del-Rei - primeira metade do século XIX. 2021. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
@@ -3661,33 +3658,33 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>CASTRO, B. M.. Alforrias, tratados notariais e escravidão nas Minas Gerais do século XIX. 2022. (Apresentação de Trabalho/Conferência ou palestra).</t>
+          <t>CASTRO, B. M.. Caleidoscópio das liberdades: os registros cartoriais das alforrias e as modalidades de concessão - São João del-Rei (1830-1860). 2021. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Bruno Martins de Castro</t>
+          <t>Bruno Sousa Silva Godinho</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>CASTRO, B. M.. Senhores e alforriados: as representações da liberdade e o contínuo reinventar da escravidão - São João del-Rei (1830-1860). 2021. (Apresentação de Trabalho/Comunicação).</t>
+          <t>GODINHO, Bruno Sousa Silva.. O que faz o alquimista? Elogio e censura na poesia alquímica inglesa do século XV. 2022. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Bruno Martins de Castro</t>
+          <t>Bruno Sousa Silva Godinho</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -3695,14 +3692,14 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>CASTRO, B. M.. Na espreita da liberdade: senhores, forros e as representações da alforria na permanente reprodução da escravidão - São João del-Rei (1830-1860). 2021. (Apresentação de Trabalho/Comunicação).</t>
+          <t>GODINHO, Bruno Sousa Silva.. Os gêneros do discurso alquímico ocidental (séculos XII-XV). 2021. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Bruno Martins de Castro</t>
+          <t>Bruno Sousa Silva Godinho</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -3710,14 +3707,14 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>CASTRO, B. M.. Prismas da liberdade: os sentidos da alforria para senhores e escravizados na permanente reprodução da escravidão - São João del-Rei (1830-1860). 2021. (Apresentação de Trabalho/Comunicação).</t>
+          <t>GODINHO, Bruno Sousa Silva.. As possibilidades historiográficas da alquimia. Sobre ciência, verdade e discursos. 2021. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Bruno Martins de Castro</t>
+          <t>Bruno Sousa Silva Godinho</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -3725,14 +3722,14 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>CASTRO, B. M.. Dinâmicas da escravidão e da liberdade em São João del-Rei, Minas Gerais: aspectos econômicos e demográficos (c.1830 - c.1860). 2021. (Apresentação de Trabalho/Comunicação).</t>
+          <t>GODINHO, Bruno Sousa Silva.. A composição do discurso versificado na poesia alquímica inglesa do século XV. 2021. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Bruno Martins de Castro</t>
+          <t>Bruno Sousa Silva Godinho</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -3740,29 +3737,29 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>CASTRO, B. M.. Olhares sobre a liberdade: escravidão e alforrias cartoriais em São João del-Rei - primeira metade do século XIX. 2021. (Apresentação de Trabalho/Comunicação).</t>
+          <t>GODINHO, Bruno Sousa Silva.. Alquimia e auctoritas. Uso de autoridades na elaboração de uma comunidade textual. 2021. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Bruno Martins de Castro</t>
+          <t>Camille Ferreira Leandro</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>CASTRO, B. M.. Caleidoscópio das liberdades: os registros cartoriais das alforrias e as modalidades de concessão - São João del-Rei (1830-1860). 2021. (Apresentação de Trabalho/Comunicação).</t>
+          <t>LEANDRO, C. F.. A inscrição das églogas dramáticas no reino de Castela. 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Bruno Sousa Silva Godinho</t>
+          <t>Camille Ferreira Leandro</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -3770,74 +3767,74 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>GODINHO, Bruno Sousa Silva.. O que faz o alquimista? Elogio e censura na poesia alquímica inglesa do século XV. 2022. (Apresentação de Trabalho/Comunicação).</t>
+          <t>LEANDRO, C. F.. Representación sobre el poder del amor: laços afetivos como recursos de articulação política no teatro em Castela (1497). 2022. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Bruno Sousa Silva Godinho</t>
+          <t>Camille Ferreira Leandro</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>GODINHO, Bruno Sousa Silva.. Os gêneros do discurso alquímico ocidental (séculos XII-XV). 2021. (Apresentação de Trabalho/Comunicação).</t>
+          <t>LEANDRO, C. F.. O conceito de teatro nos estudos medievais: reflexões teórico metodológicas. 2022. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Bruno Sousa Silva Godinho</t>
+          <t>Camille Ferreira Leandro</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>GODINHO, Bruno Sousa Silva.. As possibilidades historiográficas da alquimia. Sobre ciência, verdade e discursos. 2021. (Apresentação de Trabalho/Comunicação).</t>
+          <t>LEANDRO, C. F.; ARAUJO, K. . Entre o fim e o começo: a idealização das Rainhas Leonor e Isabel em textos quatrocentistas. 2022. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Bruno Sousa Silva Godinho</t>
+          <t>Daiani da Silva Barbosa</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>GODINHO, Bruno Sousa Silva.. A composição do discurso versificado na poesia alquímica inglesa do século XV. 2021. (Apresentação de Trabalho/Comunicação).</t>
+          <t>BARBOSA, D. S.. ?Fazer anotações todos os dias neste caderno: em dois anos escrever uma obra?: uma análise do processo criativo de Albert Camus. 2024. (Apresentação de Trabalho/Seminário).</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Bruno Sousa Silva Godinho</t>
+          <t>Daiani da Silva Barbosa</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>GODINHO, Bruno Sousa Silva.. Alquimia e auctoritas. Uso de autoridades na elaboração de uma comunidade textual. 2021. (Apresentação de Trabalho/Comunicação).</t>
+          <t>BARBOSA, D. S.. 'Um jornal que vale por um livro': formação nacionalista e anticolonial em O Semanário (1956-1962). 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Camille Ferreira Leandro</t>
+          <t>Daiani da Silva Barbosa</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -3845,52 +3842,52 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>LEANDRO, C. F.. A inscrição das églogas dramáticas no reino de Castela. 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>BARBOSA, D. S.. Experiências cruzadas: o colonialismo no Magreb e as trajetórias intelectuais de Albert Memmi e Albert Camus. 2023. (Apresentação de Trabalho/Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Camille Ferreira Leandro</t>
+          <t>Daiani da Silva Barbosa</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>LEANDRO, C. F.. Representación sobre el poder del amor: laços afetivos como recursos de articulação política no teatro em Castela (1497). 2022. (Apresentação de Trabalho/Comunicação).</t>
+          <t>BARBOSA, D. S.. Reflexões sobre a intelectualidade francófona: compreender o século XX através da crítica de Albert Memmi. 2023. (Apresentação de Trabalho/Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Camille Ferreira Leandro</t>
+          <t>Daiani da Silva Barbosa</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>LEANDRO, C. F.. O conceito de teatro nos estudos medievais: reflexões teórico metodológicas. 2022. (Apresentação de Trabalho/Comunicação).</t>
+          <t>FONTES, D. ;BARBOSA, D. S.. Racismo, antissemitismo e suas vítimas no século XX: identidades, subjetividades e tentativas de superação. 2023. (Apresentação de Trabalho/Outra).</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Camille Ferreira Leandro</t>
+          <t>Daiani da Silva Barbosa</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>LEANDRO, C. F.; ARAUJO, K. . Entre o fim e o começo: a idealização das Rainhas Leonor e Isabel em textos quatrocentistas. 2022. (Apresentação de Trabalho/Comunicação).</t>
+          <t>BARBOSA, D. S.. Racismo, antissemitismo e bilinguismo cultural: o judeu colonizado na obra de Albert Memmi (1950-1980). 2023. (Apresentação de Trabalho/Congresso).</t>
         </is>
       </c>
     </row>
@@ -3901,11 +3898,11 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>BARBOSA, D. S.. ?Fazer anotações todos os dias neste caderno: em dois anos escrever uma obra?: uma análise do processo criativo de Albert Camus. 2024. (Apresentação de Trabalho/Seminário).</t>
+          <t>BARBOSA, D. S.. Albert Memmi: the border as a place of theore:cal production. 2023. (Apresentação de Trabalho/Outra).</t>
         </is>
       </c>
     </row>
@@ -3916,11 +3913,11 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>BARBOSA, D. S.. 'Um jornal que vale por um livro': formação nacionalista e anticolonial em O Semanário (1956-1962). 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>BARBOSA, D. S.. A recepção da Guerra da Argélia nas páginas do periódico nacionalista O Semanário (1956-1962). 2022. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
@@ -3931,11 +3928,11 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>BARBOSA, D. S.. Experiências cruzadas: o colonialismo no Magreb e as trajetórias intelectuais de Albert Memmi e Albert Camus. 2023. (Apresentação de Trabalho/Simpósio).</t>
+          <t>BARBOSA, D. S.. Luta Anticolonial e Nacionalismo: A Recepção da Guerra de Libertação da Argélia no Jornal O Semanário (1956-1962). 2022. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
@@ -3946,11 +3943,11 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>BARBOSA, D. S.. Reflexões sobre a intelectualidade francófona: compreender o século XX através da crítica de Albert Memmi. 2023. (Apresentação de Trabalho/Simpósio).</t>
+          <t>BARBOSA, D. S.. Aspectos acerca do genocídio no Discurso sobre o colonialismo de Aimé Césaire. 2021. (Apresentação de Trabalho/Simpósio).</t>
         </is>
       </c>
     </row>
@@ -3961,18 +3958,18 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>FONTES, D. ;BARBOSA, D. S.. Racismo, antissemitismo e suas vítimas no século XX: identidades, subjetividades e tentativas de superação. 2023. (Apresentação de Trabalho/Outra).</t>
+          <t>BARBOSA, D. S.. Cultura, política e revolta: o Movimento da Negritude no Teatro Experimental do Negro (1940-1950). 2021. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Daiani da Silva Barbosa</t>
+          <t>Deborah da Costa Fontenelle</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -3980,14 +3977,14 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>BARBOSA, D. S.. Racismo, antissemitismo e bilinguismo cultural: o judeu colonizado na obra de Albert Memmi (1950-1980). 2023. (Apresentação de Trabalho/Congresso).</t>
+          <t>FONTENELLE, D. C.. On a Historical Geography of Slavery and Freedom: early thoughts. 2023. (Apresentação de Trabalho/Conferência ou palestra).</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Daiani da Silva Barbosa</t>
+          <t>Deborah da Costa Fontenelle</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -3995,142 +3992,142 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>BARBOSA, D. S.. Albert Memmi: the border as a place of theore:cal production. 2023. (Apresentação de Trabalho/Outra).</t>
+          <t>FONTENELLE, D. C.; SILVEIRA, P. G. . Writing international historical geographies: exploring Mauricio de Almeida Abreu's academic mobility. 2023. (Apresentação de Trabalho/Conferência ou palestra).</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Daiani da Silva Barbosa</t>
+          <t>Deborah da Costa Fontenelle</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>BARBOSA, D. S.. A recepção da Guerra da Argélia nas páginas do periódico nacionalista O Semanário (1956-1962). 2022. (Apresentação de Trabalho/Comunicação).</t>
+          <t>FONTENELLE, D. C.. Narrativas negras e representações geohistóricas: imaginação e decolonialidade na produção científica. 2023. (Apresentação de Trabalho/Outra).</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Daiani da Silva Barbosa</t>
+          <t>Deborah da Costa Fontenelle</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>BARBOSA, D. S.. Luta Anticolonial e Nacionalismo: A Recepção da Guerra de Libertação da Argélia no Jornal O Semanário (1956-1962). 2022. (Apresentação de Trabalho/Comunicação).</t>
+          <t>SOARES, L. C. ;FONTENELLE, D. C.. Cartografías da memória e resistência como ferramenta de justiça social: ressignificando resistência no caso da ditadura empresarial-militar brasileira. 2023. (Apresentação de Trabalho/Conferência ou palestra).</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Daiani da Silva Barbosa</t>
+          <t>Deborah da Costa Fontenelle</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>BARBOSA, D. S.. Aspectos acerca do genocídio no Discurso sobre o colonialismo de Aimé Césaire. 2021. (Apresentação de Trabalho/Simpósio).</t>
+          <t>FONTENELLE, D. C.; SEIXAS, D. C. . Black Struggles and Places of Freedom: The Pro-Abolition Scenario in 19th century. 2023. (Apresentação de Trabalho/Conferência ou palestra).</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Daiani da Silva Barbosa</t>
+          <t>Deborah da Costa Fontenelle</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>BARBOSA, D. S.. Cultura, política e revolta: o Movimento da Negritude no Teatro Experimental do Negro (1940-1950). 2021. (Apresentação de Trabalho/Comunicação).</t>
+          <t>FONTENELLE, D. C.; SOARES, L. C. ; BARBOSA, A. C. S. . Povos originários do Brasil e os currículos de humanidades na educação básica. 2023. (Apresentação de Trabalho/Seminário).</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Daiani da Silva Barbosa</t>
+          <t>Deborah da Costa Fontenelle</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Seminário Nacional História e Ficção: as formas do (des)encontro.?Fazer anotações todos os dias neste caderno: em dois anos escrever uma obra?: uma análise do processo criativo de Albert Camus. 2024. (Seminário).</t>
+          <t>FONTENELLE, D. C.. Postgraduate Voices: The role of struggles for freedom in building a pro-abolition scenario in Rio de Janeiro, Brazil (1830-1888). 2022. (Apresentação de Trabalho/Conferência ou palestra).</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Daiani da Silva Barbosa</t>
+          <t>Deborah da Costa Fontenelle</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Conferência ?O rasgo ? Questões sociais, políticas e científicas da memória colonial na França. 2021. (Outra).</t>
+          <t>FONTENELLE, D. C.. Steps Towards Abolition in Brazil: Struggles for Freedom in 19th Century Rio de Janeiro. 2022. (Apresentação de Trabalho/Conferência ou palestra).</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Daiani da Silva Barbosa</t>
+          <t>Deborah da Costa Fontenelle</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Français Chez Vous - Fronteiras Diluídas em Memórias: a experiência do exílio em escritas francófonas. 2021. (Oficina).</t>
+          <t>FONTENELLE, D. C.. Power and Narratives, Black People and the Struggle for freedom as seen through Rio de Janeiro's local laws in the 19th century. 2022. (Apresentação de Trabalho/Seminário).</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Daiani da Silva Barbosa</t>
+          <t>Deborah da Costa Fontenelle</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Testemunho do evento-limite: pesquisa e transmissão - Prof. Pedro Caldas  (UNIRIO), moderação Profa. Silvia Correia (UFRJ). 2021. (Seminário).</t>
+          <t>SILVEIRA, P. G. ;FONTENELLE, D. C.. Mauricio de Almeida Abreu: Brazilian?s Historical Geography leading-edge. 2022. (Apresentação de Trabalho/Congresso).</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Daiani da Silva Barbosa</t>
+          <t>Deborah da Costa Fontenelle</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>BARBOSA, D. S.. Jornada de Estudos Históricos Professor Manoel Salgado ? Edição 2023. 2023. (Outro).</t>
+          <t>FONTENELLE, D. C.. Struggles for freedom in 19th century Rio de Janeiro. 2022. (Apresentação de Trabalho/Conferência ou palestra).</t>
         </is>
       </c>
     </row>
@@ -4141,11 +4138,11 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>FONTENELLE, D. C.. On a Historical Geography of Slavery and Freedom: early thoughts. 2023. (Apresentação de Trabalho/Conferência ou palestra).</t>
+          <t>FONTENELLE, D. C.. Enfrentamentos e resistências negras através das legislações e registros policiais na cidade do Rio de Janeiro do século XIX (Brasil, 1830-1888). 2022. (Apresentação de Trabalho/Conferência ou palestra).</t>
         </is>
       </c>
     </row>
@@ -4156,11 +4153,11 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>FONTENELLE, D. C.; SILVEIRA, P. G. . Writing international historical geographies: exploring Mauricio de Almeida Abreu's academic mobility. 2023. (Apresentação de Trabalho/Conferência ou palestra).</t>
+          <t>SOUZA, G. N. ;FONTENELLE, D. C.. 'Sentidos da Consciência Negra: Uma experiência no CAp-UERJ' - Uma exposição fotográfica entre o ensino e a extensão. 2021. (Apresentação de Trabalho/Congresso).</t>
         </is>
       </c>
     </row>
@@ -4171,138 +4168,138 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>FONTENELLE, D. C.. Narrativas negras e representações geohistóricas: imaginação e decolonialidade na produção científica. 2023. (Apresentação de Trabalho/Outra).</t>
+          <t>FONTENELLE, D. C.. As posturas municipais do Rio de Janeiro na regulação das lutas por liberdade no espaço público da cidade no século XIX. 2021. (Apresentação de Trabalho/Outra).</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Deborah da Costa Fontenelle</t>
+          <t>Dhyan Ramayana Ramos Rodrigues</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>SOARES, L. C. ;FONTENELLE, D. C.. Cartografías da memória e resistência como ferramenta de justiça social: ressignificando resistência no caso da ditadura empresarial-militar brasileira. 2023. (Apresentação de Trabalho/Conferência ou palestra).</t>
+          <t>RAMAYANA, D.. A composição do 'eu' em 'Tristes trópicos' (1955): autobiografia, ciência e ficção. 2024. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Deborah da Costa Fontenelle</t>
+          <t>Dhyan Ramayana Ramos Rodrigues</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>FONTENELLE, D. C.; SEIXAS, D. C. . Black Struggles and Places of Freedom: The Pro-Abolition Scenario in 19th century. 2023. (Apresentação de Trabalho/Conferência ou palestra).</t>
+          <t>RAMAYANA, D.. O ensaísmo em Lévi-Strauss: composição e recepção de 'O pensamento selvagem' (1962). 2024. (Apresentação de Trabalho/Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Deborah da Costa Fontenelle</t>
+          <t>Dhyan Ramayana Ramos Rodrigues</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>FONTENELLE, D. C.; SOARES, L. C. ; BARBOSA, A. C. S. . Povos originários do Brasil e os currículos de humanidades na educação básica. 2023. (Apresentação de Trabalho/Seminário).</t>
+          <t>RODRIGUES, D. R. R.. Dispositivos discursivos e alteridade em Tristes trópicos (1955). 2022. (Apresentação de Trabalho/Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Deborah da Costa Fontenelle</t>
+          <t>Dirson Fontes da Silva Sobrinho</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>FONTENELLE, D. C.. Postgraduate Voices: The role of struggles for freedom in building a pro-abolition scenario in Rio de Janeiro, Brazil (1830-1888). 2022. (Apresentação de Trabalho/Conferência ou palestra).</t>
+          <t>SOBRINHO, D.F.. ?Perpetrador e vítima face a face: O depoimento de Homero César Machado à Comissão Nacional da Verdade (CNV)?. 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Deborah da Costa Fontenelle</t>
+          <t>Dirson Fontes da Silva Sobrinho</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>FONTENELLE, D. C.. Steps Towards Abolition in Brazil: Struggles for Freedom in 19th Century Rio de Janeiro. 2022. (Apresentação de Trabalho/Conferência ou palestra).</t>
+          <t>SOBRINHO, D.F.. 'Reparação e Reconciliação: as disputas de memória na CNV/BR'. 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Deborah da Costa Fontenelle</t>
+          <t>Dirson Fontes da Silva Sobrinho</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>FONTENELLE, D. C.. Power and Narratives, Black People and the Struggle for freedom as seen through Rio de Janeiro's local laws in the 19th century. 2022. (Apresentação de Trabalho/Seminário).</t>
+          <t>SOBRINHO, D.F.. 'Lembra daquele tempo? O testemunho de Cecília Coimbra e a escrita de si como reconstrução de mundos'. 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Deborah da Costa Fontenelle</t>
+          <t>Dirson Fontes da Silva Sobrinho</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>SILVEIRA, P. G. ;FONTENELLE, D. C.. Mauricio de Almeida Abreu: Brazilian?s Historical Geography leading-edge. 2022. (Apresentação de Trabalho/Congresso).</t>
+          <t>SOBRINHO, D.F.. 'Racismo, Antissemitismo e suas vítimas no século XX: identidades, subjetividades e tentativas de superação'. 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Deborah da Costa Fontenelle</t>
+          <t>Dirson Fontes da Silva Sobrinho</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>FONTENELLE, D. C.. Struggles for freedom in 19th century Rio de Janeiro. 2022. (Apresentação de Trabalho/Conferência ou palestra).</t>
+          <t>SOBRINHO, D.F.. 'Judeu demais para ser comunista, comunista demais para ser judeu: a condição de Wladimir Herzog entre a ascensão nazista e a resistência à ditadura militar brasileira'. 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Deborah da Costa Fontenelle</t>
+          <t>Dirson Fontes da Silva Sobrinho</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -4310,209 +4307,209 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>FONTENELLE, D. C.. Enfrentamentos e resistências negras através das legislações e registros policiais na cidade do Rio de Janeiro do século XIX (Brasil, 1830-1888). 2022. (Apresentação de Trabalho/Conferência ou palestra).</t>
+          <t>SOBRINHO, D.F.. 'O passado não existe? o negacionismo acerca da ditadura brasileira e o testemunho das vítimas da repressão'. 2022. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Deborah da Costa Fontenelle</t>
+          <t>Dirson Fontes da Silva Sobrinho</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>SOUZA, G. N. ;FONTENELLE, D. C.. 'Sentidos da Consciência Negra: Uma experiência no CAp-UERJ' - Uma exposição fotográfica entre o ensino e a extensão. 2021. (Apresentação de Trabalho/Congresso).</t>
+          <t>SOBRINHO, D.F.. ' A Gestão Política das Emoções: O ressentimento como direito à memória e à justiça (uma comparação entre Brasil e Argentina)'.. 2022. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Deborah da Costa Fontenelle</t>
+          <t>Dirson Fontes da Silva Sobrinho</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>FONTENELLE, D. C.. As posturas municipais do Rio de Janeiro na regulação das lutas por liberdade no espaço público da cidade no século XIX. 2021. (Apresentação de Trabalho/Outra).</t>
+          <t>SOBRINHO, D.F.. 'O dever de reparação e o direito ao ressentimento à luz da Comissão Nacional da Verdade (CNV)'. 2022. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Dhyan Ramayana Ramos Rodrigues</t>
+          <t>Dirson Fontes da Silva Sobrinho</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>RAMAYANA, D.. A composição do 'eu' em 'Tristes trópicos' (1955): autobiografia, ciência e ficção. 2024. (Apresentação de Trabalho/Comunicação).</t>
+          <t>SOBRINHO, D.F.. 'Perdoo, mas não esqueço: a transição democrática brasileira sob uma mirada subjetiva'. 2022. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Dhyan Ramayana Ramos Rodrigues</t>
+          <t>Dirson Fontes da Silva Sobrinho</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>RAMAYANA, D.. O ensaísmo em Lévi-Strauss: composição e recepção de 'O pensamento selvagem' (1962). 2024. (Apresentação de Trabalho/Simpósio).</t>
+          <t>SOBRINHO, D.F.. 'A narrativa testemunhal entre o dever da memória e o direito à justiça'. 2021. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Dhyan Ramayana Ramos Rodrigues</t>
+          <t>Dirson Fontes da Silva Sobrinho</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>RODRIGUES, D. R. R.. Dispositivos discursivos e alteridade em Tristes trópicos (1955). 2022. (Apresentação de Trabalho/Simpósio).</t>
+          <t>SOBRINHO, D.F.. Judaicidade e Testemunho depois do Holocausto. 2021. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Dirson Fontes da Silva Sobrinho</t>
+          <t>Eraldo de Souza Leão Filho</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>SOBRINHO, D.F.. ?Perpetrador e vítima face a face: O depoimento de Homero César Machado à Comissão Nacional da Verdade (CNV)?. 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>LEÃO FILHO, E. S.. A querela do Padroado Imperial brasileiro: da Constituição de 1824 à bula Praeclara Portugalliae de 1827. 2022. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Dirson Fontes da Silva Sobrinho</t>
+          <t>Eraldo de Souza Leão Filho</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>SOBRINHO, D.F.. 'Reparação e Reconciliação: as disputas de memória na CNV/BR'. 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>LEÃO FILHO, E. S.. Ele está no meio de nós: o culto litúrgico dominical em tempos de pandemia. 2021. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Dirson Fontes da Silva Sobrinho</t>
+          <t>Eraldo de Souza Leão Filho</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>SOBRINHO, D.F.. 'Lembra daquele tempo? O testemunho de Cecília Coimbra e a escrita de si como reconstrução de mundos'. 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>LEÃO FILHO, E. S.. Fé, resistência e identidade afrodescendentes no Rio de Janeiro setecentista: os primórdios da Irmandade de N. Sra. do Rosário e São Benedito dos Homens Pretos. 2021. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Dirson Fontes da Silva Sobrinho</t>
+          <t>Eric Fagundes de Carvalho</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>SOBRINHO, D.F.. 'Racismo, Antissemitismo e suas vítimas no século XX: identidades, subjetividades e tentativas de superação'. 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>CARVALHO, E. F.. Fidalgos do reino e serviços ultramarinos: notas sobre a circulação na Monarquia Pluricontinental lusa a partir do Livro de Matrícula dos Moradores da Casa Real (século XVII). 2021. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Dirson Fontes da Silva Sobrinho</t>
+          <t>Eric Fagundes de Carvalho</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>SOBRINHO, D.F.. 'Judeu demais para ser comunista, comunista demais para ser judeu: a condição de Wladimir Herzog entre a ascensão nazista e a resistência à ditadura militar brasileira'. 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>CARVALHO, E. F.. Fidalgos do reino e a Monarquia Pluricontinental Lusa: notas sobre estratégias de circulação e inserção social nas conquistas americanas de Antigo Regime (século XVII). 2021. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Dirson Fontes da Silva Sobrinho</t>
+          <t>Felipe da Silva Barbosa</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>SOBRINHO, D.F.. 'O passado não existe? o negacionismo acerca da ditadura brasileira e o testemunho das vítimas da repressão'. 2022. (Apresentação de Trabalho/Comunicação).</t>
+          <t>BARBOSA, Felipe.. Tenório Cavalcanti, Baixada Fluminense e a Terceira República: novas questões para uma investigação histórica. 2024. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Dirson Fontes da Silva Sobrinho</t>
+          <t>Felipe da Silva Barbosa</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>SOBRINHO, D.F.. ' A Gestão Política das Emoções: O ressentimento como direito à memória e à justiça (uma comparação entre Brasil e Argentina)'.. 2022. (Apresentação de Trabalho/Comunicação).</t>
+          <t>BARBOSA, Felipe.. 'Sem Getúlio Vargas não haveria': a memória de Vargas e a defesa do Estado Novo entre os trabalhistas fluminenses. 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Dirson Fontes da Silva Sobrinho</t>
+          <t>Felipe da Silva Barbosa</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>SOBRINHO, D.F.. 'O dever de reparação e o direito ao ressentimento à luz da Comissão Nacional da Verdade (CNV)'. 2022. (Apresentação de Trabalho/Comunicação).</t>
+          <t>BARBOSA, Felipe.. 'O socialismo democrático de Getúlio Vargas': getulismo e o esforço programático dos trabalhistas fluminenses. 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Dirson Fontes da Silva Sobrinho</t>
+          <t>Felipe da Silva Barbosa</t>
         </is>
       </c>
       <c r="B143" t="n">
@@ -4520,29 +4517,29 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>SOBRINHO, D.F.. 'Perdoo, mas não esqueço: a transição democrática brasileira sob uma mirada subjetiva'. 2022. (Apresentação de Trabalho/Comunicação).</t>
+          <t>BARBOSA, Felipe.. Democracia e populismo na historiografia brasileira: uma aproximação sobre o estudo da participação popular na política. 2022. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Dirson Fontes da Silva Sobrinho</t>
+          <t>Felipe da Silva Barbosa</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>SOBRINHO, D.F.. 'A narrativa testemunhal entre o dever da memória e o direito à justiça'. 2021. (Apresentação de Trabalho/Comunicação).</t>
+          <t>BARBOSA, Felipe.. 'Aos trabalhadores fluminenses': getulismo e trabalhismo na formação do PTB do Estado do Rio. 2022. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Dirson Fontes da Silva Sobrinho</t>
+          <t>Felipe da Silva Barbosa</t>
         </is>
       </c>
       <c r="B145" t="n">
@@ -4550,29 +4547,29 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>SOBRINHO, D.F.. Judaicidade e Testemunho depois do Holocausto. 2021. (Apresentação de Trabalho/Comunicação).</t>
+          <t>BARBOSA, Felipe.. 'Com muita honra!': Raça e racismo em campanhas políticas durante a Experiência Democrática. 2021. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Eraldo de Souza Leão Filho</t>
+          <t>Felipe da Silva Barbosa</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>LEÃO FILHO, E. S.. A querela do Padroado Imperial brasileiro: da Constituição de 1824 à bula Praeclara Portugalliae de 1827. 2022. (Apresentação de Trabalho/Comunicação).</t>
+          <t>BARBOSA, Felipe.. 'O grande celeiro eleitoral do estado do Rio': Baixada Fluminense e a formação do eleitorado na Terceira República. 2021. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Eraldo de Souza Leão Filho</t>
+          <t>Felipe da Silva Barbosa</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -4580,74 +4577,74 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>LEÃO FILHO, E. S.. Ele está no meio de nós: o culto litúrgico dominical em tempos de pandemia. 2021. (Apresentação de Trabalho/Comunicação).</t>
+          <t>BARBOSA, Felipe.. Política e eleições na Experiência Democrática: aproximações para uma história de eleitores, políticos e partidos no estado do Rio de Janeiro (1945-1964). 2021. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Eraldo de Souza Leão Filho</t>
+          <t>Gabriel Alencar e Souza</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>LEÃO FILHO, E. S.. Fé, resistência e identidade afrodescendentes no Rio de Janeiro setecentista: os primórdios da Irmandade de N. Sra. do Rosário e São Benedito dos Homens Pretos. 2021. (Apresentação de Trabalho/Comunicação).</t>
+          <t>SOUZA, G. A.. Imágenes de la prostitución: entre miradas y representaciones. 2024. (Apresentação de Trabalho/Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Eric Fagundes de Carvalho</t>
+          <t>Gabriel Alencar e Souza</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>CARVALHO, E. F.. Fidalgos do reino e serviços ultramarinos: notas sobre a circulação na Monarquia Pluricontinental lusa a partir do Livro de Matrícula dos Moradores da Casa Real (século XVII). 2021. (Apresentação de Trabalho/Comunicação).</t>
+          <t>SOUZA, G. A.. Zonas de paisagens: o imaginário da prostituição no Rio de Janeiro. 2024. (Apresentação de Trabalho/Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Eric Fagundes de Carvalho</t>
+          <t>Gabriel Alencar e Souza</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>CARVALHO, E. F.. Fidalgos do reino e a Monarquia Pluricontinental Lusa: notas sobre estratégias de circulação e inserção social nas conquistas americanas de Antigo Regime (século XVII). 2021. (Apresentação de Trabalho/Comunicação).</t>
+          <t>SOUZA, G. A.. Da prostituição ao Arquivo: trajetórias e reflexões sobre o Fundo 'Davida - Prostituição, Direitos civis, Saúde'. 2023. (Apresentação de Trabalho/Conferência ou palestra).</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Felipe da Silva Barbosa</t>
+          <t>Gabriel Alencar e Souza</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>BARBOSA, Felipe.. Tenório Cavalcanti, Baixada Fluminense e a Terceira República: novas questões para uma investigação histórica. 2024. (Apresentação de Trabalho/Comunicação).</t>
+          <t>SOUZA, G. A.. 'Operação espanta borboleta': imagens da demolição da Zona do Mangue. 2023. (Apresentação de Trabalho/Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Felipe da Silva Barbosa</t>
+          <t>Gabriel Alencar e Souza</t>
         </is>
       </c>
       <c r="B152" t="n">
@@ -4655,89 +4652,89 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>BARBOSA, Felipe.. 'Sem Getúlio Vargas não haveria': a memória de Vargas e a defesa do Estado Novo entre os trabalhistas fluminenses. 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>SOUZA, G. A.. Da prostituição ao Arquivo: trajetórias e reflexões sobre o Fundo 'Davida - Prostituição, Direitos civis, Saúde'. 2023. (Apresentação de Trabalho/Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Felipe da Silva Barbosa</t>
+          <t>Gabriel Almeida Bizzo</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>BARBOSA, Felipe.. 'O socialismo democrático de Getúlio Vargas': getulismo e o esforço programático dos trabalhistas fluminenses. 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>BIZZO, G. A.. Os fantasmas do passado nos romances K.: Relato de uma busca (2011) e Os Visitantes (2016) de B. Kucinski. 2022. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Felipe da Silva Barbosa</t>
+          <t>Gabriel Almeida Bizzo</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>BARBOSA, Felipe.. Democracia e populismo na historiografia brasileira: uma aproximação sobre o estudo da participação popular na política. 2022. (Apresentação de Trabalho/Comunicação).</t>
+          <t>BIZZO, G. A.. História, memória e ficção nos romances de Bernardo Kucinski e Urariano Mota. 2021. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Felipe da Silva Barbosa</t>
+          <t>Gabriel Almeida Bizzo</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>BARBOSA, Felipe.. 'Aos trabalhadores fluminenses': getulismo e trabalhismo na formação do PTB do Estado do Rio. 2022. (Apresentação de Trabalho/Comunicação).</t>
+          <t>BIZZO, G. A.. Os restos da ditadura militar nos romances de Bernardo Kucinski e Uriano Mota. 2021. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Felipe da Silva Barbosa</t>
+          <t>Geisimara Soares Matos</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>BARBOSA, Felipe.. 'Com muita honra!': Raça e racismo em campanhas políticas durante a Experiência Democrática. 2021. (Apresentação de Trabalho/Comunicação).</t>
+          <t>MATOS, G. S.. Entre a lucidez e a loucura: o diagnóstico de paralisia geral de Eduardo Ribeiro e os discursos sobre sua saúde mental nos jornais do Amazonas (1899-1900). 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Felipe da Silva Barbosa</t>
+          <t>Geisimara Soares Matos</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>BARBOSA, Felipe.. 'O grande celeiro eleitoral do estado do Rio': Baixada Fluminense e a formação do eleitorado na Terceira República. 2021. (Apresentação de Trabalho/Comunicação).</t>
+          <t>MATOS, G. S.. Um engenheiro militar 'pardo' na Amazônia: os primeiros passos da trajetória de Eduardo Ribeiro em Manaus. 2022. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Felipe da Silva Barbosa</t>
+          <t>Geisimara Soares Matos</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -4745,59 +4742,59 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>BARBOSA, Felipe.. Política e eleições na Experiência Democrática: aproximações para uma história de eleitores, políticos e partidos no estado do Rio de Janeiro (1945-1964). 2021. (Apresentação de Trabalho/Comunicação).</t>
+          <t>MATOS, G. S.. Um oficial engenheiro na Amazônia: a chegada de Eduardo Ribeiro a Manaus e o advento da República. 2021. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Felipe da Silva Barbosa</t>
+          <t>Giovanna Zamith Cesário</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>LAHPS debate: Integralismo. 2021. (Outra).</t>
+          <t>CESÁRIO, G. Z.. 'Joracy Camargo: uma análise da vida e obra do imortal'. 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Gabriel Alencar e Souza</t>
+          <t>Giovanna Zamith Cesário</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>SOUZA, G. A.. Imágenes de la prostitución: entre miradas y representaciones. 2024. (Apresentação de Trabalho/Simpósio).</t>
+          <t>CESÁRIO, G. Z.. Elza Gomes: vestígios de uma trajetória artística?. 2022. (Apresentação de Trabalho/Seminário).</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Gabriel Alencar e Souza</t>
+          <t>Helen da Silva Silveira</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>SOUZA, G. A.. Zonas de paisagens: o imaginário da prostituição no Rio de Janeiro. 2024. (Apresentação de Trabalho/Simpósio).</t>
+          <t>SILVEIRA, H. S.. Os desafios da liberdade: Pós-abolição e mundos do trabalho se encontram no interior do Brasil. 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Gabriel Alencar e Souza</t>
+          <t>Helen da Silva Silveira</t>
         </is>
       </c>
       <c r="B162" t="n">
@@ -4805,14 +4802,14 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>SOUZA, G. A.. Da prostituição ao Arquivo: trajetórias e reflexões sobre o Fundo 'Davida - Prostituição, Direitos civis, Saúde'. 2023. (Apresentação de Trabalho/Conferência ou palestra).</t>
+          <t>SILVEIRA, H. S.. E-book sobre as organizações e protagonismos negros no Vale do Rio Pardo/RS  (XIX e XX). 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Gabriel Alencar e Souza</t>
+          <t>Helen da Silva Silveira</t>
         </is>
       </c>
       <c r="B163" t="n">
@@ -4820,14 +4817,14 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>SOUZA, G. A.. 'Operação espanta borboleta': imagens da demolição da Zona do Mangue. 2023. (Apresentação de Trabalho/Simpósio).</t>
+          <t>SILVEIRA, H. S.; SONEGO, A. . Coordenação de Simpósio-Protagonismos Negros nas lutas em prol da emancipação e no pós-abolição: agencias sociais e coletivas em perspectiva. 2023. (Apresentação de Trabalho/Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Gabriel Alencar e Souza</t>
+          <t>Helen da Silva Silveira</t>
         </is>
       </c>
       <c r="B164" t="n">
@@ -4835,14 +4832,14 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>SOUZA, G. A.. Da prostituição ao Arquivo: trajetórias e reflexões sobre o Fundo 'Davida - Prostituição, Direitos civis, Saúde'. 2023. (Apresentação de Trabalho/Simpósio).</t>
+          <t>SILVEIRA, H. S.; TAVARES, Ana Clara ; PERRAYON, J. . Coordenação de Simpósio-ST 02 ? MUNDOS DO TRABALHO: EXPERIÊNCIAS, CONFLITOS DE CLASSE E AS QUESTÕES DE RAÇA E RACISMO NOS SÉCULOS XIX E XX. 2023. (Apresentação de Trabalho/Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Gabriel Almeida Bizzo</t>
+          <t>Helen da Silva Silveira</t>
         </is>
       </c>
       <c r="B165" t="n">
@@ -4850,74 +4847,74 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>BIZZO, G. A.. Os fantasmas do passado nos romances K.: Relato de uma busca (2011) e Os Visitantes (2016) de B. Kucinski. 2022. (Apresentação de Trabalho/Comunicação).</t>
+          <t>SILVEIRA, H. S.. A classe trabalhadora em debate: Notas sobre a participação negra no interior do Rio Grande do Sul. 2022. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Gabriel Almeida Bizzo</t>
+          <t>Helen da Silva Silveira</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>BIZZO, G. A.. História, memória e ficção nos romances de Bernardo Kucinski e Urariano Mota. 2021. (Apresentação de Trabalho/Comunicação).</t>
+          <t>SILVEIRA, H. S.. Elas e eles existem: Notas de uma pesquisa sobre trabalhadoras negras e negros no Vale do Rio Pardo/RS. 2022. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Gabriel Almeida Bizzo</t>
+          <t>Helen da Silva Silveira</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>BIZZO, G. A.. Os restos da ditadura militar nos romances de Bernardo Kucinski e Uriano Mota. 2021. (Apresentação de Trabalho/Comunicação).</t>
+          <t>SILVEIRA, H. S.. Trabalho, cidadania e sociabilidade: O pós-abolição no interior do Rio Grande do Sul em perspectiva. 2022. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Geisimara Soares Matos</t>
+          <t>Helen da Silva Silveira</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>MATOS, G. S.. Entre a lucidez e a loucura: o diagnóstico de paralisia geral de Eduardo Ribeiro e os discursos sobre sua saúde mental nos jornais do Amazonas (1899-1900). 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>SILVEIRA, H. S.. AQUELES QUE QUEREM SER IRMÃOS: RELIGIOSIDADE E LIBERDADE NOS ANOS FINAIS DA ESCRAVIDÃO. 2021. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Geisimara Soares Matos</t>
+          <t>Helen da Silva Silveira</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>MATOS, G. S.. Um engenheiro militar 'pardo' na Amazônia: os primeiros passos da trajetória de Eduardo Ribeiro em Manaus. 2022. (Apresentação de Trabalho/Comunicação).</t>
+          <t>SILVEIRA, H. S.. O orgulho de seus dirigentes: o associativismo negro no Vale do Rio Pardo (1880-1940). 2021. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Geisimara Soares Matos</t>
+          <t>Helen da Silva Silveira</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -4925,44 +4922,44 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>MATOS, G. S.. Um oficial engenheiro na Amazônia: a chegada de Eduardo Ribeiro a Manaus e o advento da República. 2021. (Apresentação de Trabalho/Comunicação).</t>
+          <t>SILVEIRA, H. S.. A força viva da cor preta: Apresentando uma dissertação de mestrado. 2021. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Giovanna Zamith Cesário</t>
+          <t>Helen da Silva Silveira</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>CESÁRIO, G. Z.. 'Joracy Camargo: uma análise da vida e obra do imortal'. 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>SILVEIRA, H. S.. A FORÇA VIVA DA COR PRETA (1880-1940): NOTAS SOBRE UMA DISSERTAÇÃO. 2021. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Giovanna Zamith Cesário</t>
+          <t>Iasmin Castro de Souza</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>CESÁRIO, G. Z.. Elza Gomes: vestígios de uma trajetória artística?. 2022. (Apresentação de Trabalho/Seminário).</t>
+          <t>SOUZA, I. C.. Paisagens da Diáspora: compreendendo a comunidade zoroastriana através do espaço. 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Helen da Silva Silveira</t>
+          <t>Iasmin Castro de Souza</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -4970,44 +4967,44 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>SILVEIRA, H. S.. Os desafios da liberdade: Pós-abolição e mundos do trabalho se encontram no interior do Brasil. 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>SOUZA, I. C.. A instituição zoroastriana na paisagem da diáspora. 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Helen da Silva Silveira</t>
+          <t>Iasmin Castro de Souza</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>SILVEIRA, H. S.. E-book sobre as organizações e protagonismos negros no Vale do Rio Pardo/RS  (XIX e XX). 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>SOUZA, I. C.. Ptolomeu, Zaratustra ou Estrabão: um ensaio sobre as personagens em 'Escola de Atenas' de Rafael Sanzio. 2021. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Helen da Silva Silveira</t>
+          <t>Iolanda Chaves Ferreira de Oliveira</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>SILVEIRA, H. S.; SONEGO, A. . Coordenação de Simpósio-Protagonismos Negros nas lutas em prol da emancipação e no pós-abolição: agencias sociais e coletivas em perspectiva. 2023. (Apresentação de Trabalho/Simpósio).</t>
+          <t>FERREIRA, Iolanda Chaves. 'O que dá ao pobre não terá falta': diálogos entre elite, imprensa e religião no jornal 'O Pobre'. 2021. (Apresentação de Trabalho/Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Helen da Silva Silveira</t>
+          <t>Isabella Loureiro Khaled Poppe</t>
         </is>
       </c>
       <c r="B176" t="n">
@@ -5015,29 +5012,29 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>SILVEIRA, H. S.; TAVARES, Ana Clara ; PERRAYON, J. . Coordenação de Simpósio-ST 02 ? MUNDOS DO TRABALHO: EXPERIÊNCIAS, CONFLITOS DE CLASSE E AS QUESTÕES DE RAÇA E RACISMO NOS SÉCULOS XIX E XX. 2023. (Apresentação de Trabalho/Simpósio).</t>
+          <t>POPPE, ISABELLA. O Pequeno Exército Louco e as Imagens de uma Utopia Latino-Americana. 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Helen da Silva Silveira</t>
+          <t>Isabella Loureiro Khaled Poppe</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>SILVEIRA, H. S.. A classe trabalhadora em debate: Notas sobre a participação negra no interior do Rio Grande do Sul. 2022. (Apresentação de Trabalho/Comunicação).</t>
+          <t>POPPE, ISABELLA. A Participação Feminina na Revolução Sandinista Nicaraguense pelas Lentes de Mulheres do Norte Global. 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Helen da Silva Silveira</t>
+          <t>Isabella Loureiro Khaled Poppe</t>
         </is>
       </c>
       <c r="B178" t="n">
@@ -5045,29 +5042,29 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>SILVEIRA, H. S.. Elas e eles existem: Notas de uma pesquisa sobre trabalhadoras negras e negros no Vale do Rio Pardo/RS. 2022. (Apresentação de Trabalho/Comunicação).</t>
+          <t>POPPE, ISABELLA. Projetos políticos (im)possíveis: gênero e utopia na experiência revolucionária sandinista. 2022. (Apresentação de Trabalho/Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Helen da Silva Silveira</t>
+          <t>Isabella Loureiro Khaled Poppe</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>SILVEIRA, H. S.. Trabalho, cidadania e sociabilidade: O pós-abolição no interior do Rio Grande do Sul em perspectiva. 2022. (Apresentação de Trabalho/Comunicação).</t>
+          <t>POPPE, ISABELLA. Da utopia a memória: as derrotas históricas nos documentários sobre as ditaduras do Cone Sul. 2021. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Helen da Silva Silveira</t>
+          <t>Isabella Loureiro Khaled Poppe</t>
         </is>
       </c>
       <c r="B180" t="n">
@@ -5075,104 +5072,104 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>SILVEIRA, H. S.. AQUELES QUE QUEREM SER IRMÃOS: RELIGIOSIDADE E LIBERDADE NOS ANOS FINAIS DA ESCRAVIDÃO. 2021. (Apresentação de Trabalho/Comunicação).</t>
+          <t>POPPE, ISABELLA. Imagens de utopia na experiência revolucionária das mulheres sandinistas. 2021. (Apresentação de Trabalho/Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Helen da Silva Silveira</t>
+          <t>Isabella Santos Pinheiro</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>SILVEIRA, H. S.. O orgulho de seus dirigentes: o associativismo negro no Vale do Rio Pardo (1880-1940). 2021. (Apresentação de Trabalho/Comunicação).</t>
+          <t>PINHEIRO, Isabella S.. Apontamentos sobre a trajetória de Mário Lago no radioteatro brasileiro. 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Helen da Silva Silveira</t>
+          <t>Isabella Santos Pinheiro</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>SILVEIRA, H. S.. A força viva da cor preta: Apresentando uma dissertação de mestrado. 2021. (Apresentação de Trabalho/Comunicação).</t>
+          <t>PINHEIRO, Isabella S.. A trajetória de Mário Lago nas ondas do rádio brasileiro. 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Helen da Silva Silveira</t>
+          <t>Isabella Santos Pinheiro</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>SILVEIRA, H. S.. A FORÇA VIVA DA COR PRETA (1880-1940): NOTAS SOBRE UMA DISSERTAÇÃO. 2021. (Apresentação de Trabalho/Comunicação).</t>
+          <t>PINHEIRO, Isabella S.. Procópio Ferreira: trajetória artística e técnica. 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Iasmin Castro de Souza</t>
+          <t>Isabella Santos Pinheiro</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>SOUZA, I. C.. Paisagens da Diáspora: compreendendo a comunidade zoroastriana através do espaço. 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>PINHEIRO, Isabella S.. O teatro como ferramenta didática para o ensino de História. 2022. (Apresentação de Trabalho/Conferência ou palestra).</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Iasmin Castro de Souza</t>
+          <t>Isabella Santos Pinheiro</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>SOUZA, I. C.. A instituição zoroastriana na paisagem da diáspora. 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>PINHEIRO, Isabella S.; CESÁRIO, Giovanna Zamith . As várias Elzas Gomes: do teatro a televisão. 2022. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Iasmin Castro de Souza</t>
+          <t>Isabella Santos Pinheiro</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>SOUZA, I. C.. Ptolomeu, Zaratustra ou Estrabão: um ensaio sobre as personagens em 'Escola de Atenas' de Rafael Sanzio. 2021. (Apresentação de Trabalho/Comunicação).</t>
+          <t>PINHEIRO, Isabella S.; CESÁRIO, Giovanna Zamith . Elza Gomes: vestígios de uma trajetória artística. 2022. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Iolanda Chaves Ferreira de Oliveira</t>
+          <t>Isabella Santos Pinheiro</t>
         </is>
       </c>
       <c r="B187" t="n">
@@ -5180,89 +5177,89 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>FERREIRA, Iolanda Chaves. 'O que dá ao pobre não terá falta': diálogos entre elite, imprensa e religião no jornal 'O Pobre'. 2021. (Apresentação de Trabalho/Simpósio).</t>
+          <t>PINHEIRO, Isabella S.. Reconfigurações dos lugares e das práticas de atores e atrizes após o advento das radionovelas no Rio de Janeiro na década de 1940. 2021. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Isabella Loureiro Khaled Poppe</t>
+          <t>Isabella Santos Pinheiro</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>POPPE, ISABELLA. O Pequeno Exército Louco e as Imagens de uma Utopia Latino-Americana. 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>PINHEIRO, Isabella S.. A construção de novas dinâmicas de atuação na primeira metade do século XX: do teatro para as radionovelas. 2021. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Isabella Loureiro Khaled Poppe</t>
+          <t>Isabella Villarinho Pereyra</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>POPPE, ISABELLA. A Participação Feminina na Revolução Sandinista Nicaraguense pelas Lentes de Mulheres do Norte Global. 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>PEREYRA, ISABELLA VILLARINHO. O golpe civil-militar e a Guerra Fria religiosa: uma análise sobre a Cruzada do Rosário em Família no Brasil (1962-1964). 2024. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Isabella Loureiro Khaled Poppe</t>
+          <t>Isabella Villarinho Pereyra</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>POPPE, ISABELLA. Projetos políticos (im)possíveis: gênero e utopia na experiência revolucionária sandinista. 2022. (Apresentação de Trabalho/Simpósio).</t>
+          <t>PEREYRA, ISABELLA VILLARINHO. Ditadura Militar e Guerra Fria Religiosa: a atuação transnacional da Cruzada do Rosário em Família (1960-1964). 2024. (Apresentação de Trabalho/Seminário).</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Isabella Loureiro Khaled Poppe</t>
+          <t>Isabella Villarinho Pereyra</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>POPPE, ISABELLA. Da utopia a memória: as derrotas históricas nos documentários sobre as ditaduras do Cone Sul. 2021. (Apresentação de Trabalho/Comunicação).</t>
+          <t>PEREYRA, ISABELLA VILLARINHO. A Religious Cold War: Family Rosary Crusade and anticommunism in Brazil (1962-1964). 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Isabella Loureiro Khaled Poppe</t>
+          <t>Isabella Villarinho Pereyra</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>POPPE, ISABELLA. Imagens de utopia na experiência revolucionária das mulheres sandinistas. 2021. (Apresentação de Trabalho/Simpósio).</t>
+          <t>PEREYRA, ISABELLA VILLARINHO. Rosary in Hands Against Communism: Family Rosary Crusade and a Transnational Aspect of the Religious Cold War in Brazil (1962-1694). 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Isabella Santos Pinheiro</t>
+          <t>Isabella Villarinho Pereyra</t>
         </is>
       </c>
       <c r="B193" t="n">
@@ -5270,14 +5267,14 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>PINHEIRO, Isabella S.. Apontamentos sobre a trajetória de Mário Lago no radioteatro brasileiro. 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>PEREYRA, ISABELLA VILLARINHO. Family Rosary Crusade and the transnational aspect of the religious Cold War in Brazil (1962-1964). 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Isabella Santos Pinheiro</t>
+          <t>Isabella Villarinho Pereyra</t>
         </is>
       </c>
       <c r="B194" t="n">
@@ -5285,14 +5282,14 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>PINHEIRO, Isabella S.. A trajetória de Mário Lago nas ondas do rádio brasileiro. 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>PEREYRA, ISABELLA VILLARINHO. A Religious Cold War: Family Rosary Crusade and anticommunism in Brazil, 1962-1964. 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Isabella Santos Pinheiro</t>
+          <t>Isabella Villarinho Pereyra</t>
         </is>
       </c>
       <c r="B195" t="n">
@@ -5300,89 +5297,89 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>PINHEIRO, Isabella S.. Procópio Ferreira: trajetória artística e técnica. 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>PEREYRA, ISABELLA VILLARINHO. A Guerra Fria religiosa: Cruzada do Rosário em Família e o anticomunismo transnacional. 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Isabella Santos Pinheiro</t>
+          <t>Isabella Villarinho Pereyra</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>PINHEIRO, Isabella S.. O teatro como ferramenta didática para o ensino de História. 2022. (Apresentação de Trabalho/Conferência ou palestra).</t>
+          <t>PEREYRA, ISABELLA VILLARINHO. Rosário em mãos contra o comunismo: Patrick Peyton e a Cruzada do Rosário em Família no Brasil (1962-1985). 2021. (Apresentação de Trabalho/Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Isabella Santos Pinheiro</t>
+          <t>Isabella Villarinho Pereyra</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>PINHEIRO, Isabella S.; CESÁRIO, Giovanna Zamith . As várias Elzas Gomes: do teatro a televisão. 2022. (Apresentação de Trabalho/Comunicação).</t>
+          <t>PEREYRA, ISABELLA VILLARINHO. Ditadura, anticomunismo e religião: a Cruzada do Rosário em Família no Brasil. 2021. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Isabella Santos Pinheiro</t>
+          <t>Jefferson de Albuquerque Mendes</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>PINHEIRO, Isabella S.; CESÁRIO, Giovanna Zamith . Elza Gomes: vestígios de uma trajetória artística. 2022. (Apresentação de Trabalho/Comunicação).</t>
+          <t>MENDES, J. A.. Brazil and the New World: the Dutch ateliers and the cartographic representations in the Seventeenth century. 2024. (Apresentação de Trabalho/Congresso).</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Isabella Santos Pinheiro</t>
+          <t>Jefferson de Albuquerque Mendes</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>PINHEIRO, Isabella S.. Reconfigurações dos lugares e das práticas de atores e atrizes após o advento das radionovelas no Rio de Janeiro na década de 1940. 2021. (Apresentação de Trabalho/Comunicação).</t>
+          <t>MENDES, J. A.. Modelos coloniales alternativos a las cosmologias ocidentales: la Alegoria del Firmamento de la escuela cuzqueña de siglo XVIII. 2024. (Apresentação de Trabalho/Congresso).</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Isabella Santos Pinheiro</t>
+          <t>Jefferson de Albuquerque Mendes</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>PINHEIRO, Isabella S.. A construção de novas dinâmicas de atuação na primeira metade do século XX: do teatro para as radionovelas. 2021. (Apresentação de Trabalho/Comunicação).</t>
+          <t>MENDES, J. A.. Leaving a Trail of Sacred: Deviant Objects between Sixteenth and Seventeenth Century Brazil and Europe. 2024. (Apresentação de Trabalho/Conferência ou palestra).</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Isabella Villarinho Pereyra</t>
+          <t>Jefferson de Albuquerque Mendes</t>
         </is>
       </c>
       <c r="B201" t="n">
@@ -5390,14 +5387,14 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>PEREYRA, ISABELLA VILLARINHO. O golpe civil-militar e a Guerra Fria religiosa: uma análise sobre a Cruzada do Rosário em Família no Brasil (1962-1964). 2024. (Apresentação de Trabalho/Comunicação).</t>
+          <t>MENDES, J. A.. Projeto Art and Power. 2024. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Isabella Villarinho Pereyra</t>
+          <t>Jefferson de Albuquerque Mendes</t>
         </is>
       </c>
       <c r="B202" t="n">
@@ -5405,14 +5402,14 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>PEREYRA, ISABELLA VILLARINHO. Ditadura Militar e Guerra Fria Religiosa: a atuação transnacional da Cruzada do Rosário em Família (1960-1964). 2024. (Apresentação de Trabalho/Seminário).</t>
+          <t>MENDES, J. A.; VELOSO, J. S. ; GOMES, N. C. A. . Problemas atuais e Horizontes para o futuro da História da Arte. 2024. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Isabella Villarinho Pereyra</t>
+          <t>Jefferson de Albuquerque Mendes</t>
         </is>
       </c>
       <c r="B203" t="n">
@@ -5420,14 +5417,14 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>PEREYRA, ISABELLA VILLARINHO. A Religious Cold War: Family Rosary Crusade and anticommunism in Brazil (1962-1964). 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>MENDES, J. A.. Images, Institutions and Cross-Cultural Systems: Describing and Visualizing 'The Double Hemisphere Star Atlas' (1634). 2023. (Apresentação de Trabalho/Conferência ou palestra).</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Isabella Villarinho Pereyra</t>
+          <t>Jefferson de Albuquerque Mendes</t>
         </is>
       </c>
       <c r="B204" t="n">
@@ -5435,29 +5432,29 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>PEREYRA, ISABELLA VILLARINHO. Rosary in Hands Against Communism: Family Rosary Crusade and a Transnational Aspect of the Religious Cold War in Brazil (1962-1694). 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>MENDES, J. A.. Os intercâmbios político/culturais entre jesuítas e chineses no século XVII na confecção de mapas celestiais.. 2023. (Apresentação de Trabalho/Conferência ou palestra).</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Isabella Villarinho Pereyra</t>
+          <t>Julia Amaral Amato Moreira</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>PEREYRA, ISABELLA VILLARINHO. Family Rosary Crusade and the transnational aspect of the religious Cold War in Brazil (1962-1964). 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>AMARAL, Julia.. Diante do Estado autoritário: Os judeus e a Ditadura Militar em Minas Gerais (1964-1985). 2024. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Isabella Villarinho Pereyra</t>
+          <t>Julia Amaral Amato Moreira</t>
         </is>
       </c>
       <c r="B206" t="n">
@@ -5465,14 +5462,14 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>PEREYRA, ISABELLA VILLARINHO. A Religious Cold War: Family Rosary Crusade and anticommunism in Brazil, 1962-1964. 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>AMARAL, Julia.. Os Judeis e a Ditadura Militar em Minas Gerais. 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Isabella Villarinho Pereyra</t>
+          <t>Julia Amaral Amato Moreira</t>
         </is>
       </c>
       <c r="B207" t="n">
@@ -5480,119 +5477,119 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>PEREYRA, ISABELLA VILLARINHO. A Guerra Fria religiosa: Cruzada do Rosário em Família e o anticomunismo transnacional. 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>AMARAL, Julia.. Pensar as relações etno-identitárias no mundo político: os judeus e a Ditadura Militar em Minas Gerais. 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Isabella Villarinho Pereyra</t>
+          <t>Julia Amaral Amato Moreira</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>PEREYRA, ISABELLA VILLARINHO. Rosário em mãos contra o comunismo: Patrick Peyton e a Cruzada do Rosário em Família no Brasil (1962-1985). 2021. (Apresentação de Trabalho/Simpósio).</t>
+          <t>AMARAL, Julia.. Repensar o Holocausto e a educação antifascista. 2023. (Apresentação de Trabalho/Conferência ou palestra).</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Isabella Villarinho Pereyra</t>
+          <t>Julia Amaral Amato Moreira</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>PEREYRA, ISABELLA VILLARINHO. Ditadura, anticomunismo e religião: a Cruzada do Rosário em Família no Brasil. 2021. (Apresentação de Trabalho/Comunicação).</t>
+          <t>AMARAL, Julia.. Por onde andou o antissemitismo: da Era Vargas à Ditadura Militar. 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Jefferson de Albuquerque Mendes</t>
+          <t>Julia Amaral Amato Moreira</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>MENDES, J. A.. Brazil and the New World: the Dutch ateliers and the cartographic representations in the Seventeenth century. 2024. (Apresentação de Trabalho/Congresso).</t>
+          <t>AMARAL, Julia.. ?A história de uma família?: relatos de filhos de sobreviventes do Holocausto em Belo Horizonte. 2022. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Jefferson de Albuquerque Mendes</t>
+          <t>Julia Amaral Amato Moreira</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>MENDES, J. A.. Modelos coloniales alternativos a las cosmologias ocidentales: la Alegoria del Firmamento de la escuela cuzqueña de siglo XVIII. 2024. (Apresentação de Trabalho/Congresso).</t>
+          <t>AMARAL, Julia.. 'Uma coisa é ouvir outra coisa é ver': pós-memória e A Lista de Schindler como real. 2022. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Jefferson de Albuquerque Mendes</t>
+          <t>Julia Amaral Amato Moreira</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>MENDES, J. A.. Leaving a Trail of Sacred: Deviant Objects between Sixteenth and Seventeenth Century Brazil and Europe. 2024. (Apresentação de Trabalho/Conferência ou palestra).</t>
+          <t>AMARAL, Julia.. Holocausto e sua importância para os dias de hoje. 2021. (Apresentação de Trabalho/Conferência ou palestra).</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Jefferson de Albuquerque Mendes</t>
+          <t>Julia Amaral Amato Moreira</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>MENDES, J. A.. Projeto Art and Power. 2024. (Apresentação de Trabalho/Comunicação).</t>
+          <t>AMARAL, Julia.. ?Eu vivi visceralmente esse sentimento de perda?: a memória dos filhos de sobreviventes do Holocausto em Belo Horizonte. 2021. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Jefferson de Albuquerque Mendes</t>
+          <t>Julia Soares Leite Lanzarini de Carvalho</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>MENDES, J. A.; VELOSO, J. S. ; GOMES, N. C. A. . Problemas atuais e Horizontes para o futuro da História da Arte. 2024. (Apresentação de Trabalho/Comunicação).</t>
+          <t>LANZARINI, Julia.. Alcazar Lyrique: transformações na vida noturna e teatral do Rio de Janeiro de finais do século XIX.. 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Jefferson de Albuquerque Mendes</t>
+          <t>Julia Soares Leite Lanzarini de Carvalho</t>
         </is>
       </c>
       <c r="B215" t="n">
@@ -5600,89 +5597,89 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>MENDES, J. A.. Images, Institutions and Cross-Cultural Systems: Describing and Visualizing 'The Double Hemisphere Star Atlas' (1634). 2023. (Apresentação de Trabalho/Conferência ou palestra).</t>
+          <t>LANZARINI, Julia.. ?Prove e depois me dirá se gostou do meu mugunzá?: as atrizes do teatro ligeiro no Rio de Janeiro de finais do século XIX e início do século XX.. 2023. (Apresentação de Trabalho/Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Jefferson de Albuquerque Mendes</t>
+          <t>Julia Soares Leite Lanzarini de Carvalho</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>MENDES, J. A.. Os intercâmbios político/culturais entre jesuítas e chineses no século XVII na confecção de mapas celestiais.. 2023. (Apresentação de Trabalho/Conferência ou palestra).</t>
+          <t>LANZARINI, Julia.. A polifonia das peças do século XIX no Brasil através das personagens-tipo femininas. 2022. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Julia Amaral Amato Moreira</t>
+          <t>Julia Soares Leite Lanzarini de Carvalho</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>AMARAL, Julia.. Diante do Estado autoritário: Os judeus e a Ditadura Militar em Minas Gerais (1964-1985). 2024. (Apresentação de Trabalho/Comunicação).</t>
+          <t>LANZARINI, Julia.. Benvinda a mulata: os sentidos da mestiçagem na ?Capital Federal? de Artur Azevedo. 2021. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Julia Amaral Amato Moreira</t>
+          <t>Julia Soares Leite Lanzarini de Carvalho</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>AMARAL, Julia.. Os Judeis e a Ditadura Militar em Minas Gerais. 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>LANZARINI, Julia.. Benvinda a mulata: raça e sexualidade na Capital Federal de Artur Azevedo. 2021. (Apresentação de Trabalho/Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Julia Amaral Amato Moreira</t>
+          <t>Juliana Nascimento da Silva</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>AMARAL, Julia.. Pensar as relações etno-identitárias no mundo político: os judeus e a Ditadura Militar em Minas Gerais. 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>SILVA, Juliana N.. 'O terror do Rio?: cânticos torcedores como disputa de representação entre torcidas organizadas de futebol do Rio de Janeiro. 2024. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Julia Amaral Amato Moreira</t>
+          <t>Juliana Nascimento da Silva</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>AMARAL, Julia.. Repensar o Holocausto e a educação antifascista. 2023. (Apresentação de Trabalho/Conferência ou palestra).</t>
+          <t>SILVA, Juliana N.. Torcidas organizadas cariocas e sociabilidade: alianças e rivalidades como prática e representação (1980-2000). 2024. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Julia Amaral Amato Moreira</t>
+          <t>Juliana Nascimento da Silva</t>
         </is>
       </c>
       <c r="B221" t="n">
@@ -5690,29 +5687,29 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>AMARAL, Julia.. Por onde andou o antissemitismo: da Era Vargas à Ditadura Militar. 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>SILVA, Juliana N.. ?O terror do Rio?: cânticos torcedores como dispositivos de memória, representação e sociabilidade entre torcidas organizadas de futebol do Rio de Janeiro. 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Julia Amaral Amato Moreira</t>
+          <t>Juliana Nascimento da Silva</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>AMARAL, Julia.. ?A história de uma família?: relatos de filhos de sobreviventes do Holocausto em Belo Horizonte. 2022. (Apresentação de Trabalho/Comunicação).</t>
+          <t>SILVA, Juliana N.. Cânticos e sociabilidade torcedora: disputas de representação entre torcidas organizadas de futebol do Rio de Janeiro. 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Julia Amaral Amato Moreira</t>
+          <t>Juliana Nascimento da Silva</t>
         </is>
       </c>
       <c r="B223" t="n">
@@ -5720,29 +5717,29 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>AMARAL, Julia.. 'Uma coisa é ouvir outra coisa é ver': pós-memória e A Lista de Schindler como real. 2022. (Apresentação de Trabalho/Comunicação).</t>
+          <t>SILVA, Juliana N.. Dissidências em análise: a formação de novas torcidas organizadas cariocas sob padrões de oposição de representação (1977 ? 2000). 2022. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Julia Amaral Amato Moreira</t>
+          <t>Juliana Nascimento da Silva</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>AMARAL, Julia.. Holocausto e sua importância para os dias de hoje. 2021. (Apresentação de Trabalho/Conferência ou palestra).</t>
+          <t>SILVA, Juliana N.. Alianças e rivalidades nas torcidas organizadas cariocas como prática e representação (1980 ? 2000). 2022. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Julia Amaral Amato Moreira</t>
+          <t>Juliana Nascimento da Silva</t>
         </is>
       </c>
       <c r="B225" t="n">
@@ -5750,74 +5747,74 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>AMARAL, Julia.. ?Eu vivi visceralmente esse sentimento de perda?: a memória dos filhos de sobreviventes do Holocausto em Belo Horizonte. 2021. (Apresentação de Trabalho/Comunicação).</t>
+          <t>SILVA, Juliana N.. ?Possibilidades e Abordagens na Pesquisa Acadê mica sobre Torcidas Organizadas: debates e reflexões sobre o campo. 2021. (Apresentação de Trabalho/Conferência ou palestra).</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Julia Soares Leite Lanzarini de Carvalho</t>
+          <t>Juliana Nascimento da Silva</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>LANZARINI, Julia.. Alcazar Lyrique: transformações na vida noturna e teatral do Rio de Janeiro de finais do século XIX.. 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>SILVA, Juliana N.. Trajetória de vida e discurso torcedor: representações da Raça Rubro-Negra. 2021. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Julia Soares Leite Lanzarini de Carvalho</t>
+          <t>Juliana Nascimento da Silva</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>LANZARINI, Julia.. ?Prove e depois me dirá se gostou do meu mugunzá?: as atrizes do teatro ligeiro no Rio de Janeiro de finais do século XIX e início do século XX.. 2023. (Apresentação de Trabalho/Simpósio).</t>
+          <t>SILVA, Juliana N.. Forma-representação: a construção simbólica da torcida organizada Raça Rubro-Negra em seus anos iniciais (1977-1985). 2021. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Julia Soares Leite Lanzarini de Carvalho</t>
+          <t>Juliana Nascimento da Silva</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>LANZARINI, Julia.. A polifonia das peças do século XIX no Brasil através das personagens-tipo femininas. 2022. (Apresentação de Trabalho/Comunicação).</t>
+          <t>SILVA, Juliana N.. As disputas simbólicas da torcida organizada Raça Rubro-Negra: 1980-1990. 2021. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Julia Soares Leite Lanzarini de Carvalho</t>
+          <t>Jônatan Coutinho da Silva de Oliveira</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>LANZARINI, Julia.. Benvinda a mulata: os sentidos da mestiçagem na ?Capital Federal? de Artur Azevedo. 2021. (Apresentação de Trabalho/Comunicação).</t>
+          <t>OLIVEIRA, JÔNATAN COUTINHO DA SILVA DE. Perspectivas de Política Externa a partir da imprensa periódica: o caso da atuação brasileira na Liga das Nações (1922-1926). 2022. (Apresentação de Trabalho/Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Julia Soares Leite Lanzarini de Carvalho</t>
+          <t>Jônatan Coutinho da Silva de Oliveira</t>
         </is>
       </c>
       <c r="B230" t="n">
@@ -5825,44 +5822,44 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>LANZARINI, Julia.. Benvinda a mulata: raça e sexualidade na Capital Federal de Artur Azevedo. 2021. (Apresentação de Trabalho/Simpósio).</t>
+          <t>OLIVEIRA, Jônatan C. S.. Entre o multilateralismo europeu e o pan-americanismo: possibilidades de inserção internacional do Brasil a partir dos jornais Correio da Manhã e Jornal do Commercio (1926). 2021. (Apresentação de Trabalho/Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Juliana Nascimento da Silva</t>
+          <t>Keicy Salustiano da Silva</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>SILVA, Juliana N.. 'O terror do Rio?: cânticos torcedores como disputa de representação entre torcidas organizadas de futebol do Rio de Janeiro. 2024. (Apresentação de Trabalho/Comunicação).</t>
+          <t>SILVA, K. S.. Nos rastros da persuasão: a retórica da simpatia e da inferiorização racial na escrita do abolicionista Joaquim Nabuco. 2021. (Apresentação de Trabalho/Congresso).</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Juliana Nascimento da Silva</t>
+          <t>Laís Morgado Marcoje</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>SILVA, Juliana N.. Torcidas organizadas cariocas e sociabilidade: alianças e rivalidades como prática e representação (1980-2000). 2024. (Apresentação de Trabalho/Comunicação).</t>
+          <t>MARCOJE, L. M.. ?Castelhanos? e ?portugueses? nos vilancicos de Reis do século XVII. 2021. (Apresentação de Trabalho/Outra).</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Juliana Nascimento da Silva</t>
+          <t>Lavinia Izidoro Martins</t>
         </is>
       </c>
       <c r="B233" t="n">
@@ -5870,14 +5867,14 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>SILVA, Juliana N.. ?O terror do Rio?: cânticos torcedores como dispositivos de memória, representação e sociabilidade entre torcidas organizadas de futebol do Rio de Janeiro. 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>MARTINS, L. I.. DISPUTAS E RESGATE DE MEMÓRIA EM TORNO DA USINA DE CAMBAIBA, EM CAMPOS DOS GOYTACAZES (2012 - ): REFLEXÕES ACERCA DA CARACTERIZAÇÃO DA USINA ENQUANTO LUGAR DE MEMÓRIA DA DITADURA MILITAR. 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Juliana Nascimento da Silva</t>
+          <t>Lavinia Izidoro Martins</t>
         </is>
       </c>
       <c r="B234" t="n">
@@ -5885,74 +5882,74 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>SILVA, Juliana N.. Cânticos e sociabilidade torcedora: disputas de representação entre torcidas organizadas de futebol do Rio de Janeiro. 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>MARTINS, L. I.. Disputas de memória na Usina de Cambaíba. 2023. (Apresentação de Trabalho/Conferência ou palestra).</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Juliana Nascimento da Silva</t>
+          <t>Lavinia Izidoro Martins</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>SILVA, Juliana N.. Dissidências em análise: a formação de novas torcidas organizadas cariocas sob padrões de oposição de representação (1977 ? 2000). 2022. (Apresentação de Trabalho/Comunicação).</t>
+          <t>MARTINS, L. I.. ?Disputa de memórias na Usina de Cambaíba: patrimônio, memória e história de Campos dos Goytacazes?. 2023. (Apresentação de Trabalho/Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Juliana Nascimento da Silva</t>
+          <t>Lavinia Izidoro Martins</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>SILVA, Juliana N.. Alianças e rivalidades nas torcidas organizadas cariocas como prática e representação (1980 ? 2000). 2022. (Apresentação de Trabalho/Comunicação).</t>
+          <t>MARTINS, L. I.. Entre afetividades e domínio: A memória da Usina de Cambaíba, em Campos dos Goytacazes, em disputa. 2023. (Apresentação de Trabalho/Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Juliana Nascimento da Silva</t>
+          <t>Lavinia Izidoro Martins</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>SILVA, Juliana N.. ?Possibilidades e Abordagens na Pesquisa Acadê mica sobre Torcidas Organizadas: debates e reflexões sobre o campo. 2021. (Apresentação de Trabalho/Conferência ou palestra).</t>
+          <t>MARTINS, L. I.. Disputa de memórias na Usina de Cambaíba: patrimônio, memória e História de Campos dos Goytacazes. 2023. (Apresentação de Trabalho/Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Juliana Nascimento da Silva</t>
+          <t>Lavinia Izidoro Martins</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>SILVA, Juliana N.. Trajetória de vida e discurso torcedor: representações da Raça Rubro-Negra. 2021. (Apresentação de Trabalho/Comunicação).</t>
+          <t>MARTINS, L. I.. Disputas de memória em torno da Usina de Cambaíba, em Campos dos Goytacazes (2012 -): Reflexões acerca da caracterização da usina enquanto um lugar de memória da Ditadura Militar Brasileira.. 2022. (Apresentação de Trabalho/Congresso).</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Juliana Nascimento da Silva</t>
+          <t>Lavinia Izidoro Martins</t>
         </is>
       </c>
       <c r="B239" t="n">
@@ -5960,29 +5957,29 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>SILVA, Juliana N.. Forma-representação: a construção simbólica da torcida organizada Raça Rubro-Negra em seus anos iniciais (1977-1985). 2021. (Apresentação de Trabalho/Comunicação).</t>
+          <t>MARTINS, L. I.. Disputas e Resgate de memórias em torno da Usina de Cambahyba,  em Campos dos Goytacazes. 2021. (Apresentação de Trabalho/Seminário).</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Juliana Nascimento da Silva</t>
+          <t>Livia Claro Pires</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>SILVA, Juliana N.. As disputas simbólicas da torcida organizada Raça Rubro-Negra: 1980-1990. 2021. (Apresentação de Trabalho/Comunicação).</t>
+          <t>PIRES, L. C.. O porta voz do Kaiser: o jornal A Tribuna e as reações pró Alemanha na imprensa brasileira durante a Primeira Guerra Mundial.. 2022. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Jônatan Coutinho da Silva de Oliveira</t>
+          <t>Livia Claro Pires</t>
         </is>
       </c>
       <c r="B241" t="n">
@@ -5990,29 +5987,29 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>OLIVEIRA, JÔNATAN COUTINHO DA SILVA DE. Perspectivas de Política Externa a partir da imprensa periódica: o caso da atuação brasileira na Liga das Nações (1922-1926). 2022. (Apresentação de Trabalho/Simpósio).</t>
+          <t>PIRES, L. C.. A Liga Brasileira Pró-Germânia e os debates sobre o Brasil na Primeira Guerra Mundial. 2022. (Apresentação de Trabalho/Outra).</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Jônatan Coutinho da Silva de Oliveira</t>
+          <t>Livia Claro Pires</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>OLIVEIRA, Jônatan C. S.. Entre o multilateralismo europeu e o pan-americanismo: possibilidades de inserção internacional do Brasil a partir dos jornais Correio da Manhã e Jornal do Commercio (1926). 2021. (Apresentação de Trabalho/Simpósio).</t>
+          <t>PIRES, L. C.. Germanófilos no Rio de Janeiro: ideias e ações em prol da Alemanha durante a Primeira Guerra Mundial. 2022. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Keicy Salustiano da Silva</t>
+          <t>Livia Claro Pires</t>
         </is>
       </c>
       <c r="B243" t="n">
@@ -6020,14 +6017,14 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>SILVA, K. S.. Nos rastros da persuasão: a retórica da simpatia e da inferiorização racial na escrita do abolicionista Joaquim Nabuco. 2021. (Apresentação de Trabalho/Congresso).</t>
+          <t>PIRES, L. C.. Intelectuais na Primeira Guerra Mundial: novas perspectivas, novos objetos. 2021. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Laís Morgado Marcoje</t>
+          <t>Lucas de Mattos Moura Fernandes</t>
         </is>
       </c>
       <c r="B244" t="n">
@@ -6035,437 +6032,434 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>MARCOJE, L. M.. ?Castelhanos? e ?portugueses? nos vilancicos de Reis do século XVII. 2021. (Apresentação de Trabalho/Outra).</t>
+          <t>FERNANDES, L. M. M.. Protegidos e astuciosos: uma trajetória da comunidade brasileira no Marrocos oitocentista. 2021. (Apresentação de Trabalho/Seminário).</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Lavinia Izidoro Martins</t>
+          <t>Lucas de Mattos Moura Fernandes</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>MARTINS, L. I.. DISPUTAS E RESGATE DE MEMÓRIA EM TORNO DA USINA DE CAMBAIBA, EM CAMPOS DOS GOYTACAZES (2012 - ): REFLEXÕES ACERCA DA CARACTERIZAÇÃO DA USINA ENQUANTO LUGAR DE MEMÓRIA DA DITADURA MILITAR. 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>FERNANDES, L. M. M.. Flujos y reflujos judios entre Marruecos y la Amazonía brasileña: dinámica de una diáspora. 2021. (Apresentação de Trabalho/Congresso).</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Lavinia Izidoro Martins</t>
+          <t>Lucas de Mattos Moura Fernandes</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>MARTINS, L. I.. Disputas de memória na Usina de Cambaíba. 2023. (Apresentação de Trabalho/Conferência ou palestra).</t>
+          <t>FERNANDES, L. M. M.. Toshabim e megorashim: A historiografia da migração sefardita e a estratificação da comunidade judaica no Marrocos oitocentista. 2021. (Apresentação de Trabalho/Congresso).</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Lavinia Izidoro Martins</t>
+          <t>Lucas de Mattos Moura Fernandes</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>MARTINS, L. I.. ?Disputa de memórias na Usina de Cambaíba: patrimônio, memória e história de Campos dos Goytacazes?. 2023. (Apresentação de Trabalho/Simpósio).</t>
+          <t>FERNANDES, L. M. M.. De que serve um Brasileiro? A consularização do cotidiano da comunidade brasileira no Marrocos oitocentista. 2021. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Lavinia Izidoro Martins</t>
+          <t>Lucas Lixa Victor Neves</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>MARTINS, L. I.. Entre afetividades e domínio: A memória da Usina de Cambaíba, em Campos dos Goytacazes, em disputa. 2023. (Apresentação de Trabalho/Simpósio).</t>
+          <t>NEVES, L. L. V.. A legitimação da desigualdade através do pecado original ? Portugal (séc. XVI). 2024. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Lavinia Izidoro Martins</t>
+          <t>Lucas Lixa Victor Neves</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>MARTINS, L. I.. Disputa de memórias na Usina de Cambaíba: patrimônio, memória e História de Campos dos Goytacazes. 2023. (Apresentação de Trabalho/Simpósio).</t>
+          <t>NEVES, L. L. V.. Triunfo dinástico e sedição: suspeitas de deslealdade portuguesa a Felipe II nos debates das Cortes de Castela de 1583. 2024. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Lavinia Izidoro Martins</t>
+          <t>Lucas Lixa Victor Neves</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>MARTINS, L. I.. Disputas de memória em torno da Usina de Cambaíba, em Campos dos Goytacazes (2012 -): Reflexões acerca da caracterização da usina enquanto um lugar de memória da Ditadura Militar Brasileira.. 2022. (Apresentação de Trabalho/Congresso).</t>
+          <t>NEVES, L. L. V.. O rei tratadista: Jaime VI da Escócia em defesa da prerrogativa régia (séc. XVI). 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Lavinia Izidoro Martins</t>
+          <t>Lucas Lixa Victor Neves</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>MARTINS, L. I.. Disputas e Resgate de memórias em torno da Usina de Cambahyba,  em Campos dos Goytacazes. 2021. (Apresentação de Trabalho/Seminário).</t>
+          <t>NEVES, L. L. V.. Filosofia e direito na historiografia sobre a gênese das assembleias representativas medievais. 2023. (Apresentação de Trabalho/Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Lavinia Izidoro Martins</t>
+          <t>Lucas Lixa Victor Neves</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>29º Congresso da Associação Nacional de Pós-graduandos (ANPG). ?TERRA MANCHADA DE SANGUE?:  Ditadura militar e disputas de memória em torno da Usina de Cambaíba (Campos dos  Goytacazes 2012 - 2023). 2024. (Congresso).</t>
+          <t>NEVES, L. L. V.. A natureza da Missa no debate entre John Knox e o abade de Crossraguell (Escócia, 1562). 2022. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Lavinia Izidoro Martins</t>
+          <t>Lucas Lixa Victor Neves</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>29º Congresso da Associação Nacional de Pós-graduandos (ANPG). ?TERRA MANCHADA DE SANGUE?:  Ditadura militar e disputas de memória em torno da Usina de Cambaíba (Campos dos  Goytacazes 2012 - 2023). 2024. (Congresso).</t>
+          <t>NEVES, L. L. V.. As Cortes de 1641 e a questão da sucessão ao trono português. 2022. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Lavinia Izidoro Martins</t>
+          <t>Lucas Lixa Victor Neves</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>12º Semana de Integração Acadêmica da UFRJ. DISPUTAS E RESGATE DE MEMÓRIA EM TORNO DA USINA DE CAMBAIBA, EM CAMPOS DOS GOYTACAZES (2012 - ): REFLEXÕES ACERCA DA CARACTERIZAÇÃO DA USINA ENQUANTO LUGAR DE MEMÓRIA DA DITADURA MILITAR. 2023. (Congresso).</t>
+          <t>NEVES, L. L. V.. A aristocracia transnacional portuguesa nas petições das Cortes de 1641. 2022. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Lavinia Izidoro Martins</t>
+          <t>Lucas Lixa Victor Neves</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>IV Jornada Discente do PPGCP.Disputas de memória em torno da Usina de Cambaíba, em Campos dos Goytacazes (2012 -): Reflexões acerca da caracterização da usina enquanto um lugar de memória da Ditadura Militar Brasileira..
-						2022. (Encontro).</t>
+          <t>NEVES, L. L. V.. Pelo bem comum: a negociação entre os Estados e a Coroa em Portugal nas Cortes de 1641. 2021. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Lavinia Izidoro Martins</t>
+          <t>Lucas Lixa Victor Neves</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Jornada de estudos históricos prof. Manoel Salgado Guimarães.DISPUTAS DE MEMÓRIA EM TORNO DA USINA DE CAMBAÍBA, EM CAMPOS DOS GOYTACAZES (2012 -).
-						2022. (Encontro).</t>
+          <t>NEVES, L. L. V.. A mentalidade de cruzada e a expansão portuguesa: o caso da conquista da ilha de Socotorá (1507). 2021. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Lavinia Izidoro Martins</t>
+          <t>Lucas Lixa Victor Neves</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>XI CONINTER - Congresso Internacional Interdisciplinar em Sociais e Humanidades. DISPUTAS DE MEMÓRIA EM TORNO DA USINA DE CAMBAÍBA, EM CAMPOS DOS GOYTACAZES (2012 -): REFLEXÕES ACERCA DA CARACTERIZAÇÃO DA USINA ENQUANTO UM LUGAR DE MEMÓRIA DA DITADURA MILITAR BRASILEIRA. 2022. (Congresso).</t>
+          <t>NEVES, L. L. V.. Os capítulos gerais das Cortes de 1641 e a ideia de bem comum. 2021. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Lavinia Izidoro Martins</t>
+          <t>Lucas Lixa Victor Neves</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>XVI Encontro Nacional de História Oral - Pandemia e Futuros Possíveis.Disputas e Resgate de memórias em torno da Usina de Cambahyba,  em Campos dos Goytacazes.
-						2022. (Encontro).</t>
+          <t>NEVES, L. L. V.. As conquistas ultramarinas portuguesas nos capítulos gerais das Cortes de 1641. 2021. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Lavinia Izidoro Martins</t>
+          <t>Lucas Sampaio Costa Souza</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>IV Seminário História &amp; Patrimônio: Diálogos e Perspectivas.Disputas e Resgate de memórias em torno da Usina de Cambahyba,  em Campos dos Goytacazes. 2021. (Seminário).</t>
+          <t>SOUZA, L. S. C.. Uma consciência histórica do entre-lugar em 'O enigma da chegada', de  V.S. Naipaul?. 2024. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Lavinia Izidoro Martins</t>
+          <t>Lucas Sampaio Costa Souza</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>MARTINS, L. I.. Jornada de Estudos Históricos Professor Manoel Salgado ? Edição 2023. 2023. (Congresso).</t>
+          <t>SOUZA, L. S. C.. Uma consciência do entre-lugar em O enigma da chegada, de V.S. Naipaul. 2024. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Livia Claro Pires</t>
+          <t>Lucas Sampaio Costa Souza</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>PIRES, L. C.. O porta voz do Kaiser: o jornal A Tribuna e as reações pró Alemanha na imprensa brasileira durante a Primeira Guerra Mundial.. 2022. (Apresentação de Trabalho/Comunicação).</t>
+          <t>SOUZA, L. S. C.. Uma consciência histórica do Terceiro Mundo em 'O enigma da chegada', de  V.S. Naipaul?. 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Livia Claro Pires</t>
+          <t>Lucas Sampaio Costa Souza</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>PIRES, L. C.. A Liga Brasileira Pró-Germânia e os debates sobre o Brasil na Primeira Guerra Mundial. 2022. (Apresentação de Trabalho/Outra).</t>
+          <t>SOUZA, L. S. C.. Historicidade transitória e releitura da história em Americanah, de Chimamanda Ngozi Adichie. 2021. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Livia Claro Pires</t>
+          <t>Lucas Sampaio Costa Souza</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>PIRES, L. C.. Germanófilos no Rio de Janeiro: ideias e ações em prol da Alemanha durante a Primeira Guerra Mundial. 2022. (Apresentação de Trabalho/Comunicação).</t>
+          <t>FAUSTINO, L. ;SOUZA, L. S. C.. Escritas negras femininas: literatura, política e intelectualidade na construção do conhecimento histórico. 2021. (Apresentação de Trabalho/Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Livia Claro Pires</t>
+          <t>Luciana Lucia da Silva</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>PIRES, L. C.. Intelectuais na Primeira Guerra Mundial: novas perspectivas, novos objetos. 2021. (Apresentação de Trabalho/Comunicação).</t>
+          <t>SILVA, L. L.. A Batalha do Dande e a mudança nas relações de poder do Ndongo, meados do século XVI. 2024. (Apresentação de Trabalho/Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Lucas de Mattos Moura Fernandes</t>
+          <t>Luciana Lucia da Silva</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>FERNANDES, L. M. M.. Protegidos e astuciosos: uma trajetória da comunidade brasileira no Marrocos oitocentista. 2021. (Apresentação de Trabalho/Seminário).</t>
+          <t>SILVA, L. L.. O documentário 'A Rainha Nzinga chegou' como fonte de pesquisa para a história do Ndongo nos séculos XVI e XVII. 2024. (Apresentação de Trabalho/Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Lucas de Mattos Moura Fernandes</t>
+          <t>Luciana Lucia da Silva</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>FERNANDES, L. M. M.. Flujos y reflujos judios entre Marruecos y la Amazonía brasileña: dinámica de una diáspora. 2021. (Apresentação de Trabalho/Congresso).</t>
+          <t>SILVA, L. L.. Relações de poder no Ndongo no contexto dos contatos atlânticos, segunda metade do século XVI. 2023. (Apresentação de Trabalho/Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Lucas de Mattos Moura Fernandes</t>
+          <t>Luciana Lucia da Silva</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>FERNANDES, L. M. M.. Toshabim e megorashim: A historiografia da migração sefardita e a estratificação da comunidade judaica no Marrocos oitocentista. 2021. (Apresentação de Trabalho/Congresso).</t>
+          <t>SILVA, L. L.. O fortalecimento do Ndongo e a troca de embaixadas com a Coroa portuguesa, 1504-1565. 2022. (Apresentação de Trabalho/Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Lucas de Mattos Moura Fernandes</t>
+          <t>Luciana Lucia da Silva</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>FERNANDES, L. M. M.. De que serve um Brasileiro? A consularização do cotidiano da comunidade brasileira no Marrocos oitocentista. 2021. (Apresentação de Trabalho/Comunicação).</t>
+          <t>SILVA, L. L.. Os significados da Batalha do Dande para a história do Ndongo, meados do século XVI. 2022. (Apresentação de Trabalho/Seminário).</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Lucas Lixa Victor Neves</t>
+          <t>Luciana Lucia da Silva</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>NEVES, L. L. V.. A legitimação da desigualdade através do pecado original ? Portugal (séc. XVI). 2024. (Apresentação de Trabalho/Comunicação).</t>
+          <t>SILVA, L. L.. A atuação de Paulo Dias de Novais: possibilidades e limites da ação portuguesa no Ndongo, 1571-1589. 2021. (Apresentação de Trabalho/Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Lucas Lixa Victor Neves</t>
+          <t>Luciana Lucia da Silva</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>NEVES, L. L. V.. Triunfo dinástico e sedição: suspeitas de deslealdade portuguesa a Felipe II nos debates das Cortes de Castela de 1583. 2024. (Apresentação de Trabalho/Comunicação).</t>
+          <t>SILVA, L. L.. O Ndongo e a relação estabelecida com os portugueses durante o século XVI. 2021. (Apresentação de Trabalho/Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Lucas Lixa Victor Neves</t>
+          <t>Luis Henrique Souza dos Santos</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>NEVES, L. L. V.. O rei tratadista: Jaime VI da Escócia em defesa da prerrogativa régia (séc. XVI). 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>SANTOS, Luis Henrique S. dos. Pesquisa documental com manuscritos no Brasil do século XVII: petições, atas e ofícios no Brasil colonial. 2022. (Apresentação de Trabalho/Conferência ou palestra).</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Lucas Lixa Victor Neves</t>
+          <t>Luis Henrique Souza dos Santos</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>NEVES, L. L. V.. Filosofia e direito na historiografia sobre a gênese das assembleias representativas medievais. 2023. (Apresentação de Trabalho/Simpósio).</t>
+          <t>SANTOS, Luis Henrique S. dos. Oficina introdutória à paleografia: introdução e estratégias para leitura de documentos antigos. 2022. (Apresentação de Trabalho/Conferência ou palestra).</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Lucas Lixa Victor Neves</t>
+          <t>Luis Henrique Souza dos Santos</t>
         </is>
       </c>
       <c r="B273" t="n">
@@ -6473,44 +6467,44 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>NEVES, L. L. V.. A natureza da Missa no debate entre John Knox e o abade de Crossraguell (Escócia, 1562). 2022. (Apresentação de Trabalho/Comunicação).</t>
+          <t>SANTOS, Luis Henrique S. dos; NEVES, Lucas Lixa Victor . Poderes, instituições e sujeitos do mundo português medieval e moderno (séculos XIV-XIX). 2022. (Apresentação de Trabalho/Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Lucas Lixa Victor Neves</t>
+          <t>Luis Henrique Souza dos Santos</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>NEVES, L. L. V.. As Cortes de 1641 e a questão da sucessão ao trono português. 2022. (Apresentação de Trabalho/Comunicação).</t>
+          <t>SANTOS, Luis Henrique S. dos. Juiz dos ofícios e Juiz do Povo e Mesteres: um estudo preliminar sobre o controle do mercado e da política municipal em Salvador durante o século XVII. 2021. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Lucas Lixa Victor Neves</t>
+          <t>Luis Henrique Souza dos Santos</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>NEVES, L. L. V.. A aristocracia transnacional portuguesa nas petições das Cortes de 1641. 2022. (Apresentação de Trabalho/Comunicação).</t>
+          <t>SANTOS, Luis Henrique S. dos. O debate público acerca da limitação ou liberdade na construção de engenhos de açúcar na Bahia do século XVII. 2021. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Lucas Lixa Victor Neves</t>
+          <t>Luis Henrique Souza dos Santos</t>
         </is>
       </c>
       <c r="B276" t="n">
@@ -6518,14 +6512,14 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>NEVES, L. L. V.. Pelo bem comum: a negociação entre os Estados e a Coroa em Portugal nas Cortes de 1641. 2021. (Apresentação de Trabalho/Comunicação).</t>
+          <t>SANTOS, Luis Henrique S. dos; PINTO, Jacques . Oficina de Pesquisa Bibliográfica. 2021. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Lucas Lixa Victor Neves</t>
+          <t>Luis Henrique Souza dos Santos</t>
         </is>
       </c>
       <c r="B277" t="n">
@@ -6533,44 +6527,44 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>NEVES, L. L. V.. A mentalidade de cruzada e a expansão portuguesa: o caso da conquista da ilha de Socotorá (1507). 2021. (Apresentação de Trabalho/Comunicação).</t>
+          <t>SANTOS, Luis Henrique S. dos. A construção ou limitação de engenhos de açúcar no Recôncavo: petições, requerimentos e abaixo-assinados na Bahia (1660). 2021. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Lucas Lixa Victor Neves</t>
+          <t>Mariana Freitas de Andrade</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>NEVES, L. L. V.. Os capítulos gerais das Cortes de 1641 e a ideia de bem comum. 2021. (Apresentação de Trabalho/Comunicação).</t>
+          <t>ANDRADE, M. F.. A escrita de si em diferentes suportes: quando o diário termina e começa o ensaio?. 2024. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Lucas Lixa Victor Neves</t>
+          <t>Mariana Freitas de Andrade</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>NEVES, L. L. V.. As conquistas ultramarinas portuguesas nos capítulos gerais das Cortes de 1641. 2021. (Apresentação de Trabalho/Comunicação).</t>
+          <t>ANDRADE, M. F.. A criação do Museu Casa de Rui Barbosa: entre memória, identidade e projetos de nação. 2024. (Apresentação de Trabalho/Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Lucas Sampaio Costa Souza</t>
+          <t>Mariana Freitas de Andrade</t>
         </is>
       </c>
       <c r="B280" t="n">
@@ -6578,14 +6572,14 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>SOUZA, L. S. C.. Uma consciência histórica do entre-lugar em 'O enigma da chegada', de  V.S. Naipaul?. 2024. (Apresentação de Trabalho/Comunicação).</t>
+          <t>ANDRADE, M. F.. Narrativas de uma morte: A imprensa brasileira e a construção cultural da celebridade póstuma de Rui Barbosa, nos anos 1920. 2024. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Lucas Sampaio Costa Souza</t>
+          <t>Mariana Freitas de Andrade</t>
         </is>
       </c>
       <c r="B281" t="n">
@@ -6593,14 +6587,14 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>SOUZA, L. S. C.. Uma consciência do entre-lugar em O enigma da chegada, de V.S. Naipaul. 2024. (Apresentação de Trabalho/Comunicação).</t>
+          <t>ANDRADE, M. F.. Narrativas, representações e apagamentos na idealização do Museu Casa de Rui Barbosa (1889-1930). 2024. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Lucas Sampaio Costa Souza</t>
+          <t>Mariana Freitas de Andrade</t>
         </is>
       </c>
       <c r="B282" t="n">
@@ -6608,74 +6602,74 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>SOUZA, L. S. C.. Uma consciência histórica do Terceiro Mundo em 'O enigma da chegada', de  V.S. Naipaul?. 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>ANDRADE, M. F.. Interfaces entre História, Memória e Educação Patrimonial: um estudo de caso do Museu Casa de Rui Barbosa. 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Lucas Sampaio Costa Souza</t>
+          <t>Mariana Freitas de Andrade</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>SOUZA, L. S. C.. Historicidade transitória e releitura da história em Americanah, de Chimamanda Ngozi Adichie. 2021. (Apresentação de Trabalho/Comunicação).</t>
+          <t>ANDRADE, M. F.. A representação simbólica da vida e da memória de Rui Barbosa no espaço de sua antiga residência, transformada em museu (1895-1930). 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Lucas Sampaio Costa Souza</t>
+          <t>Mariana Freitas de Andrade</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>FAUSTINO, L. ;SOUZA, L. S. C.. Escritas negras femininas: literatura, política e intelectualidade na construção do conhecimento histórico. 2021. (Apresentação de Trabalho/Simpósio).</t>
+          <t>ANDRADE, M. F.. De herói nacional à celebridade política: Rui Barbosa e a idealização de um museu em sua antiga residência (1889-1930). 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Luciana Lucia da Silva</t>
+          <t>Mariana Freitas de Andrade</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>SILVA, L. L.. A Batalha do Dande e a mudança nas relações de poder do Ndongo, meados do século XVI. 2024. (Apresentação de Trabalho/Simpósio).</t>
+          <t>ANDRADE, M. F.. As batalhas pela memória de Rui Barbosa na musealização e patrimonialização de sua antiga residência (1889-1938). 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Luciana Lucia da Silva</t>
+          <t>Mariana Freitas de Andrade</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>SILVA, L. L.. O documentário 'A Rainha Nzinga chegou' como fonte de pesquisa para a história do Ndongo nos séculos XVI e XVII. 2024. (Apresentação de Trabalho/Simpósio).</t>
+          <t>ANDRADE, M. F.. Pensando o Museu Casa de Rui Barbosa enquanto espaço de afirmação e representação da imagem do político para a nação (1889-1930). 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Luciana Lucia da Silva</t>
+          <t>Mariana Freitas de Andrade</t>
         </is>
       </c>
       <c r="B287" t="n">
@@ -6683,44 +6677,44 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>SILVA, L. L.. Relações de poder no Ndongo no contexto dos contatos atlânticos, segunda metade do século XVI. 2023. (Apresentação de Trabalho/Simpósio).</t>
+          <t>ANDRADE, M. F.. A celebração de Rui Barbosa, Joaquim Nabuco e Rio Branco na construção simbólica da Primeira República brasileira (1889-1923). 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Luciana Lucia da Silva</t>
+          <t>Mariana Freitas de Andrade</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>SILVA, L. L.. O fortalecimento do Ndongo e a troca de embaixadas com a Coroa portuguesa, 1504-1565. 2022. (Apresentação de Trabalho/Simpósio).</t>
+          <t>ANDRADE, M. F.. A celebridade Rui Barbosa: os interesses e as estratégias políticas que levaram a uma ação musal e patrimonial na casa de um homem público (1889-1938). 2021. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Luciana Lucia da Silva</t>
+          <t>Mariana Freitas de Andrade</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>SILVA, L. L.. Os significados da Batalha do Dande para a história do Ndongo, meados do século XVI. 2022. (Apresentação de Trabalho/Seminário).</t>
+          <t>ANDRADE, M. F.. As disputas pela memória de Rui Barbosa em seu Jubileu Cívico-Literário, durante a Primeira República. 2021. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Luciana Lucia da Silva</t>
+          <t>Mariana Freitas de Andrade</t>
         </is>
       </c>
       <c r="B290" t="n">
@@ -6728,14 +6722,14 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>SILVA, L. L.. A atuação de Paulo Dias de Novais: possibilidades e limites da ação portuguesa no Ndongo, 1571-1589. 2021. (Apresentação de Trabalho/Simpósio).</t>
+          <t>ANDRADE, M. F.. O autor como objeto de desejo do leitor e a vida superando a obra nos diários de escritores. 2021. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Luciana Lucia da Silva</t>
+          <t>Mariana Freitas de Andrade</t>
         </is>
       </c>
       <c r="B291" t="n">
@@ -6743,284 +6737,284 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>SILVA, L. L.. O Ndongo e a relação estabelecida com os portugueses durante o século XVI. 2021. (Apresentação de Trabalho/Simpósio).</t>
+          <t>ANDRADE, M. F.. Celebrar Rui Barbosa é celebrar a nação: a musealização da casa de um homem público, nos anos 1930. 2021. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Luis Henrique Souza dos Santos</t>
+          <t>Marina Salgado Pinto</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>SANTOS, Luis Henrique S. dos. Pesquisa documental com manuscritos no Brasil do século XVII: petições, atas e ofícios no Brasil colonial. 2022. (Apresentação de Trabalho/Conferência ou palestra).</t>
+          <t>PINTO, M. S.. Contribuciones del proyecto agrícola de Brasilia a la forestación urbana y demarcación de áreas para la preservación ambiental (1957 - 1992). 2021. (Apresentação de Trabalho/Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Luis Henrique Souza dos Santos</t>
+          <t>Marina Salgado Pinto</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>SANTOS, Luis Henrique S. dos. Oficina introdutória à paleografia: introdução e estratégias para leitura de documentos antigos. 2022. (Apresentação de Trabalho/Conferência ou palestra).</t>
+          <t>PINTO, M. S.. A história ambiental de Brasília sob a luz da crítica ecofeminista (1956 - 1990). 2021. (Apresentação de Trabalho/Outra).</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Luis Henrique Souza dos Santos</t>
+          <t>Maya Moldes da Rocha Pereira</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>SANTOS, Luis Henrique S. dos; NEVES, Lucas Lixa Victor . Poderes, instituições e sujeitos do mundo português medieval e moderno (séculos XIV-XIX). 2022. (Apresentação de Trabalho/Simpósio).</t>
+          <t>MOLDES,M.. Uma herança desassossegada. 2024. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Luis Henrique Souza dos Santos</t>
+          <t>Maya Moldes da Rocha Pereira</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>SANTOS, Luis Henrique S. dos. Juiz dos ofícios e Juiz do Povo e Mesteres: um estudo preliminar sobre o controle do mercado e da política municipal em Salvador durante o século XVII. 2021. (Apresentação de Trabalho/Comunicação).</t>
+          <t>MOLDES,M.. Durante, depois: momentos testemunhais. 2024. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Luis Henrique Souza dos Santos</t>
+          <t>Maya Moldes da Rocha Pereira</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>SANTOS, Luis Henrique S. dos. O debate público acerca da limitação ou liberdade na construção de engenhos de açúcar na Bahia do século XVII. 2021. (Apresentação de Trabalho/Comunicação).</t>
+          <t>MOLDES,M.. Escansão das imagens sobreviventes em ?A escrita ou a vida?. 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Luis Henrique Souza dos Santos</t>
+          <t>Maya Moldes da Rocha Pereira</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>SANTOS, Luis Henrique S. dos; PINTO, Jacques . Oficina de Pesquisa Bibliográfica. 2021. (Apresentação de Trabalho/Comunicação).</t>
+          <t>ANGELOTTI, A. L. ;MOLDES,M.. Sem margens, nem moldura: imaginando a escrita impetuosa de Lila. 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Luis Henrique Souza dos Santos</t>
+          <t>Maya Moldes da Rocha Pereira</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>SANTOS, Luis Henrique S. dos. A construção ou limitação de engenhos de açúcar no Recôncavo: petições, requerimentos e abaixo-assinados na Bahia (1660). 2021. (Apresentação de Trabalho/Comunicação).</t>
+          <t>MOLDES,M.. O trapeiro poeta ou o poeta dos trapos. 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Mariana Freitas de Andrade</t>
+          <t>Maya Moldes da Rocha Pereira</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>ANDRADE, M. F.. A escrita de si em diferentes suportes: quando o diário termina e começa o ensaio?. 2024. (Apresentação de Trabalho/Comunicação).</t>
+          <t>MOLDES,M.. Em lugar incerto e não sabido, uma cartografia para a história. 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Mariana Freitas de Andrade</t>
+          <t>Maya Moldes da Rocha Pereira</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>ANDRADE, M. F.. A criação do Museu Casa de Rui Barbosa: entre memória, identidade e projetos de nação. 2024. (Apresentação de Trabalho/Simpósio).</t>
+          <t>MOLDES,M.. La biografía del historiador. 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Mariana Freitas de Andrade</t>
+          <t>Maya Moldes da Rocha Pereira</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>ANDRADE, M. F.. Narrativas de uma morte: A imprensa brasileira e a construção cultural da celebridade póstuma de Rui Barbosa, nos anos 1920. 2024. (Apresentação de Trabalho/Comunicação).</t>
+          <t>MOLDES,M.. A disciplina histórica como artefato literário. 2022. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Mariana Freitas de Andrade</t>
+          <t>Maya Moldes da Rocha Pereira</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>ANDRADE, M. F.. Narrativas, representações e apagamentos na idealização do Museu Casa de Rui Barbosa (1889-1930). 2024. (Apresentação de Trabalho/Comunicação).</t>
+          <t>MOLDES,M.. No canteiro de obras do testemunho.. 2021. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Mariana Freitas de Andrade</t>
+          <t>Maya Moldes da Rocha Pereira</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>ANDRADE, M. F.. Interfaces entre História, Memória e Educação Patrimonial: um estudo de caso do Museu Casa de Rui Barbosa. 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>MOLDES,M.. Desmontar e remontar, até a legibilidade.. 2021. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Mariana Freitas de Andrade</t>
+          <t>Maya Moldes da Rocha Pereira</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>ANDRADE, M. F.. A representação simbólica da vida e da memória de Rui Barbosa no espaço de sua antiga residência, transformada em museu (1895-1930). 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>MOLDES,M.; ZAHNER, M. E. M. . Por um anjo decolonial. 2021. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Mariana Freitas de Andrade</t>
+          <t>Maya Moldes da Rocha Pereira</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>ANDRADE, M. F.. De herói nacional à celebridade política: Rui Barbosa e a idealização de um museu em sua antiga residência (1889-1930). 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>MOLDES,M.. Verdade da experiência, imaginação e historiografia. 2021. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Mariana Freitas de Andrade</t>
+          <t>Michelle Caetano</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>ANDRADE, M. F.. As batalhas pela memória de Rui Barbosa na musealização e patrimonialização de sua antiga residência (1889-1938). 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>Caetano, M.. A perspectiva do trauma: dialogando com Dominick Lacapra. 2022. (Apresentação de Trabalho/Outra).</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Mariana Freitas de Andrade</t>
+          <t>Michelle Caetano</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>ANDRADE, M. F.. Pensando o Museu Casa de Rui Barbosa enquanto espaço de afirmação e representação da imagem do político para a nação (1889-1930). 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>Caetano, M.. O fogo sagrado: a religião doméstica como pilar de fundação das sociedades antigas na obra de Fustel de Coulanges, a cidade antiga. 2021. (Apresentação de Trabalho/Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Mariana Freitas de Andrade</t>
+          <t>Millena Souza Farias</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>ANDRADE, M. F.. A celebração de Rui Barbosa, Joaquim Nabuco e Rio Branco na construção simbólica da Primeira República brasileira (1889-1923). 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>FARIAS, Millena S.. O matemático, o tratado e o observatório: Cândido Baptista de Oliveira e o projeto do primeiro observatório astronômico de porte nacional no Brasil (1824-1828). 2022. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Mariana Freitas de Andrade</t>
+          <t>Millena Souza Farias</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>ANDRADE, M. F.. A celebridade Rui Barbosa: os interesses e as estratégias políticas que levaram a uma ação musal e patrimonial na casa de um homem público (1889-1938). 2021. (Apresentação de Trabalho/Comunicação).</t>
+          <t>FARIAS, Millena S.. Entre a matemática e a astronomia: Cândido Baptista de Oliveira e as influências francesa e portuguesa na composição da ?Memoria sobre o estabelecimento de Observatório no Rio de Janeiro? (1820-1828). 2022. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Mariana Freitas de Andrade</t>
+          <t>Millena Souza Farias</t>
         </is>
       </c>
       <c r="B310" t="n">
@@ -7028,14 +7022,14 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>ANDRADE, M. F.. As disputas pela memória de Rui Barbosa em seu Jubileu Cívico-Literário, durante a Primeira República. 2021. (Apresentação de Trabalho/Comunicação).</t>
+          <t>FARIAS, Millena S.. Alinhando-se ao projeto Saquarema: uma breve discussão sobre o lugar das instituições de ciência no Brasil imperial (1830-1860). 2021. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Mariana Freitas de Andrade</t>
+          <t>Millena Souza Farias</t>
         </is>
       </c>
       <c r="B311" t="n">
@@ -7043,119 +7037,119 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>ANDRADE, M. F.. O autor como objeto de desejo do leitor e a vida superando a obra nos diários de escritores. 2021. (Apresentação de Trabalho/Comunicação).</t>
+          <t>FARIAS, Millena S.. História da Ciência no Brasil: narrativas, temas e debates atuais. 2021. (Apresentação de Trabalho/Conferência ou palestra).</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Mariana Freitas de Andrade</t>
+          <t>Mirella Soraya Pinheiro Rodrigues de Oliveira</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>ANDRADE, M. F.. Celebrar Rui Barbosa é celebrar a nação: a musealização da casa de um homem público, nos anos 1930. 2021. (Apresentação de Trabalho/Comunicação).</t>
+          <t>OLIVEIRA, M.. Gratidão e misericórdia nas alforrias fluminenses setencentistas. 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Marina Salgado Pinto</t>
+          <t>Mirella Soraya Pinheiro Rodrigues de Oliveira</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>PINTO, M. S.. Contribuciones del proyecto agrícola de Brasilia a la forestación urbana y demarcación de áreas para la preservación ambiental (1957 - 1992). 2021. (Apresentação de Trabalho/Simpósio).</t>
+          <t>OLIVEIRA, M.. Alforrias e permanências do Antigo Regime no Rio de Janeiro entre os séculos XVIII e XIX. 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Marina Salgado Pinto</t>
+          <t>Mirella Soraya Pinheiro Rodrigues de Oliveira</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>PINTO, M. S.. A história ambiental de Brasília sob a luz da crítica ecofeminista (1956 - 1990). 2021. (Apresentação de Trabalho/Outra).</t>
+          <t>OLIVEIRA, M.. As dimensões da gratidão: relações entre Antigo Regime e as alforrias fluminenses entre os séculos XVIII-XIX. 2022. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Maya Moldes da Rocha Pereira</t>
+          <t>Mirella Soraya Pinheiro Rodrigues de Oliveira</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>MOLDES,M.. Uma herança desassossegada. 2024. (Apresentação de Trabalho/Comunicação).</t>
+          <t>OLIVEIRA, M.. Alforrias fluminenses e visões de mundo entre os séculos XVIII e XIX. 2022. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Maya Moldes da Rocha Pereira</t>
+          <t>Mirella Soraya Pinheiro Rodrigues de Oliveira</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>MOLDES,M.. Durante, depois: momentos testemunhais. 2024. (Apresentação de Trabalho/Comunicação).</t>
+          <t>OLIVEIRA, M.. Mulheres atlânticas: notas sobre as libertações femininas nas alforrias fluminenses (séculos XVIII-XIX). 2021. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Maya Moldes da Rocha Pereira</t>
+          <t>Mirella Soraya Pinheiro Rodrigues de Oliveira</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>MOLDES,M.. Escansão das imagens sobreviventes em ?A escrita ou a vida?. 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>OLIVEIRA, M.. 'Pelo amor de Deus': alforrias e disciplina católica no Rio de Janeiro (século XVIII). 2021. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Maya Moldes da Rocha Pereira</t>
+          <t>Mirella Soraya Pinheiro Rodrigues de Oliveira</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>ANGELOTTI, A. L. ;MOLDES,M.. Sem margens, nem moldura: imaginando a escrita impetuosa de Lila. 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>OLIVEIRA, M.. 'Com muito amor e verdade': alforrias e Antigo Regime ibérico no Rio de Janeiro do século XVIII. 2021. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Maya Moldes da Rocha Pereira</t>
+          <t>Mylena Porto da Gama</t>
         </is>
       </c>
       <c r="B319" t="n">
@@ -7163,164 +7157,164 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>MOLDES,M.. O trapeiro poeta ou o poeta dos trapos. 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>GAMA, Mylena. Engenhos, engenhocas e produção de aguardente no Norte Fluminense (1774-1831). 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Maya Moldes da Rocha Pereira</t>
+          <t>Mylena Porto da Gama</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>MOLDES,M.. Em lugar incerto e não sabido, uma cartografia para a história. 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>GAMA, Mylena. Caminhos do engenho: açúcar e aguardente no Norte Fluminense (1774-1831). 2022. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Maya Moldes da Rocha Pereira</t>
+          <t>Mylena Porto da Gama</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>MOLDES,M.. La biografía del historiador. 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>GAMA, Mylena. A produção de aguardente no Norte Fluminense açucareiro: Campos dos Goytacazes nas últimas décadas do século XVIII. 2021. (Apresentação de Trabalho/Seminário).</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Maya Moldes da Rocha Pereira</t>
+          <t>Mylena Porto da Gama</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>MOLDES,M.. A disciplina histórica como artefato literário. 2022. (Apresentação de Trabalho/Comunicação).</t>
+          <t>GAMA, Mylena. A produção de aguardente no Norte Fluminense açucareiro: Campos dos Goytacazes nas últimas décadas do século XVIII. 2021. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Maya Moldes da Rocha Pereira</t>
+          <t>Naiara Müssnich Rotta Gomes de Assunção</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>MOLDES,M.. No canteiro de obras do testemunho.. 2021. (Apresentação de Trabalho/Comunicação).</t>
+          <t>ASSUNÇÃO, NAIARA MÜSSNICH ROTTA GOMES DE. Arab Public History in Brazil: The Experience of the Hunna Collective, Historians Who Dance. 2024. (Apresentação de Trabalho/Conferência ou palestra).</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Maya Moldes da Rocha Pereira</t>
+          <t>Naiara Müssnich Rotta Gomes de Assunção</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>MOLDES,M.. Desmontar e remontar, até a legibilidade.. 2021. (Apresentação de Trabalho/Comunicação).</t>
+          <t>ASSUNÇÃO, NAIARA MÜSSNICH ROTTA GOMES DE. A recepção da antiguidade egípcia no filme ?Gharam fi el-Karnak? (1967). 2024. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Maya Moldes da Rocha Pereira</t>
+          <t>Naiara Müssnich Rotta Gomes de Assunção</t>
         </is>
       </c>
       <c r="B325" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>MOLDES,M.; ZAHNER, M. E. M. . Por um anjo decolonial. 2021. (Apresentação de Trabalho/Comunicação).</t>
+          <t>ASSUNÇÃO, NAIARA MÜSSNICH ROTTA GOMES DE. ?Hunna Collective: Historians who Dance?: Historical Background, Proposals, and Definitions regarding Public History in the Dance field. 2024. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Maya Moldes da Rocha Pereira</t>
+          <t>Naiara Müssnich Rotta Gomes de Assunção</t>
         </is>
       </c>
       <c r="B326" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>MOLDES,M.. Verdade da experiência, imaginação e historiografia. 2021. (Apresentação de Trabalho/Comunicação).</t>
+          <t>ASSUNÇÃO, NAIARA MÜSSNICH ROTTA GOMES DE. Oficina 'O Oriente e os preconceitos orientalistas'. 2023. (Apresentação de Trabalho/Outra).</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Michelle Caetano</t>
+          <t>Naiara Müssnich Rotta Gomes de Assunção</t>
         </is>
       </c>
       <c r="B327" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>Caetano, M.. A perspectiva do trauma: dialogando com Dominick Lacapra. 2022. (Apresentação de Trabalho/Outra).</t>
+          <t>ASSUNÇÃO, NAIARA MÜSSNICH ROTTA GOMES DE. Taller ?¿Qué es la danza oriental??. 2023. (Apresentação de Trabalho/Outra).</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Michelle Caetano</t>
+          <t>Naiara Müssnich Rotta Gomes de Assunção</t>
         </is>
       </c>
       <c r="B328" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>Caetano, M.. O fogo sagrado: a religião doméstica como pilar de fundação das sociedades antigas na obra de Fustel de Coulanges, a cidade antiga. 2021. (Apresentação de Trabalho/Simpósio).</t>
+          <t>ASSUNÇÃO, NAIARA MÜSSNICH ROTTA GOMES DE. Representations and paradoxes regarding the practice of ?belly dance? in Egypt and Brazil. 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Millena Souza Farias</t>
+          <t>Naiara Müssnich Rotta Gomes de Assunção</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>FARIAS, Millena S.. O matemático, o tratado e o observatório: Cândido Baptista de Oliveira e o projeto do primeiro observatório astronômico de porte nacional no Brasil (1824-1828). 2022. (Apresentação de Trabalho/Comunicação).</t>
+          <t>ASSUNÇÃO, NAIARA MÜSSNICH ROTTA GOMES DE; PRESTES, Jéssica . INTERPRETANDO FONTES: A publicização didática do conhecimento histórico dentro do mundo da dança. 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>Millena Souza Farias</t>
+          <t>Naiara Müssnich Rotta Gomes de Assunção</t>
         </is>
       </c>
       <c r="B330" t="n">
@@ -7328,104 +7322,104 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>FARIAS, Millena S.. Entre a matemática e a astronomia: Cândido Baptista de Oliveira e as influências francesa e portuguesa na composição da ?Memoria sobre o estabelecimento de Observatório no Rio de Janeiro? (1820-1828). 2022. (Apresentação de Trabalho/Comunicação).</t>
+          <t>ASSUNÇÃO, NAIARA MÜSSNICH ROTTA GOMES DE. Orientalismo na História da Dança do Ventre. 2022. (Apresentação de Trabalho/Conferência ou palestra).</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Millena Souza Farias</t>
+          <t>Naiara Müssnich Rotta Gomes de Assunção</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>FARIAS, Millena S.. Alinhando-se ao projeto Saquarema: uma breve discussão sobre o lugar das instituições de ciência no Brasil imperial (1830-1860). 2021. (Apresentação de Trabalho/Comunicação).</t>
+          <t>BAKKA, Egil ; GORE, Georgiana W. ;ASSUNÇÃO, NAIARA MÜSSNICH ROTTA GOMES DE; KARDASH, Masha . The World in Dance Words. 2022. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Millena Souza Farias</t>
+          <t>Naiara Müssnich Rotta Gomes de Assunção</t>
         </is>
       </c>
       <c r="B332" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>FARIAS, Millena S.. História da Ciência no Brasil: narrativas, temas e debates atuais. 2021. (Apresentação de Trabalho/Conferência ou palestra).</t>
+          <t>ASSUNÇÃO, NAIARA MÜSSNICH ROTTA GOMES DE. Roundtable Young Scholars in Academia. 2022. (Apresentação de Trabalho/Outra).</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Mirella Soraya Pinheiro Rodrigues de Oliveira</t>
+          <t>Naiara Müssnich Rotta Gomes de Assunção</t>
         </is>
       </c>
       <c r="B333" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>OLIVEIRA, M.. Gratidão e misericórdia nas alforrias fluminenses setencentistas. 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>ASSUNÇÃO, NAIARA MÜSSNICH ROTTA GOMES DE. The Arabian Nights and Travel Literature: European Delusions in North Africa. 2022. (Apresentação de Trabalho/Conferência ou palestra).</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Mirella Soraya Pinheiro Rodrigues de Oliveira</t>
+          <t>Naiara Müssnich Rotta Gomes de Assunção</t>
         </is>
       </c>
       <c r="B334" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>OLIVEIRA, M.. Alforrias e permanências do Antigo Regime no Rio de Janeiro entre os séculos XVIII e XIX. 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>ASSUNÇÃO, Naiara M. R. G.. Orientalism and exotification in the case of Belly Dance. 2021. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Mirella Soraya Pinheiro Rodrigues de Oliveira</t>
+          <t>Naiara Müssnich Rotta Gomes de Assunção</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>OLIVEIRA, M.. As dimensões da gratidão: relações entre Antigo Regime e as alforrias fluminenses entre os séculos XVIII-XIX. 2022. (Apresentação de Trabalho/Comunicação).</t>
+          <t>ASSUNÇÃO, Naiara M. R. G.; AMAWI, Sarah ; VENKATARAMANI, Subhashini Goda . Is it possible to decolonise oriental dance?. 2021. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>Mirella Soraya Pinheiro Rodrigues de Oliveira</t>
+          <t>Naiara Müssnich Rotta Gomes de Assunção</t>
         </is>
       </c>
       <c r="B336" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>OLIVEIRA, M.. Alforrias fluminenses e visões de mundo entre os séculos XVIII e XIX. 2022. (Apresentação de Trabalho/Comunicação).</t>
+          <t>ASSUNÇÃO, Naiara M. R. G.; YÁNEZ, Jorge Poveda ; MEDINA, Juan Felipe Miranda ; BEJARANO, Maria José . Notes for a Practical Concept of (De)coloniality in the Context of Music and Dance Practice. 2021. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>Mirella Soraya Pinheiro Rodrigues de Oliveira</t>
+          <t>Naiara Müssnich Rotta Gomes de Assunção</t>
         </is>
       </c>
       <c r="B337" t="n">
@@ -7433,14 +7427,14 @@
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>OLIVEIRA, M.. Mulheres atlânticas: notas sobre as libertações femininas nas alforrias fluminenses (séculos XVIII-XIX). 2021. (Apresentação de Trabalho/Comunicação).</t>
+          <t>ASSUNÇÃO, Naiara M. R. G.. De dónde viene la danza del vientre? Aspectos históricos y corporales. 2021. (Apresentação de Trabalho/Conferência ou palestra).</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>Mirella Soraya Pinheiro Rodrigues de Oliveira</t>
+          <t>Naiara Müssnich Rotta Gomes de Assunção</t>
         </is>
       </c>
       <c r="B338" t="n">
@@ -7448,14 +7442,14 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>OLIVEIRA, M.. 'Pelo amor de Deus': alforrias e disciplina católica no Rio de Janeiro (século XVIII). 2021. (Apresentação de Trabalho/Comunicação).</t>
+          <t>ASSUNÇÃO, Naiara M. R. G.; SILVA, Ana Terra de Leon ; PASCHOAL, NINA INGRID CAPUTO ; PRESTES, Jéssica ; VASCONCELOS, Maria Beatriz Ferreira . Orientalismo E Contemporaneidade: O Que Tem A Ver Com A Nossa Dança?. 2021. (Apresentação de Trabalho/Conferência ou palestra).</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Mirella Soraya Pinheiro Rodrigues de Oliveira</t>
+          <t>Naiara Müssnich Rotta Gomes de Assunção</t>
         </is>
       </c>
       <c r="B339" t="n">
@@ -7463,164 +7457,164 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>OLIVEIRA, M.. 'Com muito amor e verdade': alforrias e Antigo Regime ibérico no Rio de Janeiro do século XVIII. 2021. (Apresentação de Trabalho/Comunicação).</t>
+          <t>ASSUNÇÃO, NAIARA MÜSSNICH ROTTA GOMES DE. Colonialismo e Orientalismo. 2021. (Apresentação de Trabalho/Conferência ou palestra).</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>Mylena Porto da Gama</t>
+          <t>Naiara Müssnich Rotta Gomes de Assunção</t>
         </is>
       </c>
       <c r="B340" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>GAMA, Mylena. Engenhos, engenhocas e produção de aguardente no Norte Fluminense (1774-1831). 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>ASSUNÇÃO, NAIARA MÜSSNICH ROTTA GOMES DE. Feminismo e islamismo: é possível conciliar?. 2021. (Apresentação de Trabalho/Conferência ou palestra).</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>Mylena Porto da Gama</t>
+          <t>Naiara Müssnich Rotta Gomes de Assunção</t>
         </is>
       </c>
       <c r="B341" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>GAMA, Mylena. Caminhos do engenho: açúcar e aguardente no Norte Fluminense (1774-1831). 2022. (Apresentação de Trabalho/Comunicação).</t>
+          <t>ASSUNÇÃO, Naiara M. R. G.. The Professional Market of Belly Dance in Egypt. 2021. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>Mylena Porto da Gama</t>
+          <t>Natalia de Souza Miranda</t>
         </is>
       </c>
       <c r="B342" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>GAMA, Mylena. A produção de aguardente no Norte Fluminense açucareiro: Campos dos Goytacazes nas últimas décadas do século XVIII. 2021. (Apresentação de Trabalho/Seminário).</t>
+          <t>MIRANDA, Natalia de Souza.. Como a pintura é a poesia: a retórica política da destruição de ídolos ameríndios pela colonização espanhola (Peru, 1551-1636). 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>Mylena Porto da Gama</t>
+          <t>Natalia de Souza Miranda</t>
         </is>
       </c>
       <c r="B343" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>GAMA, Mylena. A produção de aguardente no Norte Fluminense açucareiro: Campos dos Goytacazes nas últimas décadas do século XVIII. 2021. (Apresentação de Trabalho/Comunicação).</t>
+          <t>MIRANDA, Natalia de Souza.. Rituais de violência e comunicação política moderna: uma análise da extirpação de idolatrias no vice-reino do Peru (século XVI). 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Naiara Müssnich Rotta Gomes de Assunção</t>
+          <t>Natalia de Souza Miranda</t>
         </is>
       </c>
       <c r="B344" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>ASSUNÇÃO, NAIARA MÜSSNICH ROTTA GOMES DE. Arab Public History in Brazil: The Experience of the Hunna Collective, Historians Who Dance. 2024. (Apresentação de Trabalho/Conferência ou palestra).</t>
+          <t>MIRANDA, Natalia de Souza.; SEIXLACK, A. G. C. . Diálogos com a produção intelectual indígena: novas possibilidades para a descolonização do pensamento. 2021. (Apresentação de Trabalho/Congresso).</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>Naiara Müssnich Rotta Gomes de Assunção</t>
+          <t>Natalia de Souza Miranda</t>
         </is>
       </c>
       <c r="B345" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>ASSUNÇÃO, NAIARA MÜSSNICH ROTTA GOMES DE. A recepção da antiguidade egípcia no filme ?Gharam fi el-Karnak? (1967). 2024. (Apresentação de Trabalho/Comunicação).</t>
+          <t>MIRANDA, Natalia de Souza.. Resistência indígenas: o Taki Onqoy e a luta antiescravista no Vice-Reino do Peru (séc. XVI). 2021. (Apresentação de Trabalho/Conferência ou palestra).</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>Naiara Müssnich Rotta Gomes de Assunção</t>
+          <t>Natalia de Souza Miranda</t>
         </is>
       </c>
       <c r="B346" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>ASSUNÇÃO, NAIARA MÜSSNICH ROTTA GOMES DE. ?Hunna Collective: Historians who Dance?: Historical Background, Proposals, and Definitions regarding Public History in the Dance field. 2024. (Apresentação de Trabalho/Comunicação).</t>
+          <t>MIRANDA, Natalia de Souza.. Resistências indígenas: a recriação de mitos e o enfrentamento à escravidão no Peru e no Brasil (séc. XVI). 2021. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>Naiara Müssnich Rotta Gomes de Assunção</t>
+          <t>Nina Fernandes Cunha Galvao</t>
         </is>
       </c>
       <c r="B347" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>ASSUNÇÃO, NAIARA MÜSSNICH ROTTA GOMES DE. Oficina 'O Oriente e os preconceitos orientalistas'. 2023. (Apresentação de Trabalho/Outra).</t>
+          <t>GALVAO, N. F. C.. Lembrar a Nakba em Israel; ser palestino cidadão do Estado judeu: memória e resistência política. 2021. (Apresentação de Trabalho/Congresso).</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>Naiara Müssnich Rotta Gomes de Assunção</t>
+          <t>Nina Fernandes Cunha Galvao</t>
         </is>
       </c>
       <c r="B348" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>ASSUNÇÃO, NAIARA MÜSSNICH ROTTA GOMES DE. Taller ?¿Qué es la danza oriental??. 2023. (Apresentação de Trabalho/Outra).</t>
+          <t>GALVAO, N. F. C.. A ?Lei da Propriedade do Ausente? e o apagamento dos palestinos em Israel. 2021. (Apresentação de Trabalho/Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Naiara Müssnich Rotta Gomes de Assunção</t>
+          <t>Nina Fernandes Cunha Galvao</t>
         </is>
       </c>
       <c r="B349" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>ASSUNÇÃO, NAIARA MÜSSNICH ROTTA GOMES DE. Representations and paradoxes regarding the practice of ?belly dance? in Egypt and Brazil. 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>GALVAO, N. F. C.. A memória e a produção da verdade na questão da Palestina: configurações de negacionismo e reconhecimento.. 2021. (Apresentação de Trabalho/Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>Naiara Müssnich Rotta Gomes de Assunção</t>
+          <t>Patrick Antunes Menezes</t>
         </is>
       </c>
       <c r="B350" t="n">
@@ -7628,29 +7622,29 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>ASSUNÇÃO, NAIARA MÜSSNICH ROTTA GOMES DE; PRESTES, Jéssica . INTERPRETANDO FONTES: A publicização didática do conhecimento histórico dentro do mundo da dança. 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>MENEZES, Patrick Antunes. Diáspora africana no atlântico: tráfico de africanos e as redes comerciais entre o porto de Benguela e o Rio de Janeiro, séculos XVIII e XIX. Jornada de Estudos Históricos Professor Manoel Salgado. 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>Naiara Müssnich Rotta Gomes de Assunção</t>
+          <t>Patrick Antunes Menezes</t>
         </is>
       </c>
       <c r="B351" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>ASSUNÇÃO, NAIARA MÜSSNICH ROTTA GOMES DE. Orientalismo na História da Dança do Ventre. 2022. (Apresentação de Trabalho/Conferência ou palestra).</t>
+          <t>MENEZES, Patrick Antunes. O tráfico de africanos e as redes comerciais atlânticas: o porto de Benguela e o Rio de Janeiro entre o século XVIII e XIX. V Jornadas História Moderna em Foco. 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>Naiara Müssnich Rotta Gomes de Assunção</t>
+          <t>Patrick Antunes Menezes</t>
         </is>
       </c>
       <c r="B352" t="n">
@@ -7658,134 +7652,134 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>BAKKA, Egil ; GORE, Georgiana W. ;ASSUNÇÃO, NAIARA MÜSSNICH ROTTA GOMES DE; KARDASH, Masha . The World in Dance Words. 2022. (Apresentação de Trabalho/Comunicação).</t>
+          <t>MENEZES, Patrick Antunes. O tráfico atlântico de Benguela para o Rio de Janeiro no século XIX: possibilidades de pesquisa a partir do SlaveVoyages. II Seminário Ensino e Pesquisa em História da África na Contemporaneidade. 2022. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>Naiara Müssnich Rotta Gomes de Assunção</t>
+          <t>Paulo Celso Liberato Corrêa</t>
         </is>
       </c>
       <c r="B353" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>ASSUNÇÃO, NAIARA MÜSSNICH ROTTA GOMES DE. Roundtable Young Scholars in Academia. 2022. (Apresentação de Trabalho/Outra).</t>
+          <t>CORRÊA, P. C. L.. A memória de João Pandiá Calógeras na revista Digesto Econômico: a Primeira República segundo os intelectuais orgânicos do tecno-empresariado brasileiro (1944-1973). 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Naiara Müssnich Rotta Gomes de Assunção</t>
+          <t>Pedro Henrique da Silva Oriola Cardoso</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>ASSUNÇÃO, NAIARA MÜSSNICH ROTTA GOMES DE. The Arabian Nights and Travel Literature: European Delusions in North Africa. 2022. (Apresentação de Trabalho/Conferência ou palestra).</t>
+          <t>CARDOSO, Pedro. Os portuários de Santos na transição política brasileira: contrarrevolução democrática, repressão e dominação de classe (1974-1988). 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>Naiara Müssnich Rotta Gomes de Assunção</t>
+          <t>Pedro Henrique da Silva Oriola Cardoso</t>
         </is>
       </c>
       <c r="B355" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>ASSUNÇÃO, Naiara M. R. G.. Orientalism and exotification in the case of Belly Dance. 2021. (Apresentação de Trabalho/Comunicação).</t>
+          <t>CARDOSO, Pedro. Os portuários de Santos na transição política brasileira: contrarrevolução democrática, repressão e dominação de classe (1974-1988). 2023. (Apresentação de Trabalho/Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>Naiara Müssnich Rotta Gomes de Assunção</t>
+          <t>Pedro Henrique da Silva Oriola Cardoso</t>
         </is>
       </c>
       <c r="B356" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>ASSUNÇÃO, Naiara M. R. G.; AMAWI, Sarah ; VENKATARAMANI, Subhashini Goda . Is it possible to decolonise oriental dance?. 2021. (Apresentação de Trabalho/Comunicação).</t>
+          <t>CARDOSO, Pedro. A Doutrina de Segurança Nacional e Mundos do Trabalho: a atuação da Companhia Docas de Santos durante a greve no porto de Santos em 1980.. 2022. (Apresentação de Trabalho/Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>Naiara Müssnich Rotta Gomes de Assunção</t>
+          <t>Pedro Henrique da Silva Oriola Cardoso</t>
         </is>
       </c>
       <c r="B357" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>ASSUNÇÃO, Naiara M. R. G.; YÁNEZ, Jorge Poveda ; MEDINA, Juan Felipe Miranda ; BEJARANO, Maria José . Notes for a Practical Concept of (De)coloniality in the Context of Music and Dance Practice. 2021. (Apresentação de Trabalho/Comunicação).</t>
+          <t>CARDOSO, Pedro. A Contrarrevolução Democrática, a Companhia Docas de Santos e os trabalhadores: A greve de 1980. 2022. (Apresentação de Trabalho/Congresso).</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>Naiara Müssnich Rotta Gomes de Assunção</t>
+          <t>Pedro Henrique Ferreira Danese Oliveira</t>
         </is>
       </c>
       <c r="B358" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>ASSUNÇÃO, Naiara M. R. G.. De dónde viene la danza del vientre? Aspectos históricos y corporales. 2021. (Apresentação de Trabalho/Conferência ou palestra).</t>
+          <t>OLIVEIRA, P. H. F. D.. A biotipologia de Krestchmer no Manicômio Judiciário de Barbacena.. 2024. (Apresentação de Trabalho/Seminário).</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Naiara Müssnich Rotta Gomes de Assunção</t>
+          <t>Pedro Henrique Ferreira Danese Oliveira</t>
         </is>
       </c>
       <c r="B359" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>ASSUNÇÃO, Naiara M. R. G.; SILVA, Ana Terra de Leon ; PASCHOAL, NINA INGRID CAPUTO ; PRESTES, Jéssica ; VASCONCELOS, Maria Beatriz Ferreira . Orientalismo E Contemporaneidade: O Que Tem A Ver Com A Nossa Dança?. 2021. (Apresentação de Trabalho/Conferência ou palestra).</t>
+          <t>OLIVEIRA, P. H. F. D.. A biotipologia de Krestchmer no Manicômio Judiciário de Barbacena.. 2024. (Apresentação de Trabalho/Congresso).</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>Naiara Müssnich Rotta Gomes de Assunção</t>
+          <t>Pedro Henrique Ferreira Danese Oliveira</t>
         </is>
       </c>
       <c r="B360" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>ASSUNÇÃO, NAIARA MÜSSNICH ROTTA GOMES DE. Colonialismo e Orientalismo. 2021. (Apresentação de Trabalho/Conferência ou palestra).</t>
+          <t>OLIVEIRA, P. H. F. D.. Pare o trem! Estudo de caso de interno no Manicômio Judiciário de Barbacena. 2022. (Apresentação de Trabalho/Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>Naiara Müssnich Rotta Gomes de Assunção</t>
+          <t>Pedro Henrique Ferreira Danese Oliveira</t>
         </is>
       </c>
       <c r="B361" t="n">
@@ -7793,14 +7787,14 @@
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>ASSUNÇÃO, NAIARA MÜSSNICH ROTTA GOMES DE. Feminismo e islamismo: é possível conciliar?. 2021. (Apresentação de Trabalho/Conferência ou palestra).</t>
+          <t>OLIVEIRA, P. H. F. D.. ?Entre a política e a ciência a construção de um ideal de nação nas primeiras décadas do século XX?. 2021. (Apresentação de Trabalho/Seminário).</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>Naiara Müssnich Rotta Gomes de Assunção</t>
+          <t>Pedro Henrique Ferreira Danese Oliveira</t>
         </is>
       </c>
       <c r="B362" t="n">
@@ -7808,134 +7802,134 @@
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>ASSUNÇÃO, Naiara M. R. G.. The Professional Market of Belly Dance in Egypt. 2021. (Apresentação de Trabalho/Comunicação).</t>
+          <t>OLIVEIRA, P. H. F. D.. Vidas errantes: análise da trajetória de internos do Manicômio Judiciário de Barbacena 1929-1941).. 2021. (Apresentação de Trabalho/Seminário).</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>Natalia de Souza Miranda</t>
+          <t>Pedro Henrique Ferreira Danese Oliveira</t>
         </is>
       </c>
       <c r="B363" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>MIRANDA, Natalia de Souza.. Como a pintura é a poesia: a retórica política da destruição de ídolos ameríndios pela colonização espanhola (Peru, 1551-1636). 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>OLIVEIRA, P. H. F. D.. Mulheres que matam- estudos de caso de infanticidas internadas no Manicômio Judiciário de Barbacena (1931-1940). 2021. (Apresentação de Trabalho/Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>Natalia de Souza Miranda</t>
+          <t>Pedro Henrique Ferreira Danese Oliveira</t>
         </is>
       </c>
       <c r="B364" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>MIRANDA, Natalia de Souza.. Rituais de violência e comunicação política moderna: uma análise da extirpação de idolatrias no vice-reino do Peru (século XVI). 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>OLIVEIRA, P. H. F. D.. As Santas Casas de Diamantina e São João del Rei e o início da assistência aos alienados no estado de Minas Gerais. 2021. (Apresentação de Trabalho/Congresso).</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>Natalia de Souza Miranda</t>
+          <t>Rafael Vieira da Cal</t>
         </is>
       </c>
       <c r="B365" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>MIRANDA, Natalia de Souza.; SEIXLACK, A. G. C. . Diálogos com a produção intelectual indígena: novas possibilidades para a descolonização do pensamento. 2021. (Apresentação de Trabalho/Congresso).</t>
+          <t>CAL, R.. História, ficção e espectralidade nas narrativas de Mariana Eva Perez e Patricio Pron. 2024. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>Natalia de Souza Miranda</t>
+          <t>Rafael Vieira da Cal</t>
         </is>
       </c>
       <c r="B366" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>MIRANDA, Natalia de Souza.. Resistência indígenas: o Taki Onqoy e a luta antiescravista no Vice-Reino do Peru (séc. XVI). 2021. (Apresentação de Trabalho/Conferência ou palestra).</t>
+          <t>CAL, R.. O espírito, o filho e o pai: Ruben e Patricio Pron entre a ficção e a memória. 2024. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>Natalia de Souza Miranda</t>
+          <t>Rafael Vieira da Cal</t>
         </is>
       </c>
       <c r="B367" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>MIRANDA, Natalia de Souza.. Resistências indígenas: a recriação de mitos e o enfrentamento à escravidão no Peru e no Brasil (séc. XVI). 2021. (Apresentação de Trabalho/Comunicação).</t>
+          <t>CAL, R.. Escribiendo con fantasmas: la escritura de Mariana Eva Perez y Patricio Pron entre la historia, la investigación y la ficción. 2024. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>Nina Fernandes Cunha Galvao</t>
+          <t>Rafael Vieira da Cal</t>
         </is>
       </c>
       <c r="B368" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>GALVAO, N. F. C.. Lembrar a Nakba em Israel; ser palestino cidadão do Estado judeu: memória e resistência política. 2021. (Apresentação de Trabalho/Congresso).</t>
+          <t>CAL, R.. História, ficção e memória nas narrativas de Ruben e Patricio Pron. 2024. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>Nina Fernandes Cunha Galvao</t>
+          <t>Rafael Vieira da Cal</t>
         </is>
       </c>
       <c r="B369" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>GALVAO, N. F. C.. A ?Lei da Propriedade do Ausente? e o apagamento dos palestinos em Israel. 2021. (Apresentação de Trabalho/Simpósio).</t>
+          <t>CAL, Rafael. História e ficção em '76' e 'Los topos', de Felix Bruzzone. 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>Nina Fernandes Cunha Galvao</t>
+          <t>Rafael Vieira da Cal</t>
         </is>
       </c>
       <c r="B370" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>GALVAO, N. F. C.. A memória e a produção da verdade na questão da Palestina: configurações de negacionismo e reconhecimento.. 2021. (Apresentação de Trabalho/Simpósio).</t>
+          <t>CAL, Rafael. Entre el espíritu y el registro correcto: documento, historia y ficción en 'El espíritu de mis padres sigue subiendo en la lluvia?. 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>Patrick Antunes Menezes</t>
+          <t>Rafael Vieira da Cal</t>
         </is>
       </c>
       <c r="B371" t="n">
@@ -7943,29 +7937,29 @@
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>MENEZES, Patrick Antunes. Diáspora africana no atlântico: tráfico de africanos e as redes comerciais entre o porto de Benguela e o Rio de Janeiro, séculos XVIII e XIX. Jornada de Estudos Históricos Professor Manoel Salgado. 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>CAL, Rafael. Arquivo, documento e ficção em '76' e 'Los topos', de Félix Bruzzone. 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>Patrick Antunes Menezes</t>
+          <t>Rafael Vieira da Cal</t>
         </is>
       </c>
       <c r="B372" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>MENEZES, Patrick Antunes. O tráfico de africanos e as redes comerciais atlânticas: o porto de Benguela e o Rio de Janeiro entre o século XVIII e XIX. V Jornadas História Moderna em Foco. 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>CAL, Rafael. 'História e ficção: documento e arquivo em 'K.: Relato e de uma busca' e 'O espírito dos meus pais continua a subir na chuva'. 2022. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>Patrick Antunes Menezes</t>
+          <t>Rafael Vieira da Cal</t>
         </is>
       </c>
       <c r="B373" t="n">
@@ -7973,74 +7967,74 @@
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>MENEZES, Patrick Antunes. O tráfico atlântico de Benguela para o Rio de Janeiro no século XIX: possibilidades de pesquisa a partir do SlaveVoyages. II Seminário Ensino e Pesquisa em História da África na Contemporaneidade. 2022. (Apresentação de Trabalho/Comunicação).</t>
+          <t>CAL, Rafael. Que pelo menos fique algo escrito: documento e arquivo em 'O espírito dos meus pais continua a subir na chuva', de Patricio Pron. 2022. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Paulo Celso Liberato Corrêa</t>
+          <t>Rafael Vieira da Cal</t>
         </is>
       </c>
       <c r="B374" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>CORRÊA, P. C. L.. A memória de João Pandiá Calógeras na revista Digesto Econômico: a Primeira República segundo os intelectuais orgânicos do tecno-empresariado brasileiro (1944-1973). 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>CAL, R.. Arquivo, documento e ficção em '76', de Félix Bruzzone. 2022. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>Pedro Henrique da Silva Oriola Cardoso</t>
+          <t>Rafael Vieira da Cal</t>
         </is>
       </c>
       <c r="B375" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>CARDOSO, Pedro. Os portuários de Santos na transição política brasileira: contrarrevolução democrática, repressão e dominação de classe (1974-1988). 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>CAL, Rafael. História e ficção em 'O espírito dos meus pais continua a subir na chuva'. 2022. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>Pedro Henrique da Silva Oriola Cardoso</t>
+          <t>Rafael Vieira da Cal</t>
         </is>
       </c>
       <c r="B376" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>CARDOSO, Pedro. Os portuários de Santos na transição política brasileira: contrarrevolução democrática, repressão e dominação de classe (1974-1988). 2023. (Apresentação de Trabalho/Simpósio).</t>
+          <t>CAL, Rafael. História, ficção e arquivo em 'Diario de una princesa montonera'. 2022. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>Pedro Henrique da Silva Oriola Cardoso</t>
+          <t>Rafael Vieira da Cal</t>
         </is>
       </c>
       <c r="B377" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>CARDOSO, Pedro. A Doutrina de Segurança Nacional e Mundos do Trabalho: a atuação da Companhia Docas de Santos durante a greve no porto de Santos em 1980.. 2022. (Apresentação de Trabalho/Simpósio).</t>
+          <t>CAL, Rafael. Documento, ficção e arquivo em 'O espírito dos meus pais continua a subir na chuva'. 2021. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>Pedro Henrique da Silva Oriola Cardoso</t>
+          <t>Renan Perozini Gomes Barrozo</t>
         </is>
       </c>
       <c r="B378" t="n">
@@ -8048,59 +8042,59 @@
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>CARDOSO, Pedro. A Contrarrevolução Democrática, a Companhia Docas de Santos e os trabalhadores: A greve de 1980. 2022. (Apresentação de Trabalho/Congresso).</t>
+          <t>BARROZO, R. P. G.. Justiça de Sangue ou Ira Divina? Considerações sobre a retórica emocional da cólera no período Carolíngio (814-845). 2022. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>Pedro Henrique Ferreira Danese Oliveira</t>
+          <t>Renan Perozini Gomes Barrozo</t>
         </is>
       </c>
       <c r="B379" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>OLIVEIRA, P. H. F. D.. A biotipologia de Krestchmer no Manicômio Judiciário de Barbacena.. 2024. (Apresentação de Trabalho/Seminário).</t>
+          <t>BARROZO, R. P. G.. Cólera divina e Ira dos Homens: Considerações sobre as emoções no período Carolíngio (840-860). 2022. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>Pedro Henrique Ferreira Danese Oliveira</t>
+          <t>Renan Perozini Gomes Barrozo</t>
         </is>
       </c>
       <c r="B380" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>OLIVEIRA, P. H. F. D.. A biotipologia de Krestchmer no Manicômio Judiciário de Barbacena.. 2024. (Apresentação de Trabalho/Congresso).</t>
+          <t>BARROZO, R. P. G.. Idade Média para que? Reflexões a respeito da Idade Média na BNCC. 2022. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>Pedro Henrique Ferreira Danese Oliveira</t>
+          <t>Renan Perozini Gomes Barrozo</t>
         </is>
       </c>
       <c r="B381" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>OLIVEIRA, P. H. F. D.. Pare o trem! Estudo de caso de interno no Manicômio Judiciário de Barbacena. 2022. (Apresentação de Trabalho/Simpósio).</t>
+          <t>BARROZO, R. P. G.. A construção do rei na Vita Karoli Magni: narrativas de amor, confiança e violência nas guerras de Carlos Magno (820-830). 2021. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>Pedro Henrique Ferreira Danese Oliveira</t>
+          <t>Renan Perozini Gomes Barrozo</t>
         </is>
       </c>
       <c r="B382" t="n">
@@ -8108,14 +8102,14 @@
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>OLIVEIRA, P. H. F. D.. ?Entre a política e a ciência a construção de um ideal de nação nas primeiras décadas do século XX?. 2021. (Apresentação de Trabalho/Seminário).</t>
+          <t>BARROZO, R. P. G.. Seriam os medievais violentos ou seria a violência um recurso retórico? Uma análise da violência sob o reino de Luís o Germânico (817-860). 2021. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>Pedro Henrique Ferreira Danese Oliveira</t>
+          <t>Renan Perozini Gomes Barrozo</t>
         </is>
       </c>
       <c r="B383" t="n">
@@ -8123,14 +8117,14 @@
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>OLIVEIRA, P. H. F. D.. Vidas errantes: análise da trajetória de internos do Manicômio Judiciário de Barbacena 1929-1941).. 2021. (Apresentação de Trabalho/Seminário).</t>
+          <t>BARROZO, R. P. G.. De pagano in aecclesia: As representações normandas nos Milagres de São Germano (835-845). 2021. (Apresentação de Trabalho/Congresso).</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Pedro Henrique Ferreira Danese Oliveira</t>
+          <t>Renan Perozini Gomes Barrozo</t>
         </is>
       </c>
       <c r="B384" t="n">
@@ -8138,194 +8132,194 @@
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>OLIVEIRA, P. H. F. D.. Mulheres que matam- estudos de caso de infanticidas internadas no Manicômio Judiciário de Barbacena (1931-1940). 2021. (Apresentação de Trabalho/Simpósio).</t>
+          <t>BARROZO, R. P. G.; NEVES, L. C. S. . Ataques a comunidades (de fé) em narrativas de invasões normanda e mongol (séculos IX / XIII): um esforço de eclesiologia medieval comparada?. 2021. (Apresentação de Trabalho/Seminário).</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>Pedro Henrique Ferreira Danese Oliveira</t>
+          <t>Séfora Semíramis Sutil</t>
         </is>
       </c>
       <c r="B385" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>OLIVEIRA, P. H. F. D.. As Santas Casas de Diamantina e São João del Rei e o início da assistência aos alienados no estado de Minas Gerais. 2021. (Apresentação de Trabalho/Congresso).</t>
+          <t>SUTIL, Séfora Semíramis. Panorama histórico sobre a violência contra as mulheres. 2023. (Apresentação de Trabalho/Conferência ou palestra).</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>Rafael Vieira da Cal</t>
+          <t>Séfora Semíramis Sutil</t>
         </is>
       </c>
       <c r="B386" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>CAL, R.. História, ficção e espectralidade nas narrativas de Mariana Eva Perez e Patricio Pron. 2024. (Apresentação de Trabalho/Comunicação).</t>
+          <t>SUTIL, Séfora Semíramis. Honra sexual, defloramento e incesto em Minas Gerais (1808-1930). 2022. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>Rafael Vieira da Cal</t>
+          <t>Séfora Semíramis Sutil</t>
         </is>
       </c>
       <c r="B387" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>CAL, R.. O espírito, o filho e o pai: Ruben e Patricio Pron entre a ficção e a memória. 2024. (Apresentação de Trabalho/Comunicação).</t>
+          <t>SUTIL, Séfora Semíramis; SANTO, E. C. E. . Fontes manuscritas dos séculos XVII-XX e o ofício do historiador: minicurso prático sobre paleografia, conservação e organização de acervos históricos. 2022. (Apresentação de Trabalho/Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>Rafael Vieira da Cal</t>
+          <t>Séfora Semíramis Sutil</t>
         </is>
       </c>
       <c r="B388" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>CAL, R.. Escribiendo con fantasmas: la escritura de Mariana Eva Perez y Patricio Pron entre la historia, la investigación y la ficción. 2024. (Apresentação de Trabalho/Comunicação).</t>
+          <t>SUTIL, Séfora Semíramis; OLIVEIRA, Pedro H. F. D. . Crime e gênero: abordagem histórica sobre criminalidade feminina nos séculos XIX e XX. 2022. (Apresentação de Trabalho/Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Rafael Vieira da Cal</t>
+          <t>Séfora Semíramis Sutil</t>
         </is>
       </c>
       <c r="B389" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>CAL, R.. História, ficção e memória nas narrativas de Ruben e Patricio Pron. 2024. (Apresentação de Trabalho/Comunicação).</t>
+          <t>SUTIL, Séfora Semíramis; OLIVEIRA, Pedro H. F. D. . História do crime, da violência e da justiça: atores e instituições. 2022. (Apresentação de Trabalho/Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>Rafael Vieira da Cal</t>
+          <t>Séfora Semíramis Sutil</t>
         </is>
       </c>
       <c r="B390" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>CAL, Rafael. História e ficção em '76' e 'Los topos', de Felix Bruzzone. 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>SUTIL, Séfora Semíramis. A conduta ideal feminina e sua transgressão: velhos modelos transvestidos de novos. Formiga, Minas Gerais (1820-1870). 2021. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>Rafael Vieira da Cal</t>
+          <t>Séfora Semíramis Sutil</t>
         </is>
       </c>
       <c r="B391" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>CAL, Rafael. Entre el espíritu y el registro correcto: documento, historia y ficción en 'El espíritu de mis padres sigue subiendo en la lluvia?. 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>SUTIL, Séfora Semíramis; SANTO, E. C. E. . História social das mulheres: apontamentos sobre gênero, raça e condição no Brasil do longo século XIX. 2021. (Apresentação de Trabalho/Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>Rafael Vieira da Cal</t>
+          <t>Séfora Semíramis Sutil</t>
         </is>
       </c>
       <c r="B392" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>CAL, Rafael. Arquivo, documento e ficção em '76' e 'Los topos', de Félix Bruzzone. 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>SUTIL, Séfora Semíramis. Crimes sexuais: apontamentos sobre virgindade, defloramento e honra feminina. 2021. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>Rafael Vieira da Cal</t>
+          <t>Séfora Semíramis Sutil</t>
         </is>
       </c>
       <c r="B393" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>CAL, Rafael. 'História e ficção: documento e arquivo em 'K.: Relato e de uma busca' e 'O espírito dos meus pais continua a subir na chuva'. 2022. (Apresentação de Trabalho/Comunicação).</t>
+          <t>SUTIL, Séfora Semíramis. Mulheres pretas, pardas e brancas: valores femininos, vivências e formas de trabalho nas camadas sociais populares em Minas Gerais (1808-1850). 2021. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>Rafael Vieira da Cal</t>
+          <t>Suane Felippe Soares</t>
         </is>
       </c>
       <c r="B394" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>CAL, Rafael. Que pelo menos fique algo escrito: documento e arquivo em 'O espírito dos meus pais continua a subir na chuva', de Patricio Pron. 2022. (Apresentação de Trabalho/Comunicação).</t>
+          <t>SOARES, S. F.. A nação heterossexual brasileira e o lesbocídio: o sul global e as políticas para lésbicas. 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>Rafael Vieira da Cal</t>
+          <t>Suane Felippe Soares</t>
         </is>
       </c>
       <c r="B395" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>CAL, R.. Arquivo, documento e ficção em '76', de Félix Bruzzone. 2022. (Apresentação de Trabalho/Comunicação).</t>
+          <t>FIRMINO, C. R. ;SOARES, S. F.. GT 56: Estado, políticas públicas e desigualdades de gênero. 2023. (Apresentação de Trabalho/Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>Rafael Vieira da Cal</t>
+          <t>Suane Felippe Soares</t>
         </is>
       </c>
       <c r="B396" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>CAL, Rafael. História e ficção em 'O espírito dos meus pais continua a subir na chuva'. 2022. (Apresentação de Trabalho/Comunicação).</t>
+          <t>SOARES, S. F.; JESUS, L. G. de ; CORTES, H. M. . Live SAÚDE LGBTI+ IMPORTA!. 2023. (Apresentação de Trabalho/Conferência ou palestra).</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>Rafael Vieira da Cal</t>
+          <t>Suane Felippe Soares</t>
         </is>
       </c>
       <c r="B397" t="n">
@@ -8333,29 +8327,29 @@
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>CAL, Rafael. História, ficção e arquivo em 'Diario de una princesa montonera'. 2022. (Apresentação de Trabalho/Comunicação).</t>
+          <t>SOARES, S. F.; FIGUEIREDO, V. ; PONCIANO, R. ; SIMONARD, P. ; TRUS, A. . No Contrapé - Lesbocenso. 2022. (Apresentação de Trabalho/Conferência ou palestra).</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>Rafael Vieira da Cal</t>
+          <t>Suane Felippe Soares</t>
         </is>
       </c>
       <c r="B398" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>CAL, Rafael. Documento, ficção e arquivo em 'O espírito dos meus pais continua a subir na chuva'. 2021. (Apresentação de Trabalho/Comunicação).</t>
+          <t>SOARES, Suane F.. Onde viver as vacas: olhar e sentir corpos bovinos colonizados. 2022. (Apresentação de Trabalho/Conferência ou palestra).</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>Renan Perozini Gomes Barrozo</t>
+          <t>Suane Felippe Soares</t>
         </is>
       </c>
       <c r="B399" t="n">
@@ -8363,14 +8357,14 @@
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>BARROZO, R. P. G.. Justiça de Sangue ou Ira Divina? Considerações sobre a retórica emocional da cólera no período Carolíngio (814-845). 2022. (Apresentação de Trabalho/Comunicação).</t>
+          <t>SOARES, S. F.. Redução do suicídio e LGBTfobia. 2022. (Apresentação de Trabalho/Conferência ou palestra).</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>Renan Perozini Gomes Barrozo</t>
+          <t>Suane Felippe Soares</t>
         </is>
       </c>
       <c r="B400" t="n">
@@ -8378,14 +8372,14 @@
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>BARROZO, R. P. G.. Cólera divina e Ira dos Homens: Considerações sobre as emoções no período Carolíngio (840-860). 2022. (Apresentação de Trabalho/Comunicação).</t>
+          <t>SOARES, S. F.. Violência contra a população LGBTIA+: da invisibilidade às reações contra o apagamento. 2022. (Apresentação de Trabalho/Conferência ou palestra).</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>Renan Perozini Gomes Barrozo</t>
+          <t>Suane Felippe Soares</t>
         </is>
       </c>
       <c r="B401" t="n">
@@ -8393,720 +8387,217 @@
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>BARROZO, R. P. G.. Idade Média para que? Reflexões a respeito da Idade Média na BNCC. 2022. (Apresentação de Trabalho/Comunicação).</t>
+          <t>SOARES, Suane F.; TAPAJOS, L. ; VALENTIM, K. . Saúde mental e lesbofobia. 2022. (Apresentação de Trabalho/Conferência ou palestra).</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>Renan Perozini Gomes Barrozo</t>
+          <t>Suane Felippe Soares</t>
         </is>
       </c>
       <c r="B402" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>BARROZO, R. P. G.. A construção do rei na Vita Karoli Magni: narrativas de amor, confiança e violência nas guerras de Carlos Magno (820-830). 2021. (Apresentação de Trabalho/Comunicação).</t>
+          <t>SOARES, Suane F.; RIBAS, L. . Lesbofobia institucional, produção e coleta de dados. 2022. (Apresentação de Trabalho/Outra).</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>Renan Perozini Gomes Barrozo</t>
+          <t>Suane Felippe Soares</t>
         </is>
       </c>
       <c r="B403" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>BARROZO, R. P. G.. Seriam os medievais violentos ou seria a violência um recurso retórico? Uma análise da violência sob o reino de Luís o Germânico (817-860). 2021. (Apresentação de Trabalho/Comunicação).</t>
+          <t>SOARES, Suane F.. Dossiê do Lesbocídio. 2022. (Apresentação de Trabalho/Conferência ou palestra).</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>Renan Perozini Gomes Barrozo</t>
+          <t>Suane Felippe Soares</t>
         </is>
       </c>
       <c r="B404" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>BARROZO, R. P. G.. De pagano in aecclesia: As representações normandas nos Milagres de São Germano (835-845). 2021. (Apresentação de Trabalho/Congresso).</t>
+          <t>SOARES, Suane F.. Retour sur la première enquête sur les lesbocides au Brésil. 2022. (Apresentação de Trabalho/Congresso).</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>Renan Perozini Gomes Barrozo</t>
+          <t>Suane Felippe Soares</t>
         </is>
       </c>
       <c r="B405" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>BARROZO, R. P. G.; NEVES, L. C. S. . Ataques a comunidades (de fé) em narrativas de invasões normanda e mongol (séculos IX / XIII): um esforço de eclesiologia medieval comparada?. 2021. (Apresentação de Trabalho/Seminário).</t>
+          <t>SOARES, Suane F.. Webinário Violência contra a população LGBTQIA+: da invisibilidade às reações contra o apagamento. 2022. (Apresentação de Trabalho/Conferência ou palestra).</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>Séfora Semíramis Sutil</t>
+          <t>Suane Felippe Soares</t>
         </is>
       </c>
       <c r="B406" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>SUTIL, Séfora Semíramis. Panorama histórico sobre a violência contra as mulheres. 2023. (Apresentação de Trabalho/Conferência ou palestra).</t>
+          <t>SOARES, S. F.. Mesa de abertura 'Feminismos e representatividades na história: GTs de Gênero da Anpuh'. 2022. (Apresentação de Trabalho/Outra).</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>Séfora Semíramis Sutil</t>
+          <t>Suane Felippe Soares</t>
         </is>
       </c>
       <c r="B407" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>SUTIL, Séfora Semíramis. Honra sexual, defloramento e incesto em Minas Gerais (1808-1930). 2022. (Apresentação de Trabalho/Comunicação).</t>
+          <t>SOARES, S. F.. Dani-se: Lei Maria da Penha e suas funcionalidades, tipos de violências, direitos no trabalho e a importância de denunciar. 2021. (Apresentação de Trabalho/Outra).</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>Séfora Semíramis Sutil</t>
+          <t>Suane Felippe Soares</t>
         </is>
       </c>
       <c r="B408" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>SUTIL, Séfora Semíramis; SANTO, E. C. E. . Fontes manuscritas dos séculos XVII-XX e o ofício do historiador: minicurso prático sobre paleografia, conservação e organização de acervos históricos. 2022. (Apresentação de Trabalho/Simpósio).</t>
+          <t>SOARES, S. F.; BARBOSA, P. E. S. ; KUMPERA, J. A. M. . Lesbianidades dissidentes: negritude na literatura e no cinema contemporâneo. 2021. (Apresentação de Trabalho/Conferência ou palestra).</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>Séfora Semíramis Sutil</t>
+          <t>Suane Felippe Soares</t>
         </is>
       </c>
       <c r="B409" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>SUTIL, Séfora Semíramis; OLIVEIRA, Pedro H. F. D. . Crime e gênero: abordagem histórica sobre criminalidade feminina nos séculos XIX e XX. 2022. (Apresentação de Trabalho/Simpósio).</t>
+          <t>SOARES, S. F.. Diversidade Racismo e Violência - Perspectivas das Mulheres Jovens Periféricas. 2021. (Apresentação de Trabalho/Conferência ou palestra).</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>Séfora Semíramis Sutil</t>
+          <t>Tatiana Rodrigues Gama Russo</t>
         </is>
       </c>
       <c r="B410" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>SUTIL, Séfora Semíramis; OLIVEIRA, Pedro H. F. D. . História do crime, da violência e da justiça: atores e instituições. 2022. (Apresentação de Trabalho/Simpósio).</t>
+          <t>GAMA. Tatiana. Autoficção, literatura de testemunho, pós-memória e história ? o papel da imaginação na literatura e na elaboração da violência. 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>Séfora Semíramis Sutil</t>
+          <t>Tatiana Rodrigues Gama Russo</t>
         </is>
       </c>
       <c r="B411" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>SUTIL, Séfora Semíramis. A conduta ideal feminina e sua transgressão: velhos modelos transvestidos de novos. Formiga, Minas Gerais (1820-1870). 2021. (Apresentação de Trabalho/Comunicação).</t>
+          <t>GAMA. Tatiana. 'Dulce et decorum est pro patria mori' -  Masculinidade e o morrer na extrema direita entre o ontem e o hoje. 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>Séfora Semíramis Sutil</t>
+          <t>Thays Alves Rodrigues</t>
         </is>
       </c>
       <c r="B412" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>SUTIL, Séfora Semíramis; SANTO, E. C. E. . História social das mulheres: apontamentos sobre gênero, raça e condição no Brasil do longo século XIX. 2021. (Apresentação de Trabalho/Simpósio).</t>
+          <t>RODRIGUES, T. A.. DO MUNDO NATURAL À CLASSIFICAÇÃO SOCIAL: O USO DE ?CASTA? PELOS PORTUGUESES NO SÉCULO XVI E SUA PROJEÇÃO PARA OS SÉCULOS SEGUINTES. 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>Séfora Semíramis Sutil</t>
+          <t>Thays Alves Rodrigues</t>
         </is>
       </c>
       <c r="B413" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>SUTIL, Séfora Semíramis. Crimes sexuais: apontamentos sobre virgindade, defloramento e honra feminina. 2021. (Apresentação de Trabalho/Comunicação).</t>
+          <t>RODRIGUES, T. A.. From the natural world to social classifica:on: the use of ?caste? by the Portuguese in the 16th century and its projec:on into the following centuries. 2023. (Apresentação de Trabalho/Seminário).</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>Séfora Semíramis Sutil</t>
+          <t>Thays Alves Rodrigues</t>
         </is>
       </c>
       <c r="B414" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>SUTIL, Séfora Semíramis. Mulheres pretas, pardas e brancas: valores femininos, vivências e formas de trabalho nas camadas sociais populares em Minas Gerais (1808-1850). 2021. (Apresentação de Trabalho/Comunicação).</t>
+          <t>RODRIGUES, T. A.. O uso de 'casta' pelos portugueses no século XVI e sua projeção para os séculos seguintes. 2023. (Apresentação de Trabalho/Seminário).</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>Suane Felippe Soares</t>
+          <t>Vanessa de Souza Vieira da Rocha</t>
         </is>
       </c>
       <c r="B415" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>SOARES, S. F.. A nação heterossexual brasileira e o lesbocídio: o sul global e as políticas para lésbicas. 2023. (Apresentação de Trabalho/Comunicação).</t>
-        </is>
-      </c>
-    </row>
-    <row r="416">
-      <c r="A416" t="inlineStr">
-        <is>
-          <t>Suane Felippe Soares</t>
-        </is>
-      </c>
-      <c r="B416" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C416" t="inlineStr">
-        <is>
-          <t>FIRMINO, C. R. ;SOARES, S. F.. GT 56: Estado, políticas públicas e desigualdades de gênero. 2023. (Apresentação de Trabalho/Simpósio).</t>
-        </is>
-      </c>
-    </row>
-    <row r="417">
-      <c r="A417" t="inlineStr">
-        <is>
-          <t>Suane Felippe Soares</t>
-        </is>
-      </c>
-      <c r="B417" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C417" t="inlineStr">
-        <is>
-          <t>SOARES, S. F.; JESUS, L. G. de ; CORTES, H. M. . Live SAÚDE LGBTI+ IMPORTA!. 2023. (Apresentação de Trabalho/Conferência ou palestra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="418">
-      <c r="A418" t="inlineStr">
-        <is>
-          <t>Suane Felippe Soares</t>
-        </is>
-      </c>
-      <c r="B418" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C418" t="inlineStr">
-        <is>
-          <t>SOARES, S. F.; FIGUEIREDO, V. ; PONCIANO, R. ; SIMONARD, P. ; TRUS, A. . No Contrapé - Lesbocenso. 2022. (Apresentação de Trabalho/Conferência ou palestra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="419">
-      <c r="A419" t="inlineStr">
-        <is>
-          <t>Suane Felippe Soares</t>
-        </is>
-      </c>
-      <c r="B419" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C419" t="inlineStr">
-        <is>
-          <t>SOARES, Suane F.. Onde viver as vacas: olhar e sentir corpos bovinos colonizados. 2022. (Apresentação de Trabalho/Conferência ou palestra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="420">
-      <c r="A420" t="inlineStr">
-        <is>
-          <t>Suane Felippe Soares</t>
-        </is>
-      </c>
-      <c r="B420" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C420" t="inlineStr">
-        <is>
-          <t>SOARES, S. F.. Redução do suicídio e LGBTfobia. 2022. (Apresentação de Trabalho/Conferência ou palestra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="421">
-      <c r="A421" t="inlineStr">
-        <is>
-          <t>Suane Felippe Soares</t>
-        </is>
-      </c>
-      <c r="B421" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C421" t="inlineStr">
-        <is>
-          <t>SOARES, S. F.. Violência contra a população LGBTIA+: da invisibilidade às reações contra o apagamento. 2022. (Apresentação de Trabalho/Conferência ou palestra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="422">
-      <c r="A422" t="inlineStr">
-        <is>
-          <t>Suane Felippe Soares</t>
-        </is>
-      </c>
-      <c r="B422" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C422" t="inlineStr">
-        <is>
-          <t>SOARES, Suane F.; TAPAJOS, L. ; VALENTIM, K. . Saúde mental e lesbofobia. 2022. (Apresentação de Trabalho/Conferência ou palestra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="423">
-      <c r="A423" t="inlineStr">
-        <is>
-          <t>Suane Felippe Soares</t>
-        </is>
-      </c>
-      <c r="B423" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C423" t="inlineStr">
-        <is>
-          <t>SOARES, Suane F.; RIBAS, L. . Lesbofobia institucional, produção e coleta de dados. 2022. (Apresentação de Trabalho/Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="424">
-      <c r="A424" t="inlineStr">
-        <is>
-          <t>Suane Felippe Soares</t>
-        </is>
-      </c>
-      <c r="B424" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C424" t="inlineStr">
-        <is>
-          <t>SOARES, Suane F.. Dossiê do Lesbocídio. 2022. (Apresentação de Trabalho/Conferência ou palestra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="425">
-      <c r="A425" t="inlineStr">
-        <is>
-          <t>Suane Felippe Soares</t>
-        </is>
-      </c>
-      <c r="B425" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C425" t="inlineStr">
-        <is>
-          <t>SOARES, Suane F.. Retour sur la première enquête sur les lesbocides au Brésil. 2022. (Apresentação de Trabalho/Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="426">
-      <c r="A426" t="inlineStr">
-        <is>
-          <t>Suane Felippe Soares</t>
-        </is>
-      </c>
-      <c r="B426" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C426" t="inlineStr">
-        <is>
-          <t>SOARES, Suane F.. Webinário Violência contra a população LGBTQIA+: da invisibilidade às reações contra o apagamento. 2022. (Apresentação de Trabalho/Conferência ou palestra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="427">
-      <c r="A427" t="inlineStr">
-        <is>
-          <t>Suane Felippe Soares</t>
-        </is>
-      </c>
-      <c r="B427" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C427" t="inlineStr">
-        <is>
-          <t>SOARES, S. F.. Mesa de abertura 'Feminismos e representatividades na história: GTs de Gênero da Anpuh'. 2022. (Apresentação de Trabalho/Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="428">
-      <c r="A428" t="inlineStr">
-        <is>
-          <t>Suane Felippe Soares</t>
-        </is>
-      </c>
-      <c r="B428" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C428" t="inlineStr">
-        <is>
-          <t>SOARES, S. F.. Dani-se: Lei Maria da Penha e suas funcionalidades, tipos de violências, direitos no trabalho e a importância de denunciar. 2021. (Apresentação de Trabalho/Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="429">
-      <c r="A429" t="inlineStr">
-        <is>
-          <t>Suane Felippe Soares</t>
-        </is>
-      </c>
-      <c r="B429" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C429" t="inlineStr">
-        <is>
-          <t>SOARES, S. F.; BARBOSA, P. E. S. ; KUMPERA, J. A. M. . Lesbianidades dissidentes: negritude na literatura e no cinema contemporâneo. 2021. (Apresentação de Trabalho/Conferência ou palestra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="430">
-      <c r="A430" t="inlineStr">
-        <is>
-          <t>Suane Felippe Soares</t>
-        </is>
-      </c>
-      <c r="B430" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C430" t="inlineStr">
-        <is>
-          <t>SOARES, S. F.. Diversidade Racismo e Violência - Perspectivas das Mulheres Jovens Periféricas. 2021. (Apresentação de Trabalho/Conferência ou palestra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="431">
-      <c r="A431" t="inlineStr">
-        <is>
-          <t>Tatiana Rodrigues Gama Russo</t>
-        </is>
-      </c>
-      <c r="B431" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C431" t="inlineStr">
-        <is>
-          <t>GAMA. Tatiana. Autoficção, literatura de testemunho, pós-memória e história ? o papel da imaginação na literatura e na elaboração da violência. 2023. (Apresentação de Trabalho/Comunicação).</t>
-        </is>
-      </c>
-    </row>
-    <row r="432">
-      <c r="A432" t="inlineStr">
-        <is>
-          <t>Tatiana Rodrigues Gama Russo</t>
-        </is>
-      </c>
-      <c r="B432" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C432" t="inlineStr">
-        <is>
-          <t>GAMA. Tatiana. 'Dulce et decorum est pro patria mori' -  Masculinidade e o morrer na extrema direita entre o ontem e o hoje. 2023. (Apresentação de Trabalho/Comunicação).</t>
-        </is>
-      </c>
-    </row>
-    <row r="433">
-      <c r="A433" t="inlineStr">
-        <is>
-          <t>Thays Alves Rodrigues</t>
-        </is>
-      </c>
-      <c r="B433" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C433" t="inlineStr">
-        <is>
-          <t>RODRIGUES, T. A.. DO MUNDO NATURAL À CLASSIFICAÇÃO SOCIAL: O USO DE ?CASTA? PELOS PORTUGUESES NO SÉCULO XVI E SUA PROJEÇÃO PARA OS SÉCULOS SEGUINTES. 2023. (Apresentação de Trabalho/Comunicação).</t>
-        </is>
-      </c>
-    </row>
-    <row r="434">
-      <c r="A434" t="inlineStr">
-        <is>
-          <t>Thays Alves Rodrigues</t>
-        </is>
-      </c>
-      <c r="B434" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C434" t="inlineStr">
-        <is>
-          <t>RODRIGUES, T. A.. From the natural world to social classifica:on: the use of ?caste? by the Portuguese in the 16th century and its projec:on into the following centuries. 2023. (Apresentação de Trabalho/Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="435">
-      <c r="A435" t="inlineStr">
-        <is>
-          <t>Thays Alves Rodrigues</t>
-        </is>
-      </c>
-      <c r="B435" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C435" t="inlineStr">
-        <is>
-          <t>RODRIGUES, T. A.. O uso de 'casta' pelos portugueses no século XVI e sua projeção para os séculos seguintes. 2023. (Apresentação de Trabalho/Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="436">
-      <c r="A436" t="inlineStr">
-        <is>
-          <t>Vanessa de Souza Vieira da Rocha</t>
-        </is>
-      </c>
-      <c r="B436" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C436" t="inlineStr">
-        <is>
           <t>ROCHA, V. S. V.. A Revista Futuro e a educação socialista mexicana (1934-1940). 2021. (Apresentação de Trabalho/Comunicação).</t>
-        </is>
-      </c>
-    </row>
-    <row r="437">
-      <c r="A437" t="inlineStr">
-        <is>
-          <t>Vanessa de Souza Vieira da Rocha</t>
-        </is>
-      </c>
-      <c r="B437" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C437" t="inlineStr">
-        <is>
-          <t>32º Simpósio Nacional de História da ANPUH: Democracia e Direitos Humanos: Desafios para uma história profissional.Vicente Lombardo Toledano e a educação indígena no México pós-revolução (1920-1940).
-						2023. (Simpósio).</t>
-        </is>
-      </c>
-    </row>
-    <row r="438">
-      <c r="A438" t="inlineStr">
-        <is>
-          <t>Vanessa de Souza Vieira da Rocha</t>
-        </is>
-      </c>
-      <c r="B438" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C438" t="inlineStr">
-        <is>
-          <t>4º Encontro Internacional História e Parcerias da ANPUH-RJ.Vicente Lombardo Toledano: A trajetória intelectual de um marxista não comunista (1920-1940).
-						2023. (Simpósio).</t>
-        </is>
-      </c>
-    </row>
-    <row r="439">
-      <c r="A439" t="inlineStr">
-        <is>
-          <t>Vanessa de Souza Vieira da Rocha</t>
-        </is>
-      </c>
-      <c r="B439" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C439" t="inlineStr">
-        <is>
-          <t>Ensino e Pesquisa de História da América no século XXI. 2023. (Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="440">
-      <c r="A440" t="inlineStr">
-        <is>
-          <t>Vanessa de Souza Vieira da Rocha</t>
-        </is>
-      </c>
-      <c r="B440" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C440" t="inlineStr">
-        <is>
-          <t>Jornada de Estudos Históricos Professor Manoel Salgado.Vicente Lombardo Toledano e o problema da integração indígena pelo viés educacional (1920-1930).
-						2023. (Simpósio).</t>
-        </is>
-      </c>
-    </row>
-    <row r="441">
-      <c r="A441" t="inlineStr">
-        <is>
-          <t>Vanessa de Souza Vieira da Rocha</t>
-        </is>
-      </c>
-      <c r="B441" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C441" t="inlineStr">
-        <is>
-          <t>20º Encontro de História da ANPUH-Rio/1822-2022: 200 anos de História e Historiografia.Vicente Lombardo Toledano e a Revista Futuro: Apontamentos de um programa de formação política.
-						2022. (Simpósio).</t>
-        </is>
-      </c>
-    </row>
-    <row r="442">
-      <c r="A442" t="inlineStr">
-        <is>
-          <t>Vanessa de Souza Vieira da Rocha</t>
-        </is>
-      </c>
-      <c r="B442" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C442" t="inlineStr">
-        <is>
-          <t>20º Encontro de História da ANPUH-Rio/1822-2022: 200 anos de História e Historiografia.
-						2022. (Simpósio).</t>
-        </is>
-      </c>
-    </row>
-    <row r="443">
-      <c r="A443" t="inlineStr">
-        <is>
-          <t>Vanessa de Souza Vieira da Rocha</t>
-        </is>
-      </c>
-      <c r="B443" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C443" t="inlineStr">
-        <is>
-          <t>Jornada de Estudos Históricos Professor Manoel Salgado.O pensamento educativo de Vicente Lombardo Toledano (1920-1940). 2022. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="444">
-      <c r="A444" t="inlineStr">
-        <is>
-          <t>Vanessa de Souza Vieira da Rocha</t>
-        </is>
-      </c>
-      <c r="B444" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C444" t="inlineStr">
-        <is>
-          <t>XVI Semana de História Política da UERJ.Vicente Lombardo Toledano e as escolas missionárias indígenas no México (1920-1960).
-						2022. (Simpósio).</t>
-        </is>
-      </c>
-    </row>
-    <row r="445">
-      <c r="A445" t="inlineStr">
-        <is>
-          <t>Vanessa de Souza Vieira da Rocha</t>
-        </is>
-      </c>
-      <c r="B445" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C445" t="inlineStr">
-        <is>
-          <t>31º Simpósio Nacional de História.A Revista Futuro e a concepção de educação socialista do intelectual mexicano, Vicente Lombardo Toledano.
-						2021. (Simpósio).</t>
-        </is>
-      </c>
-    </row>
-    <row r="446">
-      <c r="A446" t="inlineStr">
-        <is>
-          <t>Vanessa de Souza Vieira da Rocha</t>
-        </is>
-      </c>
-      <c r="B446" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C446" t="inlineStr">
-        <is>
-          <t>31º Simpósio Nacional de História.
-						2021. (Simpósio).</t>
-        </is>
-      </c>
-    </row>
-    <row r="447">
-      <c r="A447" t="inlineStr">
-        <is>
-          <t>Vanessa de Souza Vieira da Rocha</t>
-        </is>
-      </c>
-      <c r="B447" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C447" t="inlineStr">
-        <is>
-          <t>Conversas Políticas e Culturais sobre América Latina.A Revista Futuro e a educação socialista mexicana (1934-1940). 2021. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="448">
-      <c r="A448" t="inlineStr">
-        <is>
-          <t>Vanessa de Souza Vieira da Rocha</t>
-        </is>
-      </c>
-      <c r="B448" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C448" t="inlineStr">
-        <is>
-          <t>III Semana Acadêmica de  História da UEMG.A Revista Futuro e a educação socialista durante o Cardenista (1934-1940). 2021. (Outra).</t>
         </is>
       </c>
     </row>
@@ -13204,7 +12695,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13307,121 +12798,28 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Jefferson de Albuquerque Mendes</t>
+          <t>Michelle Caetano</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>MENDES, J. A.; VELOSO, J. S. ; GOMES, N. C. A. . Problemas atuais e Horizontes para o futuro da História da Arte. 2024. (Apresentação de Trabalho/Comunicação).</t>
+          <t>Caetano, M.. A perspectiva do trauma: dialogando com Dominick Lacapra. Revista Maiêutica de História, 2021.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Jefferson de Albuquerque Mendes</t>
+          <t>Michelle Caetano</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="C8" t="inlineStr">
-        <is>
-          <t>MENDES, J. A.. GT 7 - Temporalidades. 2024.
-							(Programa de rádio ou TV/Mesa redonda).</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Jefferson de Albuquerque Mendes</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>MENDES, J. A.. GT 1 - Representação, política e religião. 2024.
-							(Programa de rádio ou TV/Mesa redonda).</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Jefferson de Albuquerque Mendes</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>MENDES, JEFFERSON; SHEIK, A. ; SILVA, A. C. L. S. ; SOUZA, C. M. ; OLIVEIRA, C. A. ; COSTA, C. M. P. R. ; CID, E. A. ; CORREA, G. C. ; CALLADO, V. F. M. ; OLIVEIRA, L. E. S. . 4ª SEPHA UERJ: Trânsitos, Entrecruzamentos e Paralelos. 2024. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Jefferson de Albuquerque Mendes</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>MENDES, J. A.; GUALDA, A. ; SIQUEIRA, A. ; SHEIK, A. ; BAPTISTA, B. ; MACHADO, D. ; CASPARY, G. ; AMARO, H. ; NAMORATO, J. ; KNOPP, J. ; PEREIRA, J. ; LUDWIG, L. ; SANTOS, L. ; FERNANDES, R. . 1 SEPHA - Seminário de Pesquisadores em História da Arte - PPGHA - UERJ. 2021. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Jefferson de Albuquerque Mendes</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>MENDES, J. A.. Blog do Programa de Pós-Gradução em História da Arte - PPGHA/UERJ. 2021; Tema:
-						História da Arte Global. (Blog).</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Michelle Caetano</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Caetano, M.. A perspectiva do trauma: dialogando com Dominick Lacapra. Revista Maiêutica de História, 2021.</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Michelle Caetano</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C14" t="inlineStr">
         <is>
           <t>Caetano, M.. Anos 70: a batalha cultural entre o conservador Dirty Harry e o contracultural Shaft. História e Cultura, 2021.</t>
         </is>
@@ -14956,7 +14354,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15144,134 +14542,13 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Dirson Fontes da Silva Sobrinho</t>
+          <t>Eraldo de Souza Leão Filho</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="C12" t="inlineStr">
-        <is>
-          <t>Colóquio "Golpe Civil Militar de 1964" - Como estamos 60 anos depois. 2024. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Dirson Fontes da Silva Sobrinho</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>XVI Encontro Nacional de História Oral.
-						2022. (Encontro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Dirson Fontes da Silva Sobrinho</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>"Que troço é esse de escrita acadêmica?". 2021. (Oficina).</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Dirson Fontes da Silva Sobrinho</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>I Jornada de Egressos Professor Manolo Florentino. 2021. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Dirson Fontes da Silva Sobrinho</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>SOBRINHO, D.F.; COSTA, C. R. ; GOMES, I.S. . " O Caso Brasileiro: uma análise da justiça de transição e da experiência da Comissão Nacional da Verdade". 2023. (Outro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Dirson Fontes da Silva Sobrinho</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>SOBRINHO, D.F.; CUNHA, Bárbara Pereira da ; COSTA, C. R. ; MARTINS, F. P. ; FARIA, M. E. K. ; GOMES, I. S. ; ASSIS, Pedro G.T. de . Simpósio Temático: "Memória e história no Cone Sul: ditaduras e violências nos séculos XX e XXI". 2022. (Outro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Dirson Fontes da Silva Sobrinho</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>SOBRINHO, D.F.; GOMES, I. S. ; MARTINS, F. P. ; OLIVEIRA, L. S. . Simpósio Temático: "Entre Rupturas e Continuidades: o autoritarismo brasileiro no Tempo Presente". 2022. (Outro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Dirson Fontes da Silva Sobrinho</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>SOBRINHO, D.F.; ARAUJO, M. P. N. ; MANGUEIRA, B. ; CORREA, L. ; SILVA, Izabel Priscila Pimentel da ; GOMES, I.S. . : Seminário Internacional ?45 anos do Golpe e da ditadura na Argentina: História, Memória e Diálogos com o Brasil?. 2021. (Outro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Eraldo de Souza Leão Filho</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C20" t="inlineStr">
         <is>
           <t>LEÃO FILHO, E. S.. O Padroado Régio no Brasil e as Circunscrições Eclesiásticas.
 						Rio de Janeiro:
@@ -15279,16 +14556,16 @@
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>Eric Fagundes de Carvalho</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C21" t="inlineStr">
+      <c r="B13" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C13" t="inlineStr">
         <is>
           <t>CARVALHO, E. F.. A micro-história: historiografia e contexto histórico.
 						Rio de Janeiro:
@@ -15296,108 +14573,108 @@
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Eric Fagundes de Carvalho</t>
         </is>
       </c>
-      <c r="B22" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C22" t="inlineStr">
+      <c r="B14" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C14" t="inlineStr">
         <is>
           <t>CARVALHO, E. F.; SANTOS, L. F . Editorial Revista Ars Historica 21ª Edição 2021 (Editorial).</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>Eric Fagundes de Carvalho</t>
         </is>
       </c>
-      <c r="B23" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C23" t="inlineStr">
+      <c r="B15" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C15" t="inlineStr">
         <is>
           <t>CARVALHO, E. F.; SANTOS, L. F . Editorial Revista Ars Historica 22º Edição - DossiêTemático: Regimes Autoritários e Totalitários em Perspectiva Histórica (Séculos XIX e XX) 2021 (Editorial).</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Julia Amaral Amato Moreira</t>
         </is>
       </c>
-      <c r="B24" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C24" t="inlineStr">
+      <c r="B16" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C16" t="inlineStr">
         <is>
           <t>AMARAL, Julia.. Pós-memória e A Lista de Schindler como real. Off Lattes,
 							 2023 (Artigo).</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>Julia Amaral Amato Moreira</t>
         </is>
       </c>
-      <c r="B25" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C25" t="inlineStr">
+      <c r="B17" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C17" t="inlineStr">
         <is>
           <t>AMARAL, Julia.; GHERMAN, M. . Um grito de inspiração e advertência.
 						Rio de Janeiro, 2023. (Prefácio, Pósfacio/Prefácio)&gt;.</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>Julia Amaral Amato Moreira</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C26" t="inlineStr">
+      <c r="B18" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C18" t="inlineStr">
         <is>
           <t>AMARAL, Julia.. Estética de um genocídio: a cineasta Leni Riefenstahl e sua arte a serviço do nazismo, 2023. (Prefácio, Pósfacio/Prefácio)&gt;.</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>Keicy Salustiano da Silva</t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="B19" t="n">
         <v>2024</v>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>SILVA, K. S.. José do Patrocínio, o 'Tigre da Abolição', e seu Manifesto combatente 2024 (Artigo completo - História Editorial).</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Kezia Wandressa da Costa Lima</t>
         </is>
       </c>
-      <c r="B28" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C28" t="inlineStr">
+      <c r="B20" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C20" t="inlineStr">
         <is>
           <t>LIMA, K. W. C.. 1ª Mostra Picuá de Cinema e Literatura: obras selecionadas.
 						Boa Vista RR:
@@ -15405,46 +14682,46 @@
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>Lucas Sampaio Costa Souza</t>
         </is>
       </c>
-      <c r="B29" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C29" t="inlineStr">
+      <c r="B21" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C21" t="inlineStr">
         <is>
           <t>GONCALVES, D. ;SOUZA, L. S. C.; DIAS, O. P. ; CAMPOS, P. . revista encontro orí 2023 (Revista de divulgação científica).</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>Lucas Sampaio Costa Souza</t>
         </is>
       </c>
-      <c r="B30" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C30" t="inlineStr">
+      <c r="B22" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C22" t="inlineStr">
         <is>
           <t>AGUIAR, C. P. ; CAMPOS, P. ; DIAS, O. P. ; GONCALVES, D. ;SOUZA, L. S. C.. revista encontro orí 2021 (Revista de divulgação científica).</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>Luis Henrique Souza dos Santos</t>
         </is>
       </c>
-      <c r="B31" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C31" t="inlineStr">
+      <c r="B23" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C23" t="inlineStr">
         <is>
           <t>SANTOS, LUIS HENRIQUE SOUZA DOS. Nascimento da Mídia em uma perspectiva histórica.
 						Rio de Janeiro:
@@ -15452,16 +14729,16 @@
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Luis Henrique Souza dos Santos</t>
         </is>
       </c>
-      <c r="B32" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C32" t="inlineStr">
+      <c r="B24" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C24" t="inlineStr">
         <is>
           <t>SANTOS, Luis Henrique S. dos. Negros da terra: formas de escravismo indígena.
 						Rio de Janeiro:
@@ -15469,16 +14746,16 @@
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Luis Henrique Souza dos Santos</t>
         </is>
       </c>
-      <c r="B33" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C33" t="inlineStr">
+      <c r="B25" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C25" t="inlineStr">
         <is>
           <t>SANTOS, LUIS HENRIQUE SOUZA DOS. Primeiras populações do Brasil.
 						Rio de Janeiro:
@@ -15486,10 +14763,130 @@
         </is>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Mylena Porto da Gama</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>GAMA, Mylena; SILVA, J. N. . Editorial Revista Ars Historica 25ª Edição - Dossiê: Diálogos em História Ambiental 2023 (Editorial).</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Mylena Porto da Gama</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>GAMA, Mylena; CARVALHO, E. F. . Editorial Revista Ars Historica 23ª Edição - Dossiê: Os 20 anos do Antigo Regime nos Trópicos em perspectiva 2022 (Editorial).</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Mylena Porto da Gama</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>GAMA, Mylena; CARVALHO, E. F. . Editorial Revista Ars Historica 24ª Edição - Dossiê: IV Encontro Fluminense de Teoria e Historiografia 2022 (Editorial).</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Pedro Henrique da Silva Oriola Cardoso</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>CARDOSO, Pedro. Colégio  Ação 1- 3º ano- 2º bimestre 2021 (Apostila).</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Pedro Henrique da Silva Oriola Cardoso</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>CARDOSO, Pedro. Colégio  Ação 1- 1ª fase-EJA 2021 (Apostila).</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Pedro Henrique da Silva Oriola Cardoso</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>CARDOSO, Pedro. Colégio  Ação 1- 2ª fase-EJA 2021 (Apostila).</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Pedro Henrique da Silva Oriola Cardoso</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>CARDOSO, Pedro. Colégio Ação 1- 3º ano- 3º bimestre 2021 (Apostila).</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Pedro Henrique da Silva Oriola Cardoso</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>CARDOSO, Pedro. Colégio Ação 1- 3º ano- 4º bimestre 2021 (Apostila).</t>
+        </is>
+      </c>
+    </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Michelle Caetano</t>
+          <t>Pedro Henrique da Silva Oriola Cardoso</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -15497,294 +14894,50 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Conversas Feministas-história do feminismo, intelectuais feministas,  relações de gênero e os desafios de ser mulher hoje no Brasil.
-						2021. (Encontro).</t>
+          <t>CARDOSO, Pedro. Colégio  Ação 1- 3ª fase-EJA 2021 (Apostila).</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Michelle Caetano</t>
+          <t>Rafael Vieira da Cal</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>História oral: Gênero e intersecções ABHO. 2021. (Outra).</t>
+          <t>CAL, Rafael. Lona dos sonhos: as histórias do Lona na Lua - Audiolivro 2023 (Audiolivro).</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Michelle Caetano</t>
+          <t>Rafael Vieira da Cal</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>II Simpósio de História Antiga e Medieval-UNIPAMPA.O Fogo Sagrado: a religião doméstica como pilar de fundação das sociedades antigas na obra de Fustel de Coulanges, A Cidade Antiga.
-						2021. (Simpósio).</t>
+          <t>CAL, Rafael. Lona dos sonhos: cinco anos depois 2022 (capítulo).</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Michelle Caetano</t>
+          <t>Suane Felippe Soares</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>2021</v>
       </c>
       <c r="C37" t="inlineStr">
-        <is>
-          <t>XIII Encontro Regional De História Oral Do Centro-Oeste-UFMT.
-						2021. (Encontro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Michelle Caetano</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>XV Jornada de História Cultural, Emoções Patrimoniais-UFPel.Quilombos Urbanos: universo cultural de interação entre os ex-escravizados e a intelectualidade liberal na capital do Império. 2021. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Michelle Caetano</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>XV Semana de História Política, o legado Freiriano para o século XXI-UERJ.Cinema de Atração: espetáculo moderno, aparelho propagador da ideologia missionária norte-americana.
-						2021. (Encontro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Michelle Caetano</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Caetano, M.;Nunes, Anne Caroline. III Jornada de História e Gênero GT. Coordenação do Simpósio Temático: As representações afirmativas do (s) feminino (s) em debate: gênero, Literatura e Cinema. 2022. (Outro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Michelle Caetano</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Caetano, M.. XVI Encontro Nacional de História Oral Pandemia e futuros possíveis. 2022. (Outro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Mylena Porto da Gama</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>GAMA, Mylena; SILVA, J. N. . Editorial Revista Ars Historica 25ª Edição - Dossiê: Diálogos em História Ambiental 2023 (Editorial).</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Mylena Porto da Gama</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>GAMA, Mylena; CARVALHO, E. F. . Editorial Revista Ars Historica 23ª Edição - Dossiê: Os 20 anos do Antigo Regime nos Trópicos em perspectiva 2022 (Editorial).</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Mylena Porto da Gama</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>GAMA, Mylena; CARVALHO, E. F. . Editorial Revista Ars Historica 24ª Edição - Dossiê: IV Encontro Fluminense de Teoria e Historiografia 2022 (Editorial).</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Pedro Henrique da Silva Oriola Cardoso</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>CARDOSO, Pedro. Colégio  Ação 1- 3º ano- 2º bimestre 2021 (Apostila).</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Pedro Henrique da Silva Oriola Cardoso</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>CARDOSO, Pedro. Colégio  Ação 1- 1ª fase-EJA 2021 (Apostila).</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Pedro Henrique da Silva Oriola Cardoso</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>CARDOSO, Pedro. Colégio  Ação 1- 2ª fase-EJA 2021 (Apostila).</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Pedro Henrique da Silva Oriola Cardoso</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>CARDOSO, Pedro. Colégio Ação 1- 3º ano- 3º bimestre 2021 (Apostila).</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Pedro Henrique da Silva Oriola Cardoso</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>CARDOSO, Pedro. Colégio Ação 1- 3º ano- 4º bimestre 2021 (Apostila).</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Pedro Henrique da Silva Oriola Cardoso</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>CARDOSO, Pedro. Colégio  Ação 1- 3ª fase-EJA 2021 (Apostila).</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Rafael Vieira da Cal</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>CAL, Rafael. Lona dos sonhos: as histórias do Lona na Lua - Audiolivro 2023 (Audiolivro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Rafael Vieira da Cal</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>CAL, Rafael. Lona dos sonhos: cinco anos depois 2022 (capítulo).</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Suane Felippe Soares</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C53" t="inlineStr">
         <is>
           <t>SOARES, S. F.; SOUZA, S. B. ; SILVA, M. A. . Epistemologias e ativismos lésbicos no Sul Gobal.
 						Barreiras -BA., 2021. (Prefácio, Pósfacio/Apresentação)&gt;.</t>
